--- a/daftar_berita/cnn_links.xlsx
+++ b/daftar_berita/cnn_links.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Politik</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya</t>
+          <t>https://www.cnnindonesia.com/nasional/politik</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,24 +494,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45926.63246164168</v>
+        <v>45928.69735314833</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:44.685841+07:00</t>
+          <t>2025-09-28 16:44:11.312016+07:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Hukum &amp; Kriminal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/nasional/hukum-kriminal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,24 +523,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45926.63246247505</v>
+        <v>45928.69735422979</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:44.757844+07:00</t>
+          <t>2025-09-28 16:44:11.405454+07:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Politik</t>
+          <t>Peristiwa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/politik</t>
+          <t>https://www.cnnindonesia.com/nasional/peristiwa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,24 +552,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45926.63246429931</v>
+        <v>45928.69735830258</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:44.915460+07:00</t>
+          <t>2025-09-28 16:44:11.757343+07:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hukum &amp; Kriminal</t>
+          <t>Pemilu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/hukum-kriminal</t>
+          <t>https://www.cnnindonesia.com/nasional/pemilu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,24 +581,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45926.63246666537</v>
+        <v>45928.69735977559</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.119888+07:00</t>
+          <t>2025-09-28 16:44:11.884611+07:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Peristiwa</t>
+          <t>Info Politik</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/peristiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/info-politik</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,24 +610,24 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45926.6324680236</v>
+        <v>45928.69736157839</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.237239+07:00</t>
+          <t>2025-09-28 16:44:12.040373+07:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pemilu</t>
+          <t>Asia Pasifik</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/pemilu</t>
+          <t>https://www.cnnindonesia.com/internasional/asia-pasifik</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,24 +639,24 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45926.63246928995</v>
+        <v>45928.69736591305</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.346652+07:00</t>
+          <t>2025-09-28 16:44:12.414887+07:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Info Politik</t>
+          <t>Timur Tengah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/info-politik</t>
+          <t>https://www.cnnindonesia.com/internasional/timur-tengah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,24 +668,24 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45926.63247053633</v>
+        <v>45928.69736752987</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.454339+07:00</t>
+          <t>2025-09-28 16:44:12.554581+07:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Asia Pasifik</t>
+          <t>Eropa Amerika</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/asia-pasifik</t>
+          <t>https://www.cnnindonesia.com/internasional/eropa-amerika</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,24 +697,24 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45926.6324724935</v>
+        <v>45928.69736859886</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.623439+07:00</t>
+          <t>2025-09-28 16:44:12.646942+07:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Timur Tengah</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/timur-tengah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/keuangan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,24 +726,24 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45926.63247332692</v>
+        <v>45928.69737073898</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.695446+07:00</t>
+          <t>2025-09-28 16:44:12.831848+07:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eropa Amerika</t>
+          <t>Energi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/eropa-amerika</t>
+          <t>https://www.cnnindonesia.com/ekonomi/energi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,24 +755,24 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45926.63247463476</v>
+        <v>45928.69737197986</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.808443+07:00</t>
+          <t>2025-09-28 16:44:12.939060+07:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Bisnis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/keuangan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/bisnis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -784,24 +784,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45926.63247628501</v>
+        <v>45928.69737343722</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:45.951025+07:00</t>
+          <t>2025-09-28 16:44:13.064976+07:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Energi</t>
+          <t>Corporate Action</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/energi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/corporate-action</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,24 +813,24 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45926.63247712253</v>
+        <v>45928.69737849642</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:46.023386+07:00</t>
+          <t>2025-09-28 16:44:13.502091+07:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bisnis</t>
+          <t>Sepakbola</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/bisnis</t>
+          <t>https://www.cnnindonesia.com/olahraga/sepakbola</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -842,24 +842,24 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45926.63247981209</v>
+        <v>45928.69737977709</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:46.255765+07:00</t>
+          <t>2025-09-28 16:44:13.612741+07:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Corporate Action</t>
+          <t>Moto GP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/corporate-action</t>
+          <t>https://www.cnnindonesia.com/olahraga/moto-gp</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -871,24 +871,24 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45926.63248097258</v>
+        <v>45928.69738172822</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:46.356031+07:00</t>
+          <t>2025-09-28 16:44:13.781318+07:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sepakbola</t>
+          <t>Teknologi Informasi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/olahraga/sepakbola</t>
+          <t>https://www.cnnindonesia.com/teknologi/teknologi-informasi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -900,24 +900,24 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45926.63248277089</v>
+        <v>45928.6973840073</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:46.511405+07:00</t>
+          <t>2025-09-28 16:44:13.978231+07:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moto GP</t>
+          <t>Telekomunikasi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/olahraga/moto-gp</t>
+          <t>https://www.cnnindonesia.com/teknologi/telekomunikasi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -929,24 +929,24 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45926.63248360117</v>
+        <v>45928.69738564757</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:46.583141+07:00</t>
+          <t>2025-09-28 16:44:14.119950+07:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Teknologi Informasi</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/teknologi-informasi</t>
+          <t>https://www.cnnindonesia.com/teknologi/climate</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -958,24 +958,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45926.63248692454</v>
+        <v>45928.69738705917</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:46.870280+07:00</t>
+          <t>2025-09-28 16:44:14.241912+07:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Telekomunikasi</t>
+          <t>E-Vehicle</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/telekomunikasi</t>
+          <t>https://www.cnnindonesia.com/otomotif/e-vehicle</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -987,24 +987,24 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45926.63248773362</v>
+        <v>45928.6973887675</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:46.940185+07:00</t>
+          <t>2025-09-28 16:44:14.389512+07:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/climate</t>
+          <t>https://www.cnnindonesia.com/otomotif/commercial</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1016,24 +1016,24 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45926.63248938187</v>
+        <v>45928.69739069622</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:47.082594+07:00</t>
+          <t>2025-09-28 16:44:14.556153+07:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E-Vehicle</t>
+          <t>Info Otomotif</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/e-vehicle</t>
+          <t>https://www.cnnindonesia.com/otomotif/info-otomotif</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1045,24 +1045,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45926.63249119089</v>
+        <v>45928.69739277379</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:47.238893+07:00</t>
+          <t>2025-09-28 16:44:14.735655+07:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Seni Budaya</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/commercial</t>
+          <t>https://www.cnnindonesia.com/hiburan/seni-budaya</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1074,24 +1074,24 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45926.63249351284</v>
+        <v>45928.69739449849</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:47.439509+07:00</t>
+          <t>2025-09-28 16:44:14.884670+07:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Info Otomotif</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/info-otomotif</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/health</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1103,24 +1103,24 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45926.63249586453</v>
+        <v>45928.6973961469</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:47.642695+07:00</t>
+          <t>2025-09-28 16:44:15.027092+07:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Seni Budaya</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/hiburan/seni-budaya</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/travel</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1132,24 +1132,24 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45926.63249667719</v>
+        <v>45928.69739779993</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:47.712909+07:00</t>
+          <t>2025-09-28 16:44:15.169914+07:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Trends</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/health</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/trends</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1161,24 +1161,24 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45926.63249826398</v>
+        <v>45928.69739992756</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:47.850008+07:00</t>
+          <t>2025-09-28 16:44:15.353741+07:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/travel</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250925180050-532-1277772/purbaya-ancam-ambil-alih-uang-pemda-yang-masih-nganggur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1190,24 +1190,28 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45926.63249975714</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>45925.81774305556</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-09-25 19:37:33+07:00</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:47.979017+07:00</t>
+          <t>2025-09-28 16:44:15.637145+07:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Trends</t>
+          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/trends</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250925100133-532-1277517/luhut-program-mbg-bagus-tinggal-pengelolaan-yang-tertib</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1219,24 +1223,28 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45926.63250091452</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>45925.74425925926</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-09-25 17:51:44+07:00</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:48.079015+07:00</t>
+          <t>2025-09-28 16:44:15.791229+07:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 19 jam yang lalu</t>
+          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 4 hari yang lalu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925180050-532-1277772/purbaya-ancam-ambil-alih-uang-pemda-yang-masih-nganggur</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250923163703-532-1276872/purbaya-optimistis-mimpi-prabowo-defisit-apbn-0-persen-bisa-terwujud</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1248,28 +1256,28 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45925.81774305556</v>
+        <v>45923.71894675926</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-25 19:37:33+07:00</t>
+          <t>2025-09-23 17:15:17+07:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:48.242419+07:00</t>
+          <t>2025-09-28 16:44:15.934513+07:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 21 jam yang lalu</t>
+          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925100133-532-1277517/luhut-program-mbg-bagus-tinggal-pengelolaan-yang-tertib</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250923142814-532-1276800/purbaya-pede-bisa-genjot-ekonomi-ri-lebih-cepat-tanpa-tambah-utang</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1281,28 +1289,28 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45925.74425925926</v>
+        <v>45923.6375</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-25 17:51:44+07:00</t>
+          <t>2025-09-23 15:18:00+07:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:48.486386+07:00</t>
+          <t>2025-09-28 16:44:16.067920+07:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 2 hari yang lalu</t>
+          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250923163703-532-1276872/purbaya-optimistis-mimpi-prabowo-defisit-apbn-0-persen-bisa-terwujud</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922162321-532-1276432/purbaya-tegaskan-data-ekonomi-ri-tumbuh-512-persen-bukan-manipulasi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1314,28 +1322,28 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45923.71894675926</v>
+        <v>45922.81293981482</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-23 17:15:17+07:00</t>
+          <t>2025-09-22 19:30:38+07:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:48.667720+07:00</t>
+          <t>2025-09-28 16:44:16.234482+07:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 2 hari yang lalu</t>
+          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250923142814-532-1276800/purbaya-pede-bisa-genjot-ekonomi-ri-lebih-cepat-tanpa-tambah-utang</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922174710-532-1276471/purbaya-panggil-tokopedia-cs-larang-jual-rokok-ilegal-mulai-1-oktober</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1347,28 +1355,28 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45923.6375</v>
+        <v>45922.7609837963</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-23 15:18:00+07:00</t>
+          <t>2025-09-22 18:15:49+07:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:48.857229+07:00</t>
+          <t>2025-09-28 16:44:16.380852+07:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 3 hari yang lalu</t>
+          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 6 hari yang lalu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922162321-532-1276432/purbaya-tegaskan-data-ekonomi-ri-tumbuh-512-persen-bukan-manipulasi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922153320-532-1276410/purbaya-ancam-sikat-oknum-bea-cukai-terlibat-peredaran-rokok-ilegal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1380,28 +1388,28 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45922.81293981482</v>
+        <v>45922.68662037037</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-22 19:30:38+07:00</t>
+          <t>2025-09-22 16:28:44+07:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:49.042466+07:00</t>
+          <t>2025-09-28 16:44:16.585919+07:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 3 hari yang lalu</t>
+          <t>Menkeu Purbaya soal Satgas BLBI: Kalau Cuma Buat Keributan Enggak Usah Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922174710-532-1276471/purbaya-panggil-tokopedia-cs-larang-jual-rokok-ilegal-mulai-1-oktober</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250920072756-532-1275700/menkeu-purbaya-soal-satgas-blbi-kalau-cuma-buat-keributan-enggak-usah</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1413,28 +1421,28 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45922.7609837963</v>
+        <v>45920.32638888889</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-22 18:15:49+07:00</t>
+          <t>2025-09-20 07:50:00+07:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:49.183103+07:00</t>
+          <t>2025-09-28 16:44:16.808549+07:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 3 hari yang lalu</t>
+          <t>Purbaya Tegas Tolak Tax Amnesty Jilid III: Beri Sinyal Boleh Melanggar Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922153320-532-1276410/purbaya-ancam-sikat-oknum-bea-cukai-terlibat-peredaran-rokok-ilegal</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250919140705-532-1275476/purbaya-tegas-tolak-tax-amnesty-jilid-iii-beri-sinyal-boleh-melanggar</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1446,28 +1454,28 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45922.68662037037</v>
+        <v>45919.59828703704</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-22 16:28:44+07:00</t>
+          <t>2025-09-19 14:21:32+07:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:49.348847+07:00</t>
+          <t>2025-09-28 16:44:16.992690+07:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya soal Satgas BLBI: Kalau Cuma Buat Keributan Enggak Usah Ekonomi • 6 hari yang lalu</t>
+          <t>Purbaya soal Gugatan Tutut Soeharto: Sudah Dicabut, Beliau Kirim Salam Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250920072756-532-1275700/menkeu-purbaya-soal-satgas-blbi-kalau-cuma-buat-keributan-enggak-usah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250918151932-532-1275123/purbaya-soal-gugatan-tutut-soeharto-sudah-dicabut-beliau-kirim-salam</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1479,28 +1487,28 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45920.32638888889</v>
+        <v>45918.65365740741</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-20 07:50:00+07:00</t>
+          <t>2025-09-18 15:41:16+07:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:49.564061+07:00</t>
+          <t>2025-09-28 16:44:17.176260+07:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Purbaya Tegas Tolak Tax Amnesty Jilid III: Beri Sinyal Boleh Melanggar Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250919140705-532-1275476/purbaya-tegas-tolak-tax-amnesty-jilid-iii-beri-sinyal-boleh-melanggar</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1509,31 +1517,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45919.59828703704</v>
+        <v>45917.52737268519</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-19 14:21:32+07:00</t>
+          <t>2025-09-17 12:39:25+07:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:49.814387+07:00</t>
+          <t>2025-09-28 16:44:21.387232+07:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Purbaya soal Gugatan Tutut Soeharto: Sudah Dicabut, Beliau Kirim Salam Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250918151932-532-1275123/purbaya-soal-gugatan-tutut-soeharto-sudah-dicabut-beliau-kirim-salam</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1542,31 +1550,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45918.65365740741</v>
+        <v>45917.45146990741</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-18 15:41:16+07:00</t>
+          <t>2025-09-17 10:50:07+07:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:49.964415+07:00</t>
+          <t>2025-09-28 16:44:21.538389+07:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
+          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
+          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1578,28 +1586,28 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45917.52737268519</v>
+        <v>45916.46927083333</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-17 12:39:25+07:00</t>
+          <t>2025-09-16 11:15:45+07:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:54.919703+07:00</t>
+          <t>2025-09-28 16:44:21.700793+07:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1611,28 +1619,28 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45917.45146990741</v>
+        <v>45915.87552083333</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-17 10:50:07+07:00</t>
+          <t>2025-09-15 21:00:45+07:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:55.104927+07:00</t>
+          <t>2025-09-28 16:44:21.914775+07:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 1 minggu yang lalu</t>
+          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1644,28 +1652,28 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45916.46927083333</v>
+        <v>45915.79498842593</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-16 11:15:45+07:00</t>
+          <t>2025-09-15 19:04:47+07:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:55.267599+07:00</t>
+          <t>2025-09-28 16:44:22.052154+07:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1677,28 +1685,28 @@
         <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45915.87552083333</v>
+        <v>45915.79400462963</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-15 21:00:45+07:00</t>
+          <t>2025-09-15 19:03:22+07:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:55.433755+07:00</t>
+          <t>2025-09-28 16:44:22.184131+07:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 1 minggu yang lalu</t>
+          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
+          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1710,28 +1718,28 @@
         <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45915.79498842593</v>
+        <v>45914.57866898148</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-15 19:04:47+07:00</t>
+          <t>2025-09-14 13:53:17+07:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:55.580903+07:00</t>
+          <t>2025-09-28 16:44:22.320416+07:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 1 minggu yang lalu</t>
+          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1743,28 +1751,28 @@
         <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45915.79400462963</v>
+        <v>45913.34037037037</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-15 19:03:22+07:00</t>
+          <t>2025-09-13 08:10:08+07:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:55.719816+07:00</t>
+          <t>2025-09-28 16:44:22.472087+07:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 1 minggu yang lalu</t>
+          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1776,28 +1784,28 @@
         <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45914.57866898148</v>
+        <v>45911.80748842593</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-14 13:53:17+07:00</t>
+          <t>2025-09-11 19:22:47+07:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:55.867886+07:00</t>
+          <t>2025-09-28 16:44:22.629980+07:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 1 minggu yang lalu</t>
+          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1809,28 +1817,28 @@
         <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45913.34037037037</v>
+        <v>45911.50540509259</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-13 08:10:08+07:00</t>
+          <t>2025-09-11 12:07:47+07:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:56.047849+07:00</t>
+          <t>2025-09-28 16:44:22.778887+07:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1839,31 +1847,27 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45911.80748842593</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-09-11 19:22:47+07:00</t>
-        </is>
-      </c>
+        <v>45928.69750736777</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:56.204484+07:00</t>
+          <t>2025-09-28 16:44:24.636575+07:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D3&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1872,19 +1876,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45911.50540509259</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-09-11 12:07:47+07:00</t>
-        </is>
-      </c>
+        <v>45928.69750770112</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-09-26 15:10:56.345263+07:00</t>
+          <t>2025-09-28 16:44:24.665377+07:00</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:00.613969+07:00</t>
+          <t>2025-09-28 16:44:28.301818+07:00</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:00.810615+07:00</t>
+          <t>2025-09-28 16:44:28.499653+07:00</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:01.035626+07:00</t>
+          <t>2025-09-28 16:44:28.705689+07:00</t>
         </is>
       </c>
     </row>
@@ -2016,19 +2016,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:01.214365+07:00</t>
+          <t>2025-09-28 16:44:28.868235+07:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>01:56 VIDEO: Prabowo Instruksikan Investigasi-Penutupan SPPG MBG Bermasalah Nasional • 23 menit yang lalu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928154704-24-1278598/video-prabowo-instruksikan-investigasi-penutupan-sppg-mbg-bermasalah</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2040,24 +2040,28 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45926.63267646502</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+        <v>45928.68098379629</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-09-28 16:20:37+07:00</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:03.246578+07:00</t>
+          <t>2025-09-28 16:44:33.177375+07:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>01:36 VIDEO: DItanya Jurnalis CNN Soal MBG, Prabowo Langsung Balik Lagi TV • 38 menit yang lalu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/tv/20250928155057-404-1278599/video-ditanya-jurnalis-cnn-soal-mbg-prabowo-langsung-balik-lagi</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2069,24 +2073,28 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45926.63267842106</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>45928.67052083334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-09-28 16:05:33+07:00</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:03.415580+07:00</t>
+          <t>2025-09-28 16:44:33.264707+07:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Siswa Keracunan MBG Terus Bertambah, Dua Kabupaten Tetapkan KLB Nasional • 8 menit yang lalu</t>
+          <t>Bos BGN Lapor Prabowo Penyebab Marak Kasus Keracunan MBG Ekonomi • 53 menit yang lalu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926140242-20-1278033/siswa-keracunan-mbg-terus-bertambah-dua-kabupaten-tetapkan-klb</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250928153947-92-1278597/bos-bgn-lapor-prabowo-penyebab-marak-kasus-keracunan-mbg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2098,28 +2106,28 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45926.62659722222</v>
+        <v>45928.66037037037</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-26 15:02:18+07:00</t>
+          <t>2025-09-28 15:50:56+07:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:06.011662+07:00</t>
+          <t>2025-09-28 16:44:33.384369+07:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BGN Larang Ultra Processed Food Jadi Menu Santapan MBG Nasional • 27 menit yang lalu</t>
+          <t>01:57 VIDEO: Siswa SD Tolak Makan Bergizi Gratis, Ulat Ditemukan di Menu MBG TV • 2 jam yang lalu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926135626-20-1278024/bgn-larang-ultra-processed-food-jadi-menu-santapan-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250928132509-404-1278536/video-siswa-sd-tolak-makan-bergizi-gratis-ulat-ditemukan-di-menu-mbg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2131,28 +2139,28 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45926.61387731481</v>
+        <v>45928.58023148148</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-26 14:43:59+07:00</t>
+          <t>2025-09-28 13:55:32+07:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:06.108195+07:00</t>
+          <t>2025-09-28 16:44:33.502116+07:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Menperin Pastikan Wadah Makan MBG Wajib SNI Tahun Ini Ekonomi • 1 jam yang lalu</t>
+          <t>02:36 VIDEO: DPR Soroti Dugaan Mafia di Balik Program Makan Bergizi Gratis TV • 6 jam yang lalu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926122611-92-1277971/menperin-pastikan-wadah-makan-mbg-wajib-sni-tahun-ini</t>
+          <t>https://www.cnnindonesia.com/tv/20250928091714-404-1278493/video-dpr-soroti-dugaan-mafia-di-balik-program-makan-bergizi-gratis</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2164,28 +2172,28 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45926.56409722222</v>
+        <v>45928.43020833333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-26 13:32:18+07:00</t>
+          <t>2025-09-28 10:19:30+07:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:06.212263+07:00</t>
+          <t>2025-09-28 16:44:33.615612+07:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>26 Siswa Keracunan MBG, Pemkab Mamuju Sulbar Tetapkan Status KLB Nasional • 1 jam yang lalu</t>
+          <t>Ribuan Kasus Keracunan MBG, Dokter Gizi Soroti Masalah Kebersihan Gaya Hidup • 21 jam yang lalu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926130401-20-1277987/26-siswa-keracunan-mbg-pemkab-mamuju-sulbar-tetapkan-status-klb</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/20250925134544-255-1277617/ribuan-kasus-keracunan-mbg-dokter-gizi-soroti-masalah-kebersihan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2197,28 +2205,28 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45926.55206018518</v>
+        <v>45927.81299768519</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-26 13:14:58+07:00</t>
+          <t>2025-09-27 19:30:43+07:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:06.363633+07:00</t>
+          <t>2025-09-28 16:44:33.871280+07:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11:44 VIDEO: Kondisi Terkini Korban Keracunan MBG di Bandung Barat TV • 2 jam yang lalu</t>
+          <t>01:18 VIDEO: Prabowo Sebut Keracunan MBG Masalah Besar, Panggil Kepala BGN Nasional • 23 jam yang lalu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926124251-400-1277979/video-kondisi-terkini-korban-keracunan-mbg-di-bandung-barat</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927161919-24-1278403/video-prabowo-sebut-keracunan-mbg-masalah-besar-panggil-kepala-bgn</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2230,28 +2238,28 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45926.53417824074</v>
+        <v>45927.70511574074</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-26 12:49:13+07:00</t>
+          <t>2025-09-27 16:55:22+07:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:06.493244+07:00</t>
+          <t>2025-09-28 16:44:34.005203+07:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Food Tray MBG di Lebak Diduga Tercemar Air Limbah Bekas Makanan Nasional • 3 jam yang lalu</t>
+          <t>MBG Telan Rp1,2 T per Hari Mulai Tahun Depan Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926111757-20-1277943/food-tray-mbg-di-lebak-diduga-tercemar-air-limbah-bekas-makanan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926202814-92-1278234/mbg-telan-rp12-t-per-hari-mulai-tahun-depan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2263,28 +2271,28 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45926.49155092592</v>
+        <v>45927.60428240741</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-26 11:47:50+07:00</t>
+          <t>2025-09-27 14:30:10+07:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:06.660168+07:00</t>
+          <t>2025-09-28 16:44:34.116683+07:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:25 VIDEO: SPPG di Lebak Diduga Abaikan Higienitas Pengolahan MBG TV • 3 jam yang lalu</t>
+          <t>04:29 VIDEO: Penyajian MBG Untuk Anak Terlantar Bisa Jadi Contoh TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926113358-400-1277954/video-sppg-di-lebak-diduga-abaikan-higienitas-pengolahan-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250927104127-404-1278307/video-penyajian-mbg-untuk-anak-terlantar-bisa-jadi-contoh</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2296,28 +2304,28 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45926.48465277778</v>
+        <v>45927.57934027778</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-26 11:37:54+07:00</t>
+          <t>2025-09-27 13:54:15+07:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:06.901071+07:00</t>
+          <t>2025-09-28 16:44:34.249344+07:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lontarkan Kritik Keras MBG di Depan DPR, Siapa Itu dr Tan Shot Yen? Gaya Hidup • 4 jam yang lalu</t>
+          <t>03:18 VIDEO: Kasus Keracunan MBG, IDAI Beri Tips Pencegahan dan Penanganan TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/20250926092945-255-1277878/lontarkan-kritik-keras-mbg-di-depan-dpr-siapa-itu-dr-tan-shot-yen</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212258-404-1278248/video-kasus-keracunan-mbg-idai-beri-tips-pencegahan-dan-penanganan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2329,28 +2337,28 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45926.42760416667</v>
+        <v>45927.48122685185</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-26 10:15:45+07:00</t>
+          <t>2025-09-27 11:32:58+07:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:07.026922+07:00</t>
+          <t>2025-09-28 16:44:34.370102+07:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>02:08 VIDEO: Ibu Hamil dan Menyusui Jadi Korban Keracunan MBG TV • 5 jam yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926092706-400-1277879/video-ibu-hamil-dan-menyusui-jadi-korban-keracunan-mbg</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2359,31 +2367,27 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45926.40202546296</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2025-09-26 09:38:55+07:00</t>
-        </is>
-      </c>
+        <v>45928.69764343004</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:07.128161+07:00</t>
+          <t>2025-09-28 16:44:36.392355+07:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:59 VIDEO: Siswa Kabupaten Bandung Barat Keracunan MBG TV • 5 jam yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926091548-400-1277872/video-siswa-kabupaten-bandung-barat-keracunan-mbg</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2392,31 +2396,27 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45926.38859953704</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-09-26 09:19:35+07:00</t>
-        </is>
-      </c>
+        <v>45928.69764371077</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:07.264243+07:00</t>
+          <t>2025-09-28 16:44:36.416610+07:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Viral Serpihan Kaca dalam Menu MBG di Batam, SPPG Sebut Tak Sengaja Nasional • 6 jam yang lalu</t>
+          <t>Cerita Kepala Sekolah Diminta Teken Surat Rahasiakan Keracunan MBG Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926082950-20-1277865/viral-serpihan-kaca-dalam-menu-mbg-di-batam-sppg-sebut-tak-sengaja</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927100421-20-1278291/cerita-kepala-sekolah-diminta-teken-surat-rahasiakan-keracunan-mbg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2428,28 +2428,28 @@
         <v>2</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45926.37185185185</v>
+        <v>45927.4416087963</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-26 08:55:28+07:00</t>
+          <t>2025-09-27 10:35:55+07:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:11.935989+07:00</t>
+          <t>2025-09-28 16:44:39.315853+07:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:15 VIDEO: Ditemukan Ulat dan Belatung, MBG Dievaluasi TV • 6 jam yang lalu</t>
+          <t>01:29 VIDEO: Purnawirawan TNI Dominasi Pejabat Badan Gizi Nasional TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926081207-400-1277863/video-ditemukan-ulat-dan-belatung-mbg-dievaluasi</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212301-404-1278250/video-purnawirawan-tni-dominasi-pejabat-badan-gizi-nasional</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2461,28 +2461,28 @@
         <v>2</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45926.34434027778</v>
+        <v>45927.43959490741</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-26 08:15:51+07:00</t>
+          <t>2025-09-27 10:33:01+07:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:12.116315+07:00</t>
+          <t>2025-09-28 16:44:39.412546+07:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Daftar Pihak yang Minta MBG Disetop-Evaluasi Buntut Banyak Keracunan Ekonomi • 7 jam yang lalu</t>
+          <t>Purbaya Bakal Kerahkan Anak Buah Kawal MBG Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925162434-532-1277724/daftar-pihak-yang-minta-mbg-disetop-evaluasi-buntut-banyak-keracunan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926203850-532-1278235/purbaya-bakal-kerahkan-anak-buah-kawal-mbg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2494,28 +2494,28 @@
         <v>2</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45926.31296296296</v>
+        <v>45927.42414351852</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-26 07:30:40+07:00</t>
+          <t>2025-09-27 10:10:46+07:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:12.285186+07:00</t>
+          <t>2025-09-28 16:44:39.527951+07:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Setumpuk Respons Badan Gizi soal Kasus Keracunan MBG Ekonomi • 8 jam yang lalu</t>
+          <t>7 Daerah yang Alami Keracunan MBG Versi BGN Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925153532-92-1277687/setumpuk-respons-badan-gizi-soal-kasus-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927081552-20-1278281/7-daerah-yang-alami-keracunan-mbg-versi-bgn</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2527,28 +2527,28 @@
         <v>2</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45926.28740740741</v>
+        <v>45927.35458333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-26 06:53:52+07:00</t>
+          <t>2025-09-27 08:30:36+07:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:12.394454+07:00</t>
+          <t>2025-09-28 16:44:39.641493+07:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Warga Demo SPPG di Makassar Buntut Temuan Belatung di Nampan MBG Nasional • 10 jam yang lalu</t>
+          <t>04:57 VIDEO: Penyebab Keracunan MBG Bakal Dipidana TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925202942-20-1277818/warga-demo-sppg-di-makassar-buntut-temuan-belatung-di-nampan-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212255-404-1278244/video-penyebab-keracunan-mbg-bakal-dipidana</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2560,28 +2560,28 @@
         <v>2</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45926.20230324074</v>
+        <v>45927.33744212963</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-26 04:51:19+07:00</t>
+          <t>2025-09-27 08:05:55+07:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:12.509548+07:00</t>
+          <t>2025-09-28 16:44:39.737955+07:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dasco Minta Aparat Hukum Ikut Investigasi Kasus Keracunan MBG Nasional • 11 jam yang lalu</t>
+          <t>BGN Minta Maaf Usai Ribuan Anak Keracunan MBG, Nanik Deyang Menangis Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925170543-32-1277755/dasco-minta-aparat-hukum-ikut-investigasi-kasus-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926200143-20-1278227/bgn-minta-maaf-usai-ribuan-anak-keracunan-mbg-nanik-deyang-menangis</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2593,28 +2593,28 @@
         <v>2</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45926.15024305556</v>
+        <v>45927.28493055556</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-26 03:36:21+07:00</t>
+          <t>2025-09-27 06:50:18+07:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:12.711750+07:00</t>
+          <t>2025-09-28 16:44:39.872523+07:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BGN Sebut MBG Telah Jangkau 29 Juta Penerima di 8.018 SPPG Nasional • 12 jam yang lalu</t>
+          <t>BGN Gandeng Polri &amp; BIN Telusuri Keracunan MBG, Buka Peluang Pidana Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925194110-20-1277802/bgn-sebut-mbg-telah-jangkau-29-juta-penerima-di-8018-sppg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926191324-20-1278218/bgn-gandeng-polri-bin-telusuri-keracunan-mbg-buka-peluang-pidana</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2626,28 +2626,28 @@
         <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45926.09730324074</v>
+        <v>45927.00358796296</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-26 02:20:07+07:00</t>
+          <t>2025-09-27 00:05:10+07:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:12.825321+07:00</t>
+          <t>2025-09-28 16:44:39.967735+07:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bareskrim Turun Tangan soal Kasus Keracunan MBG Nasional • 16 jam yang lalu</t>
+          <t>Dinkes Bandung Barat Masih Tunggu Hasil Uji Lab Keracunan Massal MBG Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925204309-12-1277814/bareskrim-turun-tangan-soal-kasus-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926131835-20-1277996/dinkes-bandung-barat-masih-tunggu-hasil-uji-lab-keracunan-massal-mbg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2659,28 +2659,28 @@
         <v>2</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45925.9409375</v>
+        <v>45926.95140046296</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-25 22:34:57+07:00</t>
+          <t>2025-09-26 22:50:01+07:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:12.963923+07:00</t>
+          <t>2025-09-28 16:44:40.149407+07:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>02:16 VIDEO: Pemerintah Sebut MBG Tidak Perlu Dihentikan Total TV • 17 jam yang lalu</t>
+          <t>BGN Tutup 40 SPPG Buntut Gelombang Keracunan MBG Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250925211009-404-1277820/video-pemerintah-sebut-mbg-tidak-perlu-dihentikan-total</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926200400-20-1278228/bgn-tutup-40-sppg-buntut-gelombang-keracunan-mbg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2692,28 +2692,28 @@
         <v>2</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45925.91349537037</v>
+        <v>45926.85165509259</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-25 21:55:26+07:00</t>
+          <t>2025-09-26 20:26:23+07:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:13.068829+07:00</t>
+          <t>2025-09-28 16:44:40.328520+07:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01:49 VIDEO: DPR Desak Investigasi Kasus Keracunan Massal MBG TV • 17 jam yang lalu</t>
+          <t>9 Anak SD di Karimun Kepri Keracunan Usai Santap MBG Roti Burger Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250925211008-404-1277821/video-dpr-desak-investigasi-kasus-keracunan-massal-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926190546-20-1278214/9-anak-sd-di-karimun-kepri-keracunan-usai-santap-mbg-roti-burger</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2725,28 +2725,28 @@
         <v>2</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45925.89655092593</v>
+        <v>45926.83578703704</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-25 21:31:02+07:00</t>
+          <t>2025-09-26 20:03:32+07:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:13.175838+07:00</t>
+          <t>2025-09-28 16:44:40.559901+07:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Siswa Pulogebang Muntah Usai Makan MBG, Pemkot Jaktim Buka Suara Nasional • 18 jam yang lalu</t>
+          <t>Anggaran MBG Batal Naik Rp50 T Tahun Ini, Cuma Tambah Rp28 T Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925193514-20-1277804/siswa-pulogebang-muntah-usai-makan-mbg-pemkot-jaktim-buka-suara</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926193238-532-1278221/anggaran-mbg-batal-naik-rp50-t-tahun-ini-cuma-tambah-rp28-t</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2758,28 +2758,28 @@
         <v>3</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45925.8591087963</v>
+        <v>45926.83361111111</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-25 20:37:07+07:00</t>
+          <t>2025-09-26 20:00:24+07:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:17.190273+07:00</t>
+          <t>2025-09-28 16:44:43.699906+07:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Data Kasus Keracunan MBG versi BGN per 22 September: 4.711 Korban Nasional • 19 jam yang lalu</t>
+          <t>SPPG Cipari Cipongkor Pasok 3 RIbu MBG, Ahli Gizinya Masih Mahasiswa Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925191406-20-1277791/data-kasus-keracunan-mbg-versi-bgn-per-22-september-4711-korban</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926184543-20-1278217/sppg-cipari-cipongkor-pasok-3-ribu-mbg-ahli-gizinya-masih-mahasiswa</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2791,28 +2791,28 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45925.83828703704</v>
+        <v>45926.80699074074</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-25 20:07:08+07:00</t>
+          <t>2025-09-26 19:22:04+07:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:17.297859+07:00</t>
+          <t>2025-09-28 16:44:43.869768+07:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INFOGRAFIS: Peta Sebaran Kasus Keracunan MBG Nasional • 19 jam yang lalu</t>
+          <t>01:01 VIDEO: Food Tray MBG di Lebak Diduga Tercemar Air Limbah Bekas Makanan Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925193005-23-1277799/infografis-peta-sebaran-kasus-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926172857-24-1278155/video-food-tray-mbg-di-lebak-diduga-tercemar-air-limbah-bekas-makanan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2824,28 +2824,28 @@
         <v>3</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45925.82431712963</v>
+        <v>45926.79892361111</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-25 19:47:01+07:00</t>
+          <t>2025-09-26 19:10:27+07:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:17.492345+07:00</t>
+          <t>2025-09-28 16:44:43.966048+07:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KSP: Cuma 34 dari 8.583 Dapur MBG yang Kantongi Sertifikat Higienis Nasional • 19 jam yang lalu</t>
+          <t>02:25 VIDEO: BGN: SPPG Harus Dipimpin Chef, Produk Pabrikan Dihentikan TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925190206-20-1277788/ksp-cuma-34-dari-8583-dapur-mbg-yang-kantongi-sertifikat-higienis</t>
+          <t>https://www.cnnindonesia.com/tv/20250926180456-404-1278184/video-bgn-sppg-harus-dipimpin-chef-produk-pabrikan-dihentikan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2857,28 +2857,28 @@
         <v>3</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45925.806875</v>
+        <v>45926.79553240741</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-25 19:21:54+07:00</t>
+          <t>2025-09-26 19:05:34+07:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:17.620758+07:00</t>
+          <t>2025-09-28 16:44:44.064961+07:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BGN Tegaskan Tanggung Seluruh Biaya Pengobatan Korban Keracunan MBG Nasional • 20 jam yang lalu</t>
+          <t>02:06 VIDEO: BGN; Kami Tidak Mentolerir Bahan Baku Yang Tidak Fresh TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925175926-20-1277777/bgn-tegaskan-tanggung-seluruh-biaya-pengobatan-korban-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250926180455-404-1278183/video-bgn-kami-tidak-mentolerir-bahan-baku-yang-tidak-fresh</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2890,28 +2890,28 @@
         <v>3</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45925.79101851852</v>
+        <v>45926.7862962963</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-25 18:59:04+07:00</t>
+          <t>2025-09-26 18:52:16+07:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:17.754380+07:00</t>
+          <t>2025-09-28 16:44:44.212699+07:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BGN Soal Ikan Hiu Jadi Menu MBG di Ketapang: Kearifan Lokal Nasional • 20 jam yang lalu</t>
+          <t>01:34 VIDEO: Sertifikasi Tidak Dipenuhi Dalam 1 Bulan, BGN Ancam Tutup SPPG TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925180221-20-1277771/bgn-soal-ikan-hiu-jadi-menu-mbg-di-ketapang-kearifan-lokal</t>
+          <t>https://www.cnnindonesia.com/tv/20250926180453-404-1278179/video-sertifikasi-tidak-dipenuhi-dalam-1-bulan-bgn-ancam-tutup-sppg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2923,28 +2923,28 @@
         <v>3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45925.7678125</v>
+        <v>45926.78034722222</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-25 18:25:39+07:00</t>
+          <t>2025-09-26 18:43:42+07:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:17.962029+07:00</t>
+          <t>2025-09-28 16:44:44.302997+07:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ibu Menyusui Juga Keracunan MBG di Cipongkor: Saya Kapok Nasional • 22 jam yang lalu</t>
+          <t>Panglima TNI Resmikan 339 SPPG Makan Bergizi Gratis Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925161702-20-1277711/ibu-menyusui-juga-keracunan-mbg-di-cipongkor-saya-kapok</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926182400-12-1278198/panglima-tni-resmikan-339-sppg-makan-bergizi-gratis</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2956,28 +2956,28 @@
         <v>3</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45925.70731481481</v>
+        <v>45926.77943287037</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-25 16:58:32+07:00</t>
+          <t>2025-09-26 18:42:23+07:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:18.064818+07:00</t>
+          <t>2025-09-28 16:44:44.425829+07:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>27 Siswa SMP di Parigi Moutong Sulteng Keracunan MBG Nasional • 23 jam yang lalu</t>
+          <t>Ratusan Ibu di Jogja Aksi Pukul Panci Desak Setop MBG Militeristik Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925152430-20-1277681/27-siswa-smp-di-parigi-moutong-sulteng-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926181030-20-1278186/ratusan-ibu-di-jogja-aksi-pukul-panci-desak-setop-mbg-militeristik</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2989,28 +2989,28 @@
         <v>3</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45925.67152777778</v>
+        <v>45926.7734837963</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-25 16:07:00+07:00</t>
+          <t>2025-09-26 18:33:49+07:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:18.252092+07:00</t>
+          <t>2025-09-28 16:44:44.595234+07:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>YLKI Minta MBG Dievaluasi: Bila Perlu Setop Sementara atau Jadi Bom Ekonomi • 23 jam yang lalu</t>
+          <t>01:08 VIDEO: BGN: 45 Dapur Tidak Ikuti SOP, 40 Dapur Ditutup TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925150557-92-1277665/ylki-minta-mbg-dievaluasi-bila-perlu-setop-sementara-atau-jadi-bom</t>
+          <t>https://www.cnnindonesia.com/tv/20250926180456-404-1278181/video-bgn-45-dapur-tidak-ikuti-sop-40-dapur-ditutup</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3022,28 +3022,28 @@
         <v>3</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45925.65509259259</v>
+        <v>45926.7705787037</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-25 15:43:20+07:00</t>
+          <t>2025-09-26 18:29:38+07:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:18.357820+07:00</t>
+          <t>2025-09-28 16:44:44.753740+07:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01:49 VIDEO: Momen Tan Shot Yen Kritik Keras Menu MBG di Depan DPR Gaya Hidup • 23 jam yang lalu</t>
+          <t>02:04 VIDEO: BGN Mengakui SOP Banyak Yang Tidak Dipatuhi TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/20250925112615-259-1277558/video-momen-tan-shot-yen-kritik-keras-menu-mbg-di-depan-dpr</t>
+          <t>https://www.cnnindonesia.com/tv/20250926180454-404-1278180/video-bgn-mengakui-sop-banyak-yang-tidak-dipatuhi</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3055,28 +3055,28 @@
         <v>3</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45925.64626157407</v>
+        <v>45926.76263888889</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-25 15:30:37+07:00</t>
+          <t>2025-09-26 18:18:12+07:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:18.565559+07:00</t>
+          <t>2025-09-28 16:44:44.854114+07:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Daftar 8 Stimulus yang Digelontorkan Prabowo Buat Terbangkan Ekonomi Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fstimulus</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915184434-532-1273990/daftar-8-stimulus-yang-digelontorkan-prabowo-buat-terbangkan-ekonomi</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3088,24 +3088,28 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45926.63286946212</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+        <v>45916.27120370371</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-09-16 06:30:32+07:00</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:19.921527+07:00</t>
+          <t>2025-09-28 16:44:49.158034+07:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>00:55 VIDEO: Pemerintah Gelar Magang Fresh Graduate S1-D3 dengan Bayaran UMP Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fstimulus&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915152800-536-1273917/video-pemerintah-gelar-magang-fresh-graduate-s1-d3-dengan-bayaran-ump</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3117,24 +3121,28 @@
         <v>1</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45926.63286997531</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
+        <v>45915.65826388889</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-09-15 15:47:54+07:00</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:19.965867+07:00</t>
+          <t>2025-09-28 16:44:49.310371+07:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Daftar 8 Stimulus yang Digelontorkan Prabowo Buat Terbangkan Ekonomi Ekonomi • 1 minggu yang lalu</t>
+          <t>Pemerintah Gelar Magang 20 Ribu Fresh Graduate S1-D3, Beri Gaji UMP Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915184434-532-1273990/daftar-8-stimulus-yang-digelontorkan-prabowo-buat-terbangkan-ekonomi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915142616-532-1273868/pemerintah-gelar-magang-20-ribu-fresh-graduate-s1-d3-beri-gaji-ump</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3146,28 +3154,28 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45916.27120370371</v>
+        <v>45915.61002314815</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-16 06:30:32+07:00</t>
+          <t>2025-09-15 14:38:26+07:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:21.995268+07:00</t>
+          <t>2025-09-28 16:44:49.487807+07:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>00:55 VIDEO: Pemerintah Gelar Magang Fresh Graduate S1-D3 dengan Bayaran UMP Ekonomi • 1 minggu yang lalu</t>
+          <t>Sri Mulyani Siapkan Stimulus Rp10,8 T Buat Angkat Ekonomi Kuartal III Ekonomi • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915152800-536-1273917/video-pemerintah-gelar-magang-fresh-graduate-s1-d3-dengan-bayaran-ump</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250805194228-532-1259120/sri-mulyani-siapkan-stimulus-rp108-t-buat-angkat-ekonomi-kuartal-iii</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3179,28 +3187,28 @@
         <v>1</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45915.65826388889</v>
+        <v>45874.84435185185</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-09-15 15:47:54+07:00</t>
+          <t>2025-08-05 20:15:52+07:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:22.146420+07:00</t>
+          <t>2025-09-28 16:44:49.691932+07:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pemerintah Gelar Magang 20 Ribu Fresh Graduate S1-D3, Beri Gaji UMP Ekonomi • 1 minggu yang lalu</t>
+          <t>Prabowo Akan Diskon Tiket Pesawat, KA, PPN Properti Lagi, Kapan? Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915142616-532-1273868/pemerintah-gelar-magang-20-ribu-fresh-graduate-s1-d3-beri-gaji-ump</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250725184700-532-1255028/prabowo-akan-diskon-tiket-pesawat-ka-ppn-properti-lagi-kapan</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3212,28 +3220,28 @@
         <v>1</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45915.61002314815</v>
+        <v>45863.7987037037</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-09-15 14:38:26+07:00</t>
+          <t>2025-07-25 19:10:08+07:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:22.304162+07:00</t>
+          <t>2025-09-28 16:44:49.853030+07:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sri Mulyani Siapkan Stimulus Rp10,8 T Buat Angkat Ekonomi Kuartal III Ekonomi • 1 bulan yang lalu</t>
+          <t>01:04 VIDEO: Pemerintah Siapkan Stimulus Ringankan Beban Pengusaha TV • 5 bulan yang lalu</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250805194228-532-1259120/sri-mulyani-siapkan-stimulus-rp108-t-buat-angkat-ekonomi-kuartal-iii</t>
+          <t>https://www.cnnindonesia.com/tv/20250409120050-407-1217078/video-pemerintah-siapkan-stimulus-ringankan-beban-pengusaha</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3245,28 +3253,28 @@
         <v>1</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45874.84435185185</v>
+        <v>45756.51256944444</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-08-05 20:15:52+07:00</t>
+          <t>2025-04-09 12:18:06+07:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:22.527450+07:00</t>
+          <t>2025-09-28 16:44:49.978722+07:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Prabowo Akan Diskon Tiket Pesawat, KA, PPN Properti Lagi, Kapan? Ekonomi • 2 bulan yang lalu</t>
+          <t>Sri Mulyani Akan Lebih Selektif Tebar Insentif Ekonomi • 2 tahun yang lalu</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250725184700-532-1255028/prabowo-akan-diskon-tiket-pesawat-ka-ppn-properti-lagi-kapan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20221103165918-532-869166/sri-mulyani-akan-lebih-selektif-tebar-insentif</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3278,28 +3286,28 @@
         <v>1</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45863.7987037037</v>
+        <v>44868.72938657407</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-07-25 19:10:08+07:00</t>
+          <t>2022-11-03 17:30:19+07:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:22.765458+07:00</t>
+          <t>2025-09-28 16:44:50.213246+07:00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>01:04 VIDEO: Pemerintah Siapkan Stimulus Ringankan Beban Pengusaha TV • 5 bulan yang lalu</t>
+          <t>BI Proyeksi Yield Obligasi AS Naik Jadi 2,5 Persen Tahun Ini Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250409120050-407-1217078/video-pemerintah-siapkan-stimulus-ringankan-beban-pengusaha</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20220127094018-78-751809/bi-proyeksi-yield-obligasi-as-naik-jadi-25-persen-tahun-ini</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3311,28 +3319,28 @@
         <v>1</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45756.51256944444</v>
+        <v>44589.44765046296</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-04-09 12:18:06+07:00</t>
+          <t>2022-01-28 10:44:37+07:00</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:22.954175+07:00</t>
+          <t>2025-09-28 16:44:50.463989+07:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sri Mulyani Akan Lebih Selektif Tebar Insentif Ekonomi • 2 tahun yang lalu</t>
+          <t>OJK Perpanjang Stimulus Covid-19 Non Bank hingga 17 April 2023 Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20221103165918-532-869166/sri-mulyani-akan-lebih-selektif-tebar-insentif</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20220107083430-78-743653/ojk-perpanjang-stimulus-covid-19-non-bank-hingga-17-april-2023</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3344,28 +3352,28 @@
         <v>1</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44868.72938657407</v>
+        <v>44568.365</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022-11-03 17:30:19+07:00</t>
+          <t>2022-01-07 08:45:36+07:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:23.298649+07:00</t>
+          <t>2025-09-28 16:44:50.637753+07:00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BI Proyeksi Yield Obligasi AS Naik Jadi 2,5 Persen Tahun Ini Ekonomi • 3 tahun yang lalu</t>
+          <t>Inggris Siapkan Bantuan Rp18,9 T untuk Bisnis Terdampak Omicron Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20220127094018-78-751809/bi-proyeksi-yield-obligasi-as-naik-jadi-25-persen-tahun-ini</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20211221213014-92-737000/inggris-siapkan-bantuan-rp189-t-untuk-bisnis-terdampak-omicron</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3377,28 +3385,28 @@
         <v>1</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44589.44765046296</v>
+        <v>44551.9342824074</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022-01-28 10:44:37+07:00</t>
+          <t>2021-12-21 22:25:22+07:00</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:23.469621+07:00</t>
+          <t>2025-09-28 16:44:50.814249+07:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>OJK Perpanjang Stimulus Covid-19 Non Bank hingga 17 April 2023 Ekonomi • 3 tahun yang lalu</t>
+          <t>Sandiaga Uno Kucurkan Stimulus untuk Industri Kreatif Film Rp114,88 M Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20220107083430-78-743653/ojk-perpanjang-stimulus-covid-19-non-bank-hingga-17-april-2023</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20211220072614-92-736026/sandiaga-uno-kucurkan-stimulus-untuk-industri-kreatif-film-rp11488-m</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3407,31 +3415,31 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44568.365</v>
+        <v>44550.31802083334</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022-01-07 08:45:36+07:00</t>
+          <t>2021-12-20 07:37:57+07:00</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:23.611757+07:00</t>
+          <t>2025-09-28 16:44:54.567862+07:00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Inggris Siapkan Bantuan Rp18,9 T untuk Bisnis Terdampak Omicron Ekonomi • 3 tahun yang lalu</t>
+          <t>China 'Pompa' Stimulus Rp2.694,6 T Demi Pulihkan Ekonomi Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211221213014-92-737000/inggris-siapkan-bantuan-rp189-t-untuk-bisnis-terdampak-omicron</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20211208110823-92-731336/china-pompa-stimulus-rp26946-t-demi-pulihkan-ekonomi</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3440,31 +3448,31 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44551.9342824074</v>
+        <v>44538.55752314815</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-12-21 22:25:22+07:00</t>
+          <t>2021-12-08 13:22:50+07:00</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:23.809535+07:00</t>
+          <t>2025-09-28 16:44:54.747456+07:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sandiaga Uno Kucurkan Stimulus untuk Industri Kreatif Film Rp114,88 M Ekonomi • 3 tahun yang lalu</t>
+          <t>08:27 VIDEO: Pemerintah Tebar Stimulus di Pesta Diskon E-Commerce TV • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211220072614-92-736026/sandiaga-uno-kucurkan-stimulus-untuk-industri-kreatif-film-rp11488-m</t>
+          <t>https://www.cnnindonesia.com/tv/20211111114640-412-719655/video-pemerintah-tebar-stimulus-di-pesta-diskon-e-commerce</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3476,28 +3484,28 @@
         <v>2</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44550.31802083334</v>
+        <v>44511.49456018519</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-12-20 07:37:57+07:00</t>
+          <t>2021-11-11 11:52:10+07:00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:27.397184+07:00</t>
+          <t>2025-09-28 16:44:54.871516+07:00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>China 'Pompa' Stimulus Rp2.694,6 T Demi Pulihkan Ekonomi Ekonomi • 3 tahun yang lalu</t>
+          <t>The Fed Akan Mulai Lakukan Tapering Akhir November Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211208110823-92-731336/china-pompa-stimulus-rp26946-t-demi-pulihkan-ekonomi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20211104112354-532-716496/the-fed-akan-mulai-lakukan-tapering-akhir-november</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3509,28 +3517,28 @@
         <v>2</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44538.55752314815</v>
+        <v>44504.51833333333</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-12-08 13:22:50+07:00</t>
+          <t>2021-11-04 12:26:24+07:00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:27.616643+07:00</t>
+          <t>2025-09-28 16:44:55.081759+07:00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>08:27 VIDEO: Pemerintah Tebar Stimulus di Pesta Diskon E-Commerce TV • 3 tahun yang lalu</t>
+          <t>4 Permintaan Pengusaha Jika Pemerintah Perpanjang PPKM Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20211111114640-412-719655/video-pemerintah-tebar-stimulus-di-pesta-diskon-e-commerce</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210809164318-92-678354/4-permintaan-pengusaha-jika-pemerintah-perpanjang-ppkm</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3542,28 +3550,28 @@
         <v>2</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44511.49456018519</v>
+        <v>44417.72341435185</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-11-11 11:52:10+07:00</t>
+          <t>2021-08-09 17:21:43+07:00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:27.736212+07:00</t>
+          <t>2025-09-28 16:44:55.264148+07:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>The Fed Akan Mulai Lakukan Tapering Akhir November Ekonomi • 3 tahun yang lalu</t>
+          <t>Bank Sentral Eropa Bakal Rilis US$1 T Stimulus Covid-19 Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211104112354-532-716496/the-fed-akan-mulai-lakukan-tapering-akhir-november</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210723101234-532-671171/bank-sentral-eropa-bakal-rilis-us-1-t-stimulus-covid-19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3575,28 +3583,28 @@
         <v>2</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44504.51833333333</v>
+        <v>44400.42890046296</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-11-04 12:26:24+07:00</t>
+          <t>2021-07-23 10:17:37+07:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:27.902606+07:00</t>
+          <t>2025-09-28 16:44:55.425238+07:00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4 Permintaan Pengusaha Jika Pemerintah Perpanjang PPKM Ekonomi • 4 tahun yang lalu</t>
+          <t>Anggaran Stimulus Listrik Kuartal III Capai Rp2,33 T Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210809164318-92-678354/4-permintaan-pengusaha-jika-pemerintah-perpanjang-ppkm</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210705134332-85-663358/anggaran-stimulus-listrik-kuartal-iii-capai-rp233-t</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3608,28 +3616,28 @@
         <v>2</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44417.72341435185</v>
+        <v>44382.74363425926</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-08-09 17:21:43+07:00</t>
+          <t>2021-07-05 17:50:50+07:00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:28.064080+07:00</t>
+          <t>2025-09-28 16:44:55.594190+07:00</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bank Sentral Eropa Bakal Rilis US$1 T Stimulus Covid-19 Ekonomi • 4 tahun yang lalu</t>
+          <t>Pemerintah Siapkan 9 Paket Stimulus Proyek Hulu Migas Laut Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210723101234-532-671171/bank-sentral-eropa-bakal-rilis-us-1-t-stimulus-covid-19</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210609110029-85-652040/pemerintah-siapkan-9-paket-stimulus-proyek-hulu-migas-laut</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3641,28 +3649,28 @@
         <v>2</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44400.42890046296</v>
+        <v>44356.46609953704</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-07-23 10:17:37+07:00</t>
+          <t>2021-06-09 11:11:11+07:00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:28.260257+07:00</t>
+          <t>2025-09-28 16:44:55.801680+07:00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Anggaran Stimulus Listrik Kuartal III Capai Rp2,33 T Ekonomi • 4 tahun yang lalu</t>
+          <t>Harga Barang-barang Naik di AS Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210705134332-85-663358/anggaran-stimulus-listrik-kuartal-iii-capai-rp233-t</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210414180612-92-630011/harga-barang-barang-naik-di-as</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3674,28 +3682,28 @@
         <v>2</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44382.74363425926</v>
+        <v>44301.2959837963</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-07-05 17:50:50+07:00</t>
+          <t>2021-04-15 07:06:13+07:00</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:28.440095+07:00</t>
+          <t>2025-09-28 16:44:55.960907+07:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pemerintah Siapkan 9 Paket Stimulus Proyek Hulu Migas Laut Ekonomi • 4 tahun yang lalu</t>
+          <t>Biang Kerok Rupiah Lesu: Stimulus Fiskal dari Joe Biden Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210609110029-85-652040/pemerintah-siapkan-9-paket-stimulus-proyek-hulu-migas-laut</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210318165636-78-619270/biang-kerok-rupiah-lesu-stimulus-fiskal-dari-joe-biden</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3707,28 +3715,28 @@
         <v>2</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44356.46609953704</v>
+        <v>44273.72476851852</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-06-09 11:11:11+07:00</t>
+          <t>2021-03-18 17:23:40+07:00</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:28.587181+07:00</t>
+          <t>2025-09-28 16:44:56.115954+07:00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Harga Barang-barang Naik di AS Ekonomi • 4 tahun yang lalu</t>
+          <t>DPR AS Resmi Setujui Paket Stimulus US$1,9 T dari Joe Biden Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210414180612-92-630011/harga-barang-barang-naik-di-as</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210311125019-532-616398/dpr-as-resmi-setujui-paket-stimulus-us-19-t-dari-joe-biden</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3737,31 +3745,31 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44301.2959837963</v>
+        <v>44266.55261574074</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-04-15 07:06:13+07:00</t>
+          <t>2021-03-11 13:15:46+07:00</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:28.782040+07:00</t>
+          <t>2025-09-28 16:45:01.074797+07:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Biang Kerok Rupiah Lesu: Stimulus Fiskal dari Joe Biden Ekonomi • 4 tahun yang lalu</t>
+          <t>Pemerintah Perpanjang Diskon Tarif Listrik April-Juni 2021 Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210318165636-78-619270/biang-kerok-rupiah-lesu-stimulus-fiskal-dari-joe-biden</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210309172858-85-615647/pemerintah-perpanjang-diskon-tarif-listrik-april-juni-2021</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3770,31 +3778,31 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44273.72476851852</v>
+        <v>44264.74140046296</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-03-18 17:23:40+07:00</t>
+          <t>2021-03-09 17:47:37+07:00</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:28.937580+07:00</t>
+          <t>2025-09-28 16:45:01.243880+07:00</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DPR AS Resmi Setujui Paket Stimulus US$1,9 T dari Joe Biden Ekonomi • 4 tahun yang lalu</t>
+          <t>Euforia US$1,9 Triliun Stimulus AS Bisa Angkat IHSG Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210311125019-532-616398/dpr-as-resmi-setujui-paket-stimulus-us-19-t-dari-joe-biden</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210302061332-92-612442/euforia-us-19-triliun-stimulus-as-bisa-angkat-ihsg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3806,28 +3814,28 @@
         <v>3</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44266.55261574074</v>
+        <v>44257.27871527777</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-03-11 13:15:46+07:00</t>
+          <t>2021-03-02 06:41:21+07:00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:33.948626+07:00</t>
+          <t>2025-09-28 16:45:01.458710+07:00</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Pemerintah Perpanjang Diskon Tarif Listrik April-Juni 2021 Ekonomi • 4 tahun yang lalu</t>
+          <t>G20 Janji Tidak Akan Buru-buru Setop Bantuan Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210309172858-85-615647/pemerintah-perpanjang-diskon-tarif-listrik-april-juni-2021</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210226135627-532-611297/g20-janji-tidak-akan-buru-buru-setop-bantuan</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3839,28 +3847,28 @@
         <v>3</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44264.74140046296</v>
+        <v>44256.27871527777</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-03-09 17:47:37+07:00</t>
+          <t>2021-03-01 06:41:21+07:00</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:34.180189+07:00</t>
+          <t>2025-09-28 16:45:01.717714+07:00</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Euforia US$1,9 Triliun Stimulus AS Bisa Angkat IHSG Ekonomi • 4 tahun yang lalu</t>
+          <t>03:58 VIDEO: Jurus Stimulus 'American Rescue Plan' TV • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210302061332-92-612442/euforia-us-19-triliun-stimulus-as-bisa-angkat-ihsg</t>
+          <t>https://www.cnnindonesia.com/tv/20210219111302-400-608278/video-jurus-stimulus-american-rescue-plan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3872,28 +3880,28 @@
         <v>3</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44257.27871527777</v>
+        <v>44246.4709375</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-03-02 06:41:21+07:00</t>
+          <t>2021-02-19 11:18:09+07:00</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:34.324009+07:00</t>
+          <t>2025-09-28 16:45:01.891512+07:00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>G20 Janji Tidak Akan Buru-buru Setop Bantuan Ekonomi • 4 tahun yang lalu</t>
+          <t>Daftar Insentif Sektor Pariwisata dari Pemerintah Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210226135627-532-611297/g20-janji-tidak-akan-buru-buru-setop-bantuan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210217093605-532-607199/daftar-insentif-sektor-pariwisata-dari-pemerintah</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3905,28 +3913,28 @@
         <v>3</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44256.27871527777</v>
+        <v>44244.41059027778</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-03-01 06:41:21+07:00</t>
+          <t>2021-02-17 09:51:15+07:00</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:34.878484+07:00</t>
+          <t>2025-09-28 16:45:02.078016+07:00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>03:58 VIDEO: Jurus Stimulus 'American Rescue Plan' TV • 4 tahun yang lalu</t>
+          <t>Harga Minyak Melesat ke Level Tertinggi Sejak Januari 2020 Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20210219111302-400-608278/video-jurus-stimulus-american-rescue-plan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210209070412-85-603928/harga-minyak-melesat-ke-level-tertinggi-sejak-januari-2020</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3938,28 +3946,28 @@
         <v>3</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44246.4709375</v>
+        <v>44236.3071875</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-19 11:18:09+07:00</t>
+          <t>2021-02-09 07:22:21+07:00</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:35.025410+07:00</t>
+          <t>2025-09-28 16:45:02.226195+07:00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Daftar Insentif Sektor Pariwisata dari Pemerintah Ekonomi • 4 tahun yang lalu</t>
+          <t>Insentif Pajak Berlanjut, Pengusaha Minta Tambah Stimulus Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210217093605-532-607199/daftar-insentif-sektor-pariwisata-dari-pemerintah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210204100439-532-602114/insentif-pajak-berlanjut-pengusaha-minta-tambah-stimulus</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3971,28 +3979,28 @@
         <v>3</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44244.41059027778</v>
+        <v>44231.42525462963</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-17 09:51:15+07:00</t>
+          <t>2021-02-04 10:12:22+07:00</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:35.189601+07:00</t>
+          <t>2025-09-28 16:45:02.385542+07:00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Harga Minyak Melesat ke Level Tertinggi Sejak Januari 2020 Ekonomi • 4 tahun yang lalu</t>
+          <t>Pemerintah Siapkan Rp4,57 T Buat Listrik Gratis 2021 Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210209070412-85-603928/harga-minyak-melesat-ke-level-tertinggi-sejak-januari-2020</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210122142254-85-597174/pemerintah-siapkan-rp457-t-buat-listrik-gratis-2021</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4004,28 +4012,28 @@
         <v>3</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44236.3071875</v>
+        <v>44218.75136574074</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-02-09 07:22:21+07:00</t>
+          <t>2021-01-22 18:01:58+07:00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:35.907596+07:00</t>
+          <t>2025-09-28 16:45:02.565781+07:00</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Insentif Pajak Berlanjut, Pengusaha Minta Tambah Stimulus Ekonomi • 4 tahun yang lalu</t>
+          <t>Bukan Cuma Stimulus, Biden Harus Tundukkan Covid-19 Ekonomi • 4 tahun yang lalu</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210204100439-532-602114/insentif-pajak-berlanjut-pengusaha-minta-tambah-stimulus</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20210119102609-532-595466/bukan-cuma-stimulus-biden-harus-tundukkan-covid-19</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4037,82 +4045,16 @@
         <v>3</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44231.42525462963</v>
+        <v>44215.44386574074</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-02-04 10:12:22+07:00</t>
+          <t>2021-01-19 10:39:10+07:00</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-09-26 15:11:36.056231+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Pemerintah Siapkan Rp4,57 T Buat Listrik Gratis 2021 Ekonomi • 4 tahun yang lalu</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210122142254-85-597174/pemerintah-siapkan-rp457-t-buat-listrik-gratis-2021</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>stimulus</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>44218.75136574074</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2021-01-22 18:01:58+07:00</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2025-09-26 15:11:36.318354+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Bukan Cuma Stimulus, Biden Harus Tundukkan Covid-19 Ekonomi • 4 tahun yang lalu</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210119102609-532-595466/bukan-cuma-stimulus-biden-harus-tundukkan-covid-19</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>stimulus</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>3</v>
-      </c>
-      <c r="E115" s="2" t="n">
-        <v>44215.44386574074</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2021-01-19 10:39:10+07:00</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>2025-09-26 15:11:36.496833+07:00</t>
+          <t>2025-09-28 16:45:02.741676+07:00</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/cnn_links.xlsx
+++ b/daftar_berita/cnn_links.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Politik</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/politik</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,24 +494,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45928.69735314833</v>
+        <v>45929.39729805636</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:11.312016+07:00</t>
+          <t>2025-09-29 09:32:06.552070+07:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hukum &amp; Kriminal</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/hukum-kriminal</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,24 +523,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45928.69735422979</v>
+        <v>45929.39729859347</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:11.405454+07:00</t>
+          <t>2025-09-29 09:32:06.598476+07:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peristiwa</t>
+          <t>Politik</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/peristiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/politik</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,24 +552,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45928.69735830258</v>
+        <v>45929.39730016637</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:11.757343+07:00</t>
+          <t>2025-09-29 09:32:06.734374+07:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pemilu</t>
+          <t>Hukum &amp; Kriminal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/pemilu</t>
+          <t>https://www.cnnindonesia.com/nasional/hukum-kriminal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,24 +581,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45928.69735977559</v>
+        <v>45929.39730101655</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:11.884611+07:00</t>
+          <t>2025-09-29 09:32:06.807830+07:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Info Politik</t>
+          <t>Peristiwa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/info-politik</t>
+          <t>https://www.cnnindonesia.com/nasional/peristiwa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,24 +610,24 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45928.69736157839</v>
+        <v>45929.39730289063</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:12.040373+07:00</t>
+          <t>2025-09-29 09:32:06.969751+07:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Asia Pasifik</t>
+          <t>Pemilu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/asia-pasifik</t>
+          <t>https://www.cnnindonesia.com/nasional/pemilu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,24 +639,24 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45928.69736591305</v>
+        <v>45929.39730433035</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:12.414887+07:00</t>
+          <t>2025-09-29 09:32:07.094142+07:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Timur Tengah</t>
+          <t>Info Politik</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/timur-tengah</t>
+          <t>https://www.cnnindonesia.com/nasional/info-politik</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,24 +668,24 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45928.69736752987</v>
+        <v>45929.39730593355</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:12.554581+07:00</t>
+          <t>2025-09-29 09:32:07.232659+07:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eropa Amerika</t>
+          <t>Asia Pasifik</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/eropa-amerika</t>
+          <t>https://www.cnnindonesia.com/internasional/asia-pasifik</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,24 +697,24 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45928.69736859886</v>
+        <v>45929.39730832399</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:12.646942+07:00</t>
+          <t>2025-09-29 09:32:07.439193+07:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Timur Tengah</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/keuangan</t>
+          <t>https://www.cnnindonesia.com/internasional/timur-tengah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,24 +726,24 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45928.69737073898</v>
+        <v>45929.3973095941</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:12.831848+07:00</t>
+          <t>2025-09-29 09:32:07.548930+07:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Energi</t>
+          <t>Eropa Amerika</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/energi</t>
+          <t>https://www.cnnindonesia.com/internasional/eropa-amerika</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,24 +755,24 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45928.69737197986</v>
+        <v>45929.39731114565</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:12.939060+07:00</t>
+          <t>2025-09-29 09:32:07.682984+07:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bisnis</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/bisnis</t>
+          <t>https://www.cnnindonesia.com/ekonomi/keuangan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -784,24 +784,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45928.69737343722</v>
+        <v>45929.39731293282</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:13.064976+07:00</t>
+          <t>2025-09-29 09:32:07.837396+07:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Corporate Action</t>
+          <t>Energi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/corporate-action</t>
+          <t>https://www.cnnindonesia.com/ekonomi/energi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,24 +813,24 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45928.69737849642</v>
+        <v>45929.39731446616</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:13.502091+07:00</t>
+          <t>2025-09-29 09:32:07.969876+07:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sepakbola</t>
+          <t>Bisnis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/olahraga/sepakbola</t>
+          <t>https://www.cnnindonesia.com/ekonomi/bisnis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -842,24 +842,24 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45928.69737977709</v>
+        <v>45929.39731559024</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:13.612741+07:00</t>
+          <t>2025-09-29 09:32:08.066997+07:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Moto GP</t>
+          <t>Corporate Action</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/olahraga/moto-gp</t>
+          <t>https://www.cnnindonesia.com/ekonomi/corporate-action</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -871,24 +871,24 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45928.69738172822</v>
+        <v>45929.39731725187</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:13.781318+07:00</t>
+          <t>2025-09-29 09:32:08.210562+07:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Teknologi Informasi</t>
+          <t>Sepakbola</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/teknologi-informasi</t>
+          <t>https://www.cnnindonesia.com/olahraga/sepakbola</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -900,24 +900,24 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45928.6973840073</v>
+        <v>45929.39731818492</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:13.978231+07:00</t>
+          <t>2025-09-29 09:32:08.291177+07:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Telekomunikasi</t>
+          <t>Moto GP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/telekomunikasi</t>
+          <t>https://www.cnnindonesia.com/olahraga/moto-gp</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -929,24 +929,24 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45928.69738564757</v>
+        <v>45929.39732070314</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:14.119950+07:00</t>
+          <t>2025-09-29 09:32:08.508751+07:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Teknologi Informasi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/climate</t>
+          <t>https://www.cnnindonesia.com/teknologi/teknologi-informasi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -958,24 +958,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45928.69738705917</v>
+        <v>45929.39732404189</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:14.241912+07:00</t>
+          <t>2025-09-29 09:32:08.797219+07:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E-Vehicle</t>
+          <t>Telekomunikasi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/e-vehicle</t>
+          <t>https://www.cnnindonesia.com/teknologi/telekomunikasi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -987,24 +987,24 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45928.6973887675</v>
+        <v>45929.39732524612</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:14.389512+07:00</t>
+          <t>2025-09-29 09:32:08.901265+07:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/commercial</t>
+          <t>https://www.cnnindonesia.com/teknologi/climate</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1016,24 +1016,24 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45928.69739069622</v>
+        <v>45929.39732721846</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:14.556153+07:00</t>
+          <t>2025-09-29 09:32:09.071675+07:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Info Otomotif</t>
+          <t>E-Vehicle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/info-otomotif</t>
+          <t>https://www.cnnindonesia.com/otomotif/e-vehicle</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1045,24 +1045,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45928.69739277379</v>
+        <v>45929.39732943662</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:14.735655+07:00</t>
+          <t>2025-09-29 09:32:09.263324+07:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Seni Budaya</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/hiburan/seni-budaya</t>
+          <t>https://www.cnnindonesia.com/otomotif/commercial</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1074,24 +1074,24 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45928.69739449849</v>
+        <v>45929.39733103897</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:14.884670+07:00</t>
+          <t>2025-09-29 09:32:09.401767+07:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Info Otomotif</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/health</t>
+          <t>https://www.cnnindonesia.com/otomotif/info-otomotif</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1103,24 +1103,24 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45928.6973961469</v>
+        <v>45929.39733245706</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:15.027092+07:00</t>
+          <t>2025-09-29 09:32:09.524290+07:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Seni Budaya</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/travel</t>
+          <t>https://www.cnnindonesia.com/hiburan/seni-budaya</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1132,24 +1132,24 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45928.69739779993</v>
+        <v>45929.39733435942</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:15.169914+07:00</t>
+          <t>2025-09-29 09:32:09.688654+07:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Trends</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/trends</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/health</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1161,24 +1161,24 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45928.69739992756</v>
+        <v>45929.39733611875</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:15.353741+07:00</t>
+          <t>2025-09-29 09:32:09.840660+07:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 2 hari yang lalu</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925180050-532-1277772/purbaya-ancam-ambil-alih-uang-pemda-yang-masih-nganggur</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/travel</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1190,28 +1190,24 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45925.81774305556</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-09-25 19:37:33+07:00</t>
-        </is>
-      </c>
+        <v>45929.39733763183</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:15.637145+07:00</t>
+          <t>2025-09-29 09:32:09.971390+07:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 2 hari yang lalu</t>
+          <t>Trends</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925100133-532-1277517/luhut-program-mbg-bagus-tinggal-pengelolaan-yang-tertib</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/trends</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1223,28 +1219,24 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45925.74425925926</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-09-25 17:51:44+07:00</t>
-        </is>
-      </c>
+        <v>45929.39733977088</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:15.791229+07:00</t>
+          <t>2025-09-29 09:32:10.156204+07:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 4 hari yang lalu</t>
+          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 3 hari yang lalu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250923163703-532-1276872/purbaya-optimistis-mimpi-prabowo-defisit-apbn-0-persen-bisa-terwujud</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250925180050-532-1277772/purbaya-ancam-ambil-alih-uang-pemda-yang-masih-nganggur</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1256,28 +1248,28 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45923.71894675926</v>
+        <v>45925.81774305556</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-23 17:15:17+07:00</t>
+          <t>2025-09-25 19:37:33+07:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:15.934513+07:00</t>
+          <t>2025-09-29 09:32:10.308153+07:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 5 hari yang lalu</t>
+          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 3 hari yang lalu</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250923142814-532-1276800/purbaya-pede-bisa-genjot-ekonomi-ri-lebih-cepat-tanpa-tambah-utang</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250925100133-532-1277517/luhut-program-mbg-bagus-tinggal-pengelolaan-yang-tertib</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1289,28 +1281,28 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45923.6375</v>
+        <v>45925.74425925926</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-23 15:18:00+07:00</t>
+          <t>2025-09-25 17:51:44+07:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:16.067920+07:00</t>
+          <t>2025-09-29 09:32:10.433981+07:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 5 hari yang lalu</t>
+          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922162321-532-1276432/purbaya-tegaskan-data-ekonomi-ri-tumbuh-512-persen-bukan-manipulasi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250923163703-532-1276872/purbaya-optimistis-mimpi-prabowo-defisit-apbn-0-persen-bisa-terwujud</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1322,28 +1314,28 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45922.81293981482</v>
+        <v>45923.71894675926</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-22 19:30:38+07:00</t>
+          <t>2025-09-23 17:15:17+07:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:16.234482+07:00</t>
+          <t>2025-09-29 09:32:10.636123+07:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 5 hari yang lalu</t>
+          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922174710-532-1276471/purbaya-panggil-tokopedia-cs-larang-jual-rokok-ilegal-mulai-1-oktober</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250923142814-532-1276800/purbaya-pede-bisa-genjot-ekonomi-ri-lebih-cepat-tanpa-tambah-utang</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1355,28 +1347,28 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45922.7609837963</v>
+        <v>45923.6375</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-22 18:15:49+07:00</t>
+          <t>2025-09-23 15:18:00+07:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:16.380852+07:00</t>
+          <t>2025-09-29 09:32:10.767038+07:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 6 hari yang lalu</t>
+          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 6 hari yang lalu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922153320-532-1276410/purbaya-ancam-sikat-oknum-bea-cukai-terlibat-peredaran-rokok-ilegal</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922162321-532-1276432/purbaya-tegaskan-data-ekonomi-ri-tumbuh-512-persen-bukan-manipulasi</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1388,28 +1380,28 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45922.68662037037</v>
+        <v>45922.81293981482</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-22 16:28:44+07:00</t>
+          <t>2025-09-22 19:30:38+07:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:16.585919+07:00</t>
+          <t>2025-09-29 09:32:10.947110+07:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya soal Satgas BLBI: Kalau Cuma Buat Keributan Enggak Usah Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 6 hari yang lalu</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250920072756-532-1275700/menkeu-purbaya-soal-satgas-blbi-kalau-cuma-buat-keributan-enggak-usah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922174710-532-1276471/purbaya-panggil-tokopedia-cs-larang-jual-rokok-ilegal-mulai-1-oktober</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1421,28 +1413,28 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45920.32638888889</v>
+        <v>45922.7609837963</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-20 07:50:00+07:00</t>
+          <t>2025-09-22 18:15:49+07:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:16.808549+07:00</t>
+          <t>2025-09-29 09:32:11.110153+07:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Purbaya Tegas Tolak Tax Amnesty Jilid III: Beri Sinyal Boleh Melanggar Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 6 hari yang lalu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250919140705-532-1275476/purbaya-tegas-tolak-tax-amnesty-jilid-iii-beri-sinyal-boleh-melanggar</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922153320-532-1276410/purbaya-ancam-sikat-oknum-bea-cukai-terlibat-peredaran-rokok-ilegal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1454,28 +1446,28 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45919.59828703704</v>
+        <v>45922.68662037037</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-19 14:21:32+07:00</t>
+          <t>2025-09-22 16:28:44+07:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:16.992690+07:00</t>
+          <t>2025-09-29 09:32:11.251642+07:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Purbaya soal Gugatan Tutut Soeharto: Sudah Dicabut, Beliau Kirim Salam Ekonomi • 1 minggu yang lalu</t>
+          <t>Menkeu Purbaya soal Satgas BLBI: Kalau Cuma Buat Keributan Enggak Usah Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250918151932-532-1275123/purbaya-soal-gugatan-tutut-soeharto-sudah-dicabut-beliau-kirim-salam</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250920072756-532-1275700/menkeu-purbaya-soal-satgas-blbi-kalau-cuma-buat-keributan-enggak-usah</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1487,28 +1479,28 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45918.65365740741</v>
+        <v>45920.32638888889</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-18 15:41:16+07:00</t>
+          <t>2025-09-20 07:50:00+07:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:17.176260+07:00</t>
+          <t>2025-09-29 09:32:11.478264+07:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Tegas Tolak Tax Amnesty Jilid III: Beri Sinyal Boleh Melanggar Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250919140705-532-1275476/purbaya-tegas-tolak-tax-amnesty-jilid-iii-beri-sinyal-boleh-melanggar</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1517,31 +1509,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45917.52737268519</v>
+        <v>45919.59828703704</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-17 12:39:25+07:00</t>
+          <t>2025-09-19 14:21:32+07:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:21.387232+07:00</t>
+          <t>2025-09-29 09:32:11.828372+07:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya soal Gugatan Tutut Soeharto: Sudah Dicabut, Beliau Kirim Salam Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250918151932-532-1275123/purbaya-soal-gugatan-tutut-soeharto-sudah-dicabut-beliau-kirim-salam</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1550,31 +1542,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45917.45146990741</v>
+        <v>45918.65365740741</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-17 10:50:07+07:00</t>
+          <t>2025-09-18 15:41:16+07:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:21.538389+07:00</t>
+          <t>2025-09-29 09:32:11.959810+07:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 1 minggu yang lalu</t>
+          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1586,28 +1578,28 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45916.46927083333</v>
+        <v>45917.52737268519</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-16 11:15:45+07:00</t>
+          <t>2025-09-17 12:39:25+07:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:21.700793+07:00</t>
+          <t>2025-09-29 09:32:16.831178+07:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1619,28 +1611,28 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45915.87552083333</v>
+        <v>45917.45146990741</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-15 21:00:45+07:00</t>
+          <t>2025-09-17 10:50:07+07:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:21.914775+07:00</t>
+          <t>2025-09-29 09:32:16.995634+07:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 1 minggu yang lalu</t>
+          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
+          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1652,28 +1644,28 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45915.79498842593</v>
+        <v>45916.46927083333</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-15 19:04:47+07:00</t>
+          <t>2025-09-16 11:15:45+07:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:22.052154+07:00</t>
+          <t>2025-09-29 09:32:17.145911+07:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1685,28 +1677,28 @@
         <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45915.79400462963</v>
+        <v>45915.87552083333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-15 19:03:22+07:00</t>
+          <t>2025-09-15 21:00:45+07:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:22.184131+07:00</t>
+          <t>2025-09-29 09:32:17.325264+07:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
+          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1718,28 +1710,28 @@
         <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45914.57866898148</v>
+        <v>45915.79498842593</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-14 13:53:17+07:00</t>
+          <t>2025-09-15 19:04:47+07:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:22.320416+07:00</t>
+          <t>2025-09-29 09:32:18.253605+07:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1751,28 +1743,28 @@
         <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45913.34037037037</v>
+        <v>45915.79400462963</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-13 08:10:08+07:00</t>
+          <t>2025-09-15 19:03:22+07:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:22.472087+07:00</t>
+          <t>2025-09-29 09:32:18.534112+07:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
+          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
+          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1784,28 +1776,28 @@
         <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45911.80748842593</v>
+        <v>45914.57866898148</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-11 19:22:47+07:00</t>
+          <t>2025-09-14 13:53:17+07:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:22.629980+07:00</t>
+          <t>2025-09-29 09:32:18.675009+07:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
+          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1817,28 +1809,28 @@
         <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45911.50540509259</v>
+        <v>45913.34037037037</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-11 12:07:47+07:00</t>
+          <t>2025-09-13 08:10:08+07:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:22.778887+07:00</t>
+          <t>2025-09-29 09:32:18.819727+07:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D3</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1847,27 +1839,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45928.69750736777</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>45911.80748842593</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-09-11 19:22:47+07:00</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:24.636575+07:00</t>
+          <t>2025-09-29 09:32:19.270122+07:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D3&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1876,15 +1872,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45928.69750770112</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>45911.50540509259</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-09-11 12:07:47+07:00</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:24.665377+07:00</t>
+          <t>2025-09-29 09:32:19.734971+07:00</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:28.301818+07:00</t>
+          <t>2025-09-29 09:32:25.835944+07:00</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:28.499653+07:00</t>
+          <t>2025-09-29 09:32:25.995088+07:00</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:28.705689+07:00</t>
+          <t>2025-09-29 09:32:26.206415+07:00</t>
         </is>
       </c>
     </row>
@@ -2016,19 +2016,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:28.868235+07:00</t>
+          <t>2025-09-29 09:32:26.357742+07:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01:56 VIDEO: Prabowo Instruksikan Investigasi-Penutupan SPPG MBG Bermasalah Nasional • 23 menit yang lalu</t>
+          <t>MBG di SMAN 1 Tulungagung Dihentikan Tiba-tiba, Penyebab Tak Diketahui Nasional • 5 menit yang lalu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928154704-24-1278598/video-prabowo-instruksikan-investigasi-penutupan-sppg-mbg-bermasalah</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929085242-20-1278714/mbg-di-sman-1-tulungagung-dihentikan-tiba-tiba-penyebab-tak-diketahui</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2040,28 +2040,28 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45928.68098379629</v>
+        <v>45929.38796296297</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-28 16:20:37+07:00</t>
+          <t>2025-09-29 09:18:40+07:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:33.177375+07:00</t>
+          <t>2025-09-29 09:32:30.453241+07:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01:36 VIDEO: DItanya Jurnalis CNN Soal MBG, Prabowo Langsung Balik Lagi TV • 38 menit yang lalu</t>
+          <t>BGN Tegaskan Pemerintah Tanggung Biaya Pasien Keracunan MBG Ekonomi • 11 menit yang lalu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928155057-404-1278599/video-ditanya-jurnalis-cnn-soal-mbg-prabowo-langsung-balik-lagi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929090331-92-1278712/bgn-tegaskan-pemerintah-tanggung-biaya-pasien-keracunan-mbg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2073,28 +2073,28 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45928.67052083334</v>
+        <v>45929.38341435185</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-28 16:05:33+07:00</t>
+          <t>2025-09-29 09:12:07+07:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:33.264707+07:00</t>
+          <t>2025-09-29 09:32:30.590040+07:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bos BGN Lapor Prabowo Penyebab Marak Kasus Keracunan MBG Ekonomi • 53 menit yang lalu</t>
+          <t>03:35 VIDEO: Poin-poin Hasil Rapat Penanggulangan Keracunan MBG TV • 52 menit yang lalu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250928153947-92-1278597/bos-bgn-lapor-prabowo-penyebab-marak-kasus-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250929082856-400-1278707/video-poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2106,28 +2106,28 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45928.66037037037</v>
+        <v>45929.3552199074</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-28 15:50:56+07:00</t>
+          <t>2025-09-29 08:31:31+07:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:33.384369+07:00</t>
+          <t>2025-09-29 09:32:30.698468+07:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>01:57 VIDEO: Siswa SD Tolak Makan Bergizi Gratis, Ulat Ditemukan di Menu MBG TV • 2 jam yang lalu</t>
+          <t>Siswa Diduga Keracunan hingga 4 Sekolah Tolak MBG Bau di Jember Nasional • 1 jam yang lalu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928132509-404-1278536/video-siswa-sd-tolak-makan-bergizi-gratis-ulat-ditemukan-di-menu-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929070533-20-1278692/siswa-diduga-keracunan-hingga-4-sekolah-tolak-mbg-bau-di-jember</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2139,28 +2139,28 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45928.58023148148</v>
+        <v>45929.32153935185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-28 13:55:32+07:00</t>
+          <t>2025-09-29 07:43:01+07:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:33.502116+07:00</t>
+          <t>2025-09-29 09:32:30.910698+07:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>02:36 VIDEO: DPR Soroti Dugaan Mafia di Balik Program Makan Bergizi Gratis TV • 6 jam yang lalu</t>
+          <t>Respons Purbaya soal BGN Minta Tambah Anggaran MBG Rp28 T Ekonomi • 1 jam yang lalu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928091714-404-1278493/video-dpr-soroti-dugaan-mafia-di-balik-program-makan-bergizi-gratis</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929071153-532-1278693/respons-purbaya-soal-bgn-minta-tambah-anggaran-mbg-rp28-t</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2172,28 +2172,28 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45928.43020833333</v>
+        <v>45929.3096412037</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-28 10:19:30+07:00</t>
+          <t>2025-09-29 07:25:53+07:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:33.615612+07:00</t>
+          <t>2025-09-29 09:32:31.034102+07:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ribuan Kasus Keracunan MBG, Dokter Gizi Soroti Masalah Kebersihan Gaya Hidup • 21 jam yang lalu</t>
+          <t>Poin-poin Hasil Rapat Penanggulangan Keracunan MBG Nasional • 2 jam yang lalu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/20250925134544-255-1277617/ribuan-kasus-keracunan-mbg-dokter-gizi-soroti-masalah-kebersihan</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928191547-20-1278640/poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2205,28 +2205,28 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45927.81299768519</v>
+        <v>45929.29892361111</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-27 19:30:43+07:00</t>
+          <t>2025-09-29 07:10:27+07:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:33.871280+07:00</t>
+          <t>2025-09-29 09:32:31.168995+07:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01:18 VIDEO: Prabowo Sebut Keracunan MBG Masalah Besar, Panggil Kepala BGN Nasional • 23 jam yang lalu</t>
+          <t>Istana Cabut Kartu Jurnalis CNN Indonesia Usai Tanya MBG ke Prabowo Nasional • 2 jam yang lalu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927161919-24-1278403/video-prabowo-sebut-keracunan-mbg-masalah-besar-panggil-kepala-bgn</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929061312-20-1278685/istana-cabut-kartu-jurnalis-cnn-indonesia-usai-tanya-mbg-ke-prabowo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2238,28 +2238,28 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45927.70511574074</v>
+        <v>45929.29309027778</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-27 16:55:22+07:00</t>
+          <t>2025-09-29 07:02:03+07:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:34.005203+07:00</t>
+          <t>2025-09-29 09:32:31.380264+07:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MBG Telan Rp1,2 T per Hari Mulai Tahun Depan Ekonomi • 1 hari yang lalu</t>
+          <t>Prabowo Panggil Menteri ke Kertanegara Minggu Malam, Bahas MBG-Pangan Nasional • 10 jam yang lalu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926202814-92-1278234/mbg-telan-rp12-t-per-hari-mulai-tahun-depan</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928223005-32-1278654/prabowo-panggil-menteri-ke-kertanegara-minggu-malam-bahas-mbg-pangan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2271,28 +2271,28 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45927.60428240741</v>
+        <v>45928.94276620371</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-27 14:30:10+07:00</t>
+          <t>2025-09-28 22:37:35+07:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:34.116683+07:00</t>
+          <t>2025-09-29 09:32:31.515880+07:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:29 VIDEO: Penyajian MBG Untuk Anak Terlantar Bisa Jadi Contoh TV • 1 hari yang lalu</t>
+          <t>Kemenkes Bakal Kerahkan Ahli Gizi Pantau Program MBG Nasional • 14 jam yang lalu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250927104127-404-1278307/video-penyajian-mbg-untuk-anak-terlantar-bisa-jadi-contoh</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928183036-20-1278632/kemenkes-bakal-kerahkan-ahli-gizi-pantau-program-mbg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2304,28 +2304,28 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45927.57934027778</v>
+        <v>45928.78105324074</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-27 13:54:15+07:00</t>
+          <t>2025-09-28 18:44:43+07:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:34.249344+07:00</t>
+          <t>2025-09-29 09:32:31.629810+07:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03:18 VIDEO: Kasus Keracunan MBG, IDAI Beri Tips Pencegahan dan Penanganan TV • 1 hari yang lalu</t>
+          <t>Menkes Sebut Standar Dapur dan Kontrol Bahan MBG Bakal Diperketat Nasional • 16 jam yang lalu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212258-404-1278248/video-kasus-keracunan-mbg-idai-beri-tips-pencegahan-dan-penanganan</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928165705-20-1278607/menkes-sebut-standar-dapur-dan-kontrol-bahan-mbg-bakal-diperketat</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2337,28 +2337,28 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45927.48122685185</v>
+        <v>45928.72278935185</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-27 11:32:58+07:00</t>
+          <t>2025-09-28 17:20:49+07:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:34.370102+07:00</t>
+          <t>2025-09-29 09:32:31.739699+07:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>01:56 VIDEO: Prabowo Instruksikan Investigasi-Penutupan SPPG MBG Bermasalah Nasional • 17 jam yang lalu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D2</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928154704-24-1278598/video-prabowo-instruksikan-investigasi-penutupan-sppg-mbg-bermasalah</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2370,24 +2370,28 @@
         <v>2</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45928.69764343004</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+        <v>45928.68098379629</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-09-28 16:20:37+07:00</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:36.392355+07:00</t>
+          <t>2025-09-29 09:32:37.091787+07:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>01:36 VIDEO: DItanya Jurnalis CNN Soal MBG, Prabowo Langsung Balik Lagi TV • 17 jam yang lalu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/tv/20250928155057-404-1278599/video-ditanya-jurnalis-cnn-soal-mbg-prabowo-langsung-balik-lagi</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2399,24 +2403,28 @@
         <v>2</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45928.69764371077</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>45928.67052083334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-09-28 16:05:33+07:00</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:36.416610+07:00</t>
+          <t>2025-09-29 09:32:37.219687+07:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cerita Kepala Sekolah Diminta Teken Surat Rahasiakan Keracunan MBG Nasional • 1 hari yang lalu</t>
+          <t>Bos BGN Lapor Prabowo Penyebab Marak Kasus Keracunan MBG Ekonomi • 17 jam yang lalu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927100421-20-1278291/cerita-kepala-sekolah-diminta-teken-surat-rahasiakan-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250928153947-92-1278597/bos-bgn-lapor-prabowo-penyebab-marak-kasus-keracunan-mbg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2428,28 +2436,28 @@
         <v>2</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45927.4416087963</v>
+        <v>45928.66037037037</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-27 10:35:55+07:00</t>
+          <t>2025-09-28 15:50:56+07:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:39.315853+07:00</t>
+          <t>2025-09-29 09:32:37.335039+07:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01:29 VIDEO: Purnawirawan TNI Dominasi Pejabat Badan Gizi Nasional TV • 1 hari yang lalu</t>
+          <t>01:57 VIDEO: Siswa SD Tolak Makan Bergizi Gratis, Ulat Ditemukan di Menu MBG TV • 19 jam yang lalu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212301-404-1278250/video-purnawirawan-tni-dominasi-pejabat-badan-gizi-nasional</t>
+          <t>https://www.cnnindonesia.com/tv/20250928132509-404-1278536/video-siswa-sd-tolak-makan-bergizi-gratis-ulat-ditemukan-di-menu-mbg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2461,28 +2469,28 @@
         <v>2</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45927.43959490741</v>
+        <v>45928.58023148148</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-27 10:33:01+07:00</t>
+          <t>2025-09-28 13:55:32+07:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:39.412546+07:00</t>
+          <t>2025-09-29 09:32:37.505609+07:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Purbaya Bakal Kerahkan Anak Buah Kawal MBG Ekonomi • 1 hari yang lalu</t>
+          <t>02:36 VIDEO: DPR Soroti Dugaan Mafia di Balik Program Makan Bergizi Gratis TV • 23 jam yang lalu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926203850-532-1278235/purbaya-bakal-kerahkan-anak-buah-kawal-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250928091714-404-1278493/video-dpr-soroti-dugaan-mafia-di-balik-program-makan-bergizi-gratis</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2494,28 +2502,28 @@
         <v>2</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45927.42414351852</v>
+        <v>45928.43020833333</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-27 10:10:46+07:00</t>
+          <t>2025-09-28 10:19:30+07:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:39.527951+07:00</t>
+          <t>2025-09-29 09:32:37.617990+07:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7 Daerah yang Alami Keracunan MBG Versi BGN Nasional • 1 hari yang lalu</t>
+          <t>Ribuan Kasus Keracunan MBG, Dokter Gizi Soroti Masalah Kebersihan Gaya Hidup • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927081552-20-1278281/7-daerah-yang-alami-keracunan-mbg-versi-bgn</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/20250925134544-255-1277617/ribuan-kasus-keracunan-mbg-dokter-gizi-soroti-masalah-kebersihan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2527,28 +2535,28 @@
         <v>2</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45927.35458333333</v>
+        <v>45927.81299768519</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-27 08:30:36+07:00</t>
+          <t>2025-09-27 19:30:43+07:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:39.641493+07:00</t>
+          <t>2025-09-29 09:32:37.732585+07:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:57 VIDEO: Penyebab Keracunan MBG Bakal Dipidana TV • 1 hari yang lalu</t>
+          <t>01:18 VIDEO: Prabowo Sebut Keracunan MBG Masalah Besar, Panggil Kepala BGN Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212255-404-1278244/video-penyebab-keracunan-mbg-bakal-dipidana</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927161919-24-1278403/video-prabowo-sebut-keracunan-mbg-masalah-besar-panggil-kepala-bgn</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2560,28 +2568,28 @@
         <v>2</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45927.33744212963</v>
+        <v>45927.70511574074</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-27 08:05:55+07:00</t>
+          <t>2025-09-27 16:55:22+07:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:39.737955+07:00</t>
+          <t>2025-09-29 09:32:37.835424+07:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BGN Minta Maaf Usai Ribuan Anak Keracunan MBG, Nanik Deyang Menangis Nasional • 1 hari yang lalu</t>
+          <t>MBG Telan Rp1,2 T per Hari Mulai Tahun Depan Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926200143-20-1278227/bgn-minta-maaf-usai-ribuan-anak-keracunan-mbg-nanik-deyang-menangis</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926202814-92-1278234/mbg-telan-rp12-t-per-hari-mulai-tahun-depan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2593,28 +2601,28 @@
         <v>2</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45927.28493055556</v>
+        <v>45927.60428240741</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-27 06:50:18+07:00</t>
+          <t>2025-09-27 14:30:10+07:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:39.872523+07:00</t>
+          <t>2025-09-29 09:32:37.990725+07:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BGN Gandeng Polri &amp; BIN Telusuri Keracunan MBG, Buka Peluang Pidana Nasional • 1 hari yang lalu</t>
+          <t>04:29 VIDEO: Penyajian MBG Untuk Anak Terlantar Bisa Jadi Contoh TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926191324-20-1278218/bgn-gandeng-polri-bin-telusuri-keracunan-mbg-buka-peluang-pidana</t>
+          <t>https://www.cnnindonesia.com/tv/20250927104127-404-1278307/video-penyajian-mbg-untuk-anak-terlantar-bisa-jadi-contoh</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2626,28 +2634,28 @@
         <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45927.00358796296</v>
+        <v>45927.57934027778</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-27 00:05:10+07:00</t>
+          <t>2025-09-27 13:54:15+07:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:39.967735+07:00</t>
+          <t>2025-09-29 09:32:38.237170+07:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dinkes Bandung Barat Masih Tunggu Hasil Uji Lab Keracunan Massal MBG Nasional • 1 hari yang lalu</t>
+          <t>03:18 VIDEO: Kasus Keracunan MBG, IDAI Beri Tips Pencegahan dan Penanganan TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926131835-20-1277996/dinkes-bandung-barat-masih-tunggu-hasil-uji-lab-keracunan-massal-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212258-404-1278248/video-kasus-keracunan-mbg-idai-beri-tips-pencegahan-dan-penanganan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2659,28 +2667,28 @@
         <v>2</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45926.95140046296</v>
+        <v>45927.48122685185</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-26 22:50:01+07:00</t>
+          <t>2025-09-27 11:32:58+07:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:40.149407+07:00</t>
+          <t>2025-09-29 09:32:38.378669+07:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BGN Tutup 40 SPPG Buntut Gelombang Keracunan MBG Nasional • 1 hari yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926200400-20-1278228/bgn-tutup-40-sppg-buntut-gelombang-keracunan-mbg</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2689,31 +2697,27 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45926.85165509259</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2025-09-26 20:26:23+07:00</t>
-        </is>
-      </c>
+        <v>45929.39768483729</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:40.328520+07:00</t>
+          <t>2025-09-29 09:32:39.969942+07:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9 Anak SD di Karimun Kepri Keracunan Usai Santap MBG Roti Burger Nasional • 1 hari yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926190546-20-1278214/9-anak-sd-di-karimun-kepri-keracunan-usai-santap-mbg-roti-burger</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D3&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2722,31 +2726,27 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45926.83578703704</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2025-09-26 20:03:32+07:00</t>
-        </is>
-      </c>
+        <v>45929.3976858305</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:40.559901+07:00</t>
+          <t>2025-09-29 09:32:40.055755+07:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Anggaran MBG Batal Naik Rp50 T Tahun Ini, Cuma Tambah Rp28 T Ekonomi • 1 hari yang lalu</t>
+          <t>Cerita Kepala Sekolah Diminta Teken Surat Rahasiakan Keracunan MBG Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926193238-532-1278221/anggaran-mbg-batal-naik-rp50-t-tahun-ini-cuma-tambah-rp28-t</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927100421-20-1278291/cerita-kepala-sekolah-diminta-teken-surat-rahasiakan-keracunan-mbg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2758,28 +2758,28 @@
         <v>3</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45926.83361111111</v>
+        <v>45927.4416087963</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-26 20:00:24+07:00</t>
+          <t>2025-09-27 10:35:55+07:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:43.699906+07:00</t>
+          <t>2025-09-29 09:32:43.449452+07:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SPPG Cipari Cipongkor Pasok 3 RIbu MBG, Ahli Gizinya Masih Mahasiswa Nasional • 1 hari yang lalu</t>
+          <t>01:29 VIDEO: Purnawirawan TNI Dominasi Pejabat Badan Gizi Nasional TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926184543-20-1278217/sppg-cipari-cipongkor-pasok-3-ribu-mbg-ahli-gizinya-masih-mahasiswa</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212301-404-1278250/video-purnawirawan-tni-dominasi-pejabat-badan-gizi-nasional</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2791,28 +2791,28 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45926.80699074074</v>
+        <v>45927.43959490741</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-26 19:22:04+07:00</t>
+          <t>2025-09-27 10:33:01+07:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:43.869768+07:00</t>
+          <t>2025-09-29 09:32:43.589064+07:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>01:01 VIDEO: Food Tray MBG di Lebak Diduga Tercemar Air Limbah Bekas Makanan Nasional • 1 hari yang lalu</t>
+          <t>Purbaya Bakal Kerahkan Anak Buah Kawal MBG Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926172857-24-1278155/video-food-tray-mbg-di-lebak-diduga-tercemar-air-limbah-bekas-makanan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926203850-532-1278235/purbaya-bakal-kerahkan-anak-buah-kawal-mbg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2824,28 +2824,28 @@
         <v>3</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45926.79892361111</v>
+        <v>45927.42414351852</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-26 19:10:27+07:00</t>
+          <t>2025-09-27 10:10:46+07:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:43.966048+07:00</t>
+          <t>2025-09-29 09:32:43.743824+07:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>02:25 VIDEO: BGN: SPPG Harus Dipimpin Chef, Produk Pabrikan Dihentikan TV • 1 hari yang lalu</t>
+          <t>7 Daerah yang Alami Keracunan MBG Versi BGN Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926180456-404-1278184/video-bgn-sppg-harus-dipimpin-chef-produk-pabrikan-dihentikan</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927081552-20-1278281/7-daerah-yang-alami-keracunan-mbg-versi-bgn</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2857,28 +2857,28 @@
         <v>3</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45926.79553240741</v>
+        <v>45927.35458333333</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-26 19:05:34+07:00</t>
+          <t>2025-09-27 08:30:36+07:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:44.064961+07:00</t>
+          <t>2025-09-29 09:32:43.939044+07:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>02:06 VIDEO: BGN; Kami Tidak Mentolerir Bahan Baku Yang Tidak Fresh TV • 1 hari yang lalu</t>
+          <t>04:57 VIDEO: Penyebab Keracunan MBG Bakal Dipidana TV • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926180455-404-1278183/video-bgn-kami-tidak-mentolerir-bahan-baku-yang-tidak-fresh</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212255-404-1278244/video-penyebab-keracunan-mbg-bakal-dipidana</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2890,28 +2890,28 @@
         <v>3</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45926.7862962963</v>
+        <v>45927.33744212963</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-26 18:52:16+07:00</t>
+          <t>2025-09-27 08:05:55+07:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:44.212699+07:00</t>
+          <t>2025-09-29 09:32:44.029565+07:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>01:34 VIDEO: Sertifikasi Tidak Dipenuhi Dalam 1 Bulan, BGN Ancam Tutup SPPG TV • 1 hari yang lalu</t>
+          <t>BGN Minta Maaf Usai Ribuan Anak Keracunan MBG, Nanik Deyang Menangis Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926180453-404-1278179/video-sertifikasi-tidak-dipenuhi-dalam-1-bulan-bgn-ancam-tutup-sppg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926200143-20-1278227/bgn-minta-maaf-usai-ribuan-anak-keracunan-mbg-nanik-deyang-menangis</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2923,28 +2923,28 @@
         <v>3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45926.78034722222</v>
+        <v>45927.28493055556</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-26 18:43:42+07:00</t>
+          <t>2025-09-27 06:50:18+07:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:44.302997+07:00</t>
+          <t>2025-09-29 09:32:44.194335+07:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Panglima TNI Resmikan 339 SPPG Makan Bergizi Gratis Nasional • 1 hari yang lalu</t>
+          <t>BGN Gandeng Polri &amp; BIN Telusuri Keracunan MBG, Buka Peluang Pidana Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926182400-12-1278198/panglima-tni-resmikan-339-sppg-makan-bergizi-gratis</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926191324-20-1278218/bgn-gandeng-polri-bin-telusuri-keracunan-mbg-buka-peluang-pidana</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2956,28 +2956,28 @@
         <v>3</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45926.77943287037</v>
+        <v>45927.00358796296</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-26 18:42:23+07:00</t>
+          <t>2025-09-27 00:05:10+07:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:44.425829+07:00</t>
+          <t>2025-09-29 09:32:44.337552+07:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ratusan Ibu di Jogja Aksi Pukul Panci Desak Setop MBG Militeristik Nasional • 1 hari yang lalu</t>
+          <t>Dinkes Bandung Barat Masih Tunggu Hasil Uji Lab Keracunan Massal MBG Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926181030-20-1278186/ratusan-ibu-di-jogja-aksi-pukul-panci-desak-setop-mbg-militeristik</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926131835-20-1277996/dinkes-bandung-barat-masih-tunggu-hasil-uji-lab-keracunan-massal-mbg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2989,28 +2989,28 @@
         <v>3</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45926.7734837963</v>
+        <v>45926.95140046296</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-26 18:33:49+07:00</t>
+          <t>2025-09-26 22:50:01+07:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:44.595234+07:00</t>
+          <t>2025-09-29 09:32:44.589546+07:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>01:08 VIDEO: BGN: 45 Dapur Tidak Ikuti SOP, 40 Dapur Ditutup TV • 1 hari yang lalu</t>
+          <t>BGN Tutup 40 SPPG Buntut Gelombang Keracunan MBG Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926180456-404-1278181/video-bgn-45-dapur-tidak-ikuti-sop-40-dapur-ditutup</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926200400-20-1278228/bgn-tutup-40-sppg-buntut-gelombang-keracunan-mbg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3022,28 +3022,28 @@
         <v>3</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45926.7705787037</v>
+        <v>45926.85165509259</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-26 18:29:38+07:00</t>
+          <t>2025-09-26 20:26:23+07:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:44.753740+07:00</t>
+          <t>2025-09-29 09:32:44.833885+07:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>02:04 VIDEO: BGN Mengakui SOP Banyak Yang Tidak Dipatuhi TV • 1 hari yang lalu</t>
+          <t>9 Anak SD di Karimun Kepri Keracunan Usai Santap MBG Roti Burger Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926180454-404-1278180/video-bgn-mengakui-sop-banyak-yang-tidak-dipatuhi</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926190546-20-1278214/9-anak-sd-di-karimun-kepri-keracunan-usai-santap-mbg-roti-burger</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3055,1006 +3055,1180 @@
         <v>3</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45926.76263888889</v>
+        <v>45926.83578703704</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-26 18:18:12+07:00</t>
+          <t>2025-09-26 20:03:32+07:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:44.854114+07:00</t>
+          <t>2025-09-29 09:32:45.115680+07:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Daftar 8 Stimulus yang Digelontorkan Prabowo Buat Terbangkan Ekonomi Ekonomi • 1 minggu yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915184434-532-1273990/daftar-8-stimulus-yang-digelontorkan-prabowo-buat-terbangkan-ekonomi</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45916.27120370371</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-09-16 06:30:32+07:00</t>
-        </is>
-      </c>
+        <v>45929.3977616054</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:49.158034+07:00</t>
+          <t>2025-09-29 09:32:46.602706+07:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>00:55 VIDEO: Pemerintah Gelar Magang Fresh Graduate S1-D3 dengan Bayaran UMP Ekonomi • 1 minggu yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915152800-536-1273917/video-pemerintah-gelar-magang-fresh-graduate-s1-d3-dengan-bayaran-ump</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45915.65826388889</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-09-15 15:47:54+07:00</t>
-        </is>
-      </c>
+        <v>45929.39776240967</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:49.310371+07:00</t>
+          <t>2025-09-29 09:32:46.672195+07:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Pemerintah Gelar Magang 20 Ribu Fresh Graduate S1-D3, Beri Gaji UMP Ekonomi • 1 minggu yang lalu</t>
+          <t>01:30 VIDEO: Gantikan Budi Arie, Menkop Ferry Akan Kebut UU Koperasi TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915142616-532-1273868/pemerintah-gelar-magang-20-ribu-fresh-graduate-s1-d3-beri-gaji-ump</t>
+          <t>https://www.cnnindonesia.com/tv/20250909120847-400-1271613/video-gantikan-budi-arie-menkop-ferry-akan-kebut-uu-koperasi</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45915.61002314815</v>
+        <v>45909.52822916667</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-15 14:38:26+07:00</t>
+          <t>2025-09-09 12:40:39+07:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:49.487807+07:00</t>
+          <t>2025-09-29 09:32:49.791418+07:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sri Mulyani Siapkan Stimulus Rp10,8 T Buat Angkat Ekonomi Kuartal III Ekonomi • 1 bulan yang lalu</t>
+          <t>01:58 VIDEO: AHY Resmikan Koperasi Merah Putih di Madiun TV • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250805194228-532-1259120/sri-mulyani-siapkan-stimulus-rp108-t-buat-angkat-ekonomi-kuartal-iii</t>
+          <t>https://www.cnnindonesia.com/tv/20250822212231-400-1265480/video-ahy-resmikan-koperasi-merah-putih-di-madiun</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45874.84435185185</v>
+        <v>45892.48091435185</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-08-05 20:15:52+07:00</t>
+          <t>2025-08-23 11:32:31+07:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:49.691932+07:00</t>
+          <t>2025-09-29 09:32:49.944128+07:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Prabowo Akan Diskon Tiket Pesawat, KA, PPN Properti Lagi, Kapan? Ekonomi • 2 bulan yang lalu</t>
+          <t>Surabaya Siap Luncurkan Ratusan Gerai Koperasi Merah Putih Ekonomi • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250725184700-532-1255028/prabowo-akan-diskon-tiket-pesawat-ka-ppn-properti-lagi-kapan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250815201448-92-1263024/surabaya-siap-luncurkan-ratusan-gerai-koperasi-merah-putih</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45863.7987037037</v>
+        <v>45884.84608796296</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-07-25 19:10:08+07:00</t>
+          <t>2025-08-15 20:18:22+07:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:49.853030+07:00</t>
+          <t>2025-09-29 09:32:52.808714+07:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>01:04 VIDEO: Pemerintah Siapkan Stimulus Ringankan Beban Pengusaha TV • 5 bulan yang lalu</t>
+          <t>01:42 VIDEO: Menag Harap Badan Wakaf Jadi Motor Ekonomi TV • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250409120050-407-1217078/video-pemerintah-siapkan-stimulus-ringankan-beban-pengusaha</t>
+          <t>https://www.cnnindonesia.com/tv/20250808135013-400-1260301/video-menag-harap-badan-wakaf-jadi-motor-ekonomi</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45756.51256944444</v>
+        <v>45877.62711805556</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-04-09 12:18:06+07:00</t>
+          <t>2025-08-08 15:03:03+07:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:49.978722+07:00</t>
+          <t>2025-09-29 09:32:52.936440+07:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sri Mulyani Akan Lebih Selektif Tebar Insentif Ekonomi • 2 tahun yang lalu</t>
+          <t>Mendes: Dana Desa Bukan Jaminan Pinjaman Kopdes Merah Putih Ekonomi • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20221103165918-532-869166/sri-mulyani-akan-lebih-selektif-tebar-insentif</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250805134850-92-1258934/mendes-dana-desa-bukan-jaminan-pinjaman-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44868.72938657407</v>
+        <v>45874.86472222222</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022-11-03 17:30:19+07:00</t>
+          <t>2025-08-05 20:45:12+07:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:50.213246+07:00</t>
+          <t>2025-09-29 09:32:53.705206+07:00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BI Proyeksi Yield Obligasi AS Naik Jadi 2,5 Persen Tahun Ini Ekonomi • 3 tahun yang lalu</t>
+          <t>Budi Arie: Aturan soal Koperasi Harus Selaras demi Perkuat Kopdes Ekonomi • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20220127094018-78-751809/bi-proyeksi-yield-obligasi-as-naik-jadi-25-persen-tahun-ini</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250805152745-78-1259003/budi-arie-aturan-soal-koperasi-harus-selaras-demi-perkuat-kopdes</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44589.44765046296</v>
+        <v>45874.64927083333</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022-01-28 10:44:37+07:00</t>
+          <t>2025-08-05 15:34:57+07:00</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:50.463989+07:00</t>
+          <t>2025-09-29 09:32:53.991943+07:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>OJK Perpanjang Stimulus Covid-19 Non Bank hingga 17 April 2023 Ekonomi • 3 tahun yang lalu</t>
+          <t>30:50 VIDEO: Koperasi Desa Merah Putih Mampu Dongkrak Ekonomi? TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20220107083430-78-743653/ojk-perpanjang-stimulus-covid-19-non-bank-hingga-17-april-2023</t>
+          <t>https://www.cnnindonesia.com/tv/20250728123555-402-1255743/video-koperasi-desa-merah-putih-mampu-dongkrak-ekonomi</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44568.365</v>
+        <v>45866.53037037037</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2022-01-07 08:45:36+07:00</t>
+          <t>2025-07-28 12:43:44+07:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:50.637753+07:00</t>
+          <t>2025-09-29 09:32:54.125882+07:00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Inggris Siapkan Bantuan Rp18,9 T untuk Bisnis Terdampak Omicron Ekonomi • 3 tahun yang lalu</t>
+          <t>03:27 VIDEO: Diresmikan Prabowo, Koperasi Merah Putih Mulai Aktif TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211221213014-92-737000/inggris-siapkan-bantuan-rp189-t-untuk-bisnis-terdampak-omicron</t>
+          <t>https://www.cnnindonesia.com/tv/20250724193351-404-1254601/video-diresmikan-prabowo-koperasi-merah-putih-mulai-aktif</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44551.9342824074</v>
+        <v>45863.30892361111</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-12-21 22:25:22+07:00</t>
+          <t>2025-07-25 07:24:51+07:00</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:50.814249+07:00</t>
+          <t>2025-09-29 09:32:54.268842+07:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sandiaga Uno Kucurkan Stimulus untuk Industri Kreatif Film Rp114,88 M Ekonomi • 3 tahun yang lalu</t>
+          <t>TNI Akan Dilibatkan Produksi Obat Murah Massal Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211220072614-92-736026/sandiaga-uno-kucurkan-stimulus-untuk-industri-kreatif-film-rp11488-m</t>
+          <t>https://www.cnnindonesia.com/nasional/20250723151901-20-1254031/tni-akan-dilibatkan-produksi-obat-murah-massal</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44550.31802083334</v>
+        <v>45861.65975694444</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-12-20 07:37:57+07:00</t>
+          <t>2025-07-23 15:50:03+07:00</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:54.567862+07:00</t>
+          <t>2025-09-29 09:32:54.498143+07:00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>China 'Pompa' Stimulus Rp2.694,6 T Demi Pulihkan Ekonomi Ekonomi • 3 tahun yang lalu</t>
+          <t>10:57 VIDEO: Perjalanan Program Koperasi di Indonesia TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211208110823-92-731336/china-pompa-stimulus-rp26946-t-demi-pulihkan-ekonomi</t>
+          <t>https://www.cnnindonesia.com/tv/20250723092506-400-1253819/video-perjalanan-program-koperasi-di-indonesia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44538.55752314815</v>
+        <v>45861.39548611111</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-12-08 13:22:50+07:00</t>
+          <t>2025-07-23 09:29:30+07:00</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:54.747456+07:00</t>
+          <t>2025-09-29 09:32:54.649991+07:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>08:27 VIDEO: Pemerintah Tebar Stimulus di Pesta Diskon E-Commerce TV • 3 tahun yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20211111114640-412-719655/video-pemerintah-tebar-stimulus-di-pesta-diskon-e-commerce</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>2</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44511.49456018519</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2021-11-11 11:52:10+07:00</t>
-        </is>
-      </c>
+        <v>45929.39787384896</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:54.871516+07:00</t>
+          <t>2025-09-29 09:32:56.300550+07:00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The Fed Akan Mulai Lakukan Tapering Akhir November Ekonomi • 3 tahun yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20211104112354-532-716496/the-fed-akan-mulai-lakukan-tapering-akhir-november</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>2</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44504.51833333333</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2021-11-04 12:26:24+07:00</t>
-        </is>
-      </c>
+        <v>45929.39787493284</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:55.081759+07:00</t>
+          <t>2025-09-29 09:32:56.394197+07:00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4 Permintaan Pengusaha Jika Pemerintah Perpanjang PPKM Ekonomi • 4 tahun yang lalu</t>
+          <t>ANALISIS Menguak Siapa Vampir Ekonomi yang Bikin Prabowo Geram Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210809164318-92-678354/4-permintaan-pengusaha-jika-pemerintah-perpanjang-ppkm</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250723071116-92-1253781/menguak-siapa-vampir-ekonomi-yang-bikin-prabowo-geram</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>2</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44417.72341435185</v>
+        <v>45861.32642361111</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-08-09 17:21:43+07:00</t>
+          <t>2025-07-23 07:50:03+07:00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:55.264148+07:00</t>
+          <t>2025-09-29 09:32:59.967055+07:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bank Sentral Eropa Bakal Rilis US$1 T Stimulus Covid-19 Ekonomi • 4 tahun yang lalu</t>
+          <t>01:35 VIDEO: Prabowo: Konsep Koperasi Bisa Memperkuat Ekonomi RI TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210723101234-532-671171/bank-sentral-eropa-bakal-rilis-us-1-t-stimulus-covid-19</t>
+          <t>https://www.cnnindonesia.com/tv/20250722120730-402-1253489/video-prabowo-konsep-koperasi-bisa-memperkuat-ekonomi-ri</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44400.42890046296</v>
+        <v>45860.51770833333</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-07-23 10:17:37+07:00</t>
+          <t>2025-07-22 12:25:30+07:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:55.425238+07:00</t>
+          <t>2025-09-29 09:33:00.160344+07:00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Anggaran Stimulus Listrik Kuartal III Capai Rp2,33 T Ekonomi • 4 tahun yang lalu</t>
+          <t>Bobby Resmikan Koperasi Merah Putih Binjai, Perputaran Capai Rp2,5 M Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210705134332-85-663358/anggaran-stimulus-listrik-kuartal-iii-capai-rp233-t</t>
+          <t>https://www.cnnindonesia.com/nasional/20250721215912-20-1253293/bobby-resmikan-koperasi-merah-putih-binjai-perputaran-capai-rp25-m</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D100" t="n">
         <v>2</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44382.74363425926</v>
+        <v>45859.92708333334</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-07-05 17:50:50+07:00</t>
+          <t>2025-07-21 22:15:00+07:00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:55.594190+07:00</t>
+          <t>2025-09-29 09:33:00.425241+07:00</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Pemerintah Siapkan 9 Paket Stimulus Proyek Hulu Migas Laut Ekonomi • 4 tahun yang lalu</t>
+          <t>Gubernur Jateng: Koperasi Merah Putih Tingkatkan Kesejahteraan Rakyat Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210609110029-85-652040/pemerintah-siapkan-9-paket-stimulus-proyek-hulu-migas-laut</t>
+          <t>https://www.cnnindonesia.com/nasional/20250721184520-25-1253233/gubernur-jateng-koperasi-merah-putih-tingkatkan-kesejahteraan-rakyat</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>2</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44356.46609953704</v>
+        <v>45859.78825231481</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-06-09 11:11:11+07:00</t>
+          <t>2025-07-21 18:55:05+07:00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:55.801680+07:00</t>
+          <t>2025-09-29 09:33:00.744451+07:00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Harga Barang-barang Naik di AS Ekonomi • 4 tahun yang lalu</t>
+          <t>Mandiri Dukung Peluncuran Kopdes Merah Putih, Perkuat Digitalisasi Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210414180612-92-630011/harga-barang-barang-naik-di-as</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250721182457-625-1253223/mandiri-dukung-peluncuran-kopdes-merah-putih-perkuat-digitalisasi</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v>2</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44301.2959837963</v>
+        <v>45859.78366898148</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-04-15 07:06:13+07:00</t>
+          <t>2025-07-21 18:48:29+07:00</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:55.960907+07:00</t>
+          <t>2025-09-29 09:33:00.922214+07:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Biang Kerok Rupiah Lesu: Stimulus Fiskal dari Joe Biden Ekonomi • 4 tahun yang lalu</t>
+          <t>Menko Zulhas: 80.081 Kopdes Merah Putih Resmi Terbentuk, Sejarah Baru Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210318165636-78-619270/biang-kerok-rupiah-lesu-stimulus-fiskal-dari-joe-biden</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250721155247-97-1253158/menko-zulhas-80081-kopdes-merah-putih-resmi-terbentuk-sejarah-baru</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v>2</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44273.72476851852</v>
+        <v>45859.67971064815</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-03-18 17:23:40+07:00</t>
+          <t>2025-07-21 16:18:47+07:00</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-09-28 16:44:56.115954+07:00</t>
+          <t>2025-09-29 09:33:01.111323+07:00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DPR AS Resmi Setujui Paket Stimulus US$1,9 T dari Joe Biden Ekonomi • 4 tahun yang lalu</t>
+          <t>01:53 VIDEO: Menkop Sebut 81.140 Koperasi Terbentuk di Seluruh Indonesia TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210311125019-532-616398/dpr-as-resmi-setujui-paket-stimulus-us-19-t-dari-joe-biden</t>
+          <t>https://www.cnnindonesia.com/tv/20250721140848-400-1253089/video-menkop-sebut-81140-koperasi-terbentuk-di-seluruh-indonesia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44266.55261574074</v>
+        <v>45859.61513888889</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-03-11 13:15:46+07:00</t>
+          <t>2025-07-21 14:45:48+07:00</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:01.074797+07:00</t>
+          <t>2025-09-29 09:33:01.305036+07:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Pemerintah Perpanjang Diskon Tarif Listrik April-Juni 2021 Ekonomi • 4 tahun yang lalu</t>
+          <t>Koperasi Desa Merah Putih Diresmikan Prabowo Hari Ini Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210309172858-85-615647/pemerintah-perpanjang-diskon-tarif-listrik-april-juni-2021</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250721063618-92-1252900/koperasi-desa-merah-putih-diresmikan-prabowo-hari-ini</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44264.74140046296</v>
+        <v>45859.29516203704</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-03-09 17:47:37+07:00</t>
+          <t>2025-07-21 07:05:02+07:00</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:01.243880+07:00</t>
+          <t>2025-09-29 09:33:01.648354+07:00</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Euforia US$1,9 Triliun Stimulus AS Bisa Angkat IHSG Ekonomi • 4 tahun yang lalu</t>
+          <t>Prabowo Luncurkan 80 Ribu Kopdes Merah Putih di Klaten Senin Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210302061332-92-612442/euforia-us-19-triliun-stimulus-as-bisa-angkat-ihsg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250719135924-92-1252545/prabowo-luncurkan-80-ribu-kopdes-merah-putih-di-klaten-senin</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44257.27871527777</v>
+        <v>45857.61469907407</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-03-02 06:41:21+07:00</t>
+          <t>2025-07-19 14:45:10+07:00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:01.458710+07:00</t>
+          <t>2025-09-29 09:33:01.989658+07:00</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>G20 Janji Tidak Akan Buru-buru Setop Bantuan Ekonomi • 4 tahun yang lalu</t>
+          <t>Menkum: 80 Ribu Lebih Kopdes Merah Putih Sudah Disahkan Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210226135627-532-611297/g20-janji-tidak-akan-buru-buru-setop-bantuan</t>
+          <t>https://www.cnnindonesia.com/nasional/20250719075957-20-1252442/menkum-80-ribu-lebih-kopdes-merah-putih-sudah-disahkan</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44256.27871527777</v>
+        <v>45857.33820601852</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-03-01 06:41:21+07:00</t>
+          <t>2025-07-19 08:07:01+07:00</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:01.717714+07:00</t>
+          <t>2025-09-29 09:33:02.161345+07:00</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>03:58 VIDEO: Jurus Stimulus 'American Rescue Plan' TV • 4 tahun yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20210219111302-400-608278/video-jurus-stimulus-american-rescue-plan</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D108" t="n">
         <v>3</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44246.4709375</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2021-02-19 11:18:09+07:00</t>
-        </is>
-      </c>
+        <v>45929.39795826355</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:01.891512+07:00</t>
+          <t>2025-09-29 09:33:03.593971+07:00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Daftar Insentif Sektor Pariwisata dari Pemerintah Ekonomi • 4 tahun yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210217093605-532-607199/daftar-insentif-sektor-pariwisata-dari-pemerintah</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D3&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>3</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44244.41059027778</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2021-02-17 09:51:15+07:00</t>
-        </is>
-      </c>
+        <v>45929.39795975435</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:02.078016+07:00</t>
+          <t>2025-09-29 09:33:03.722776+07:00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Harga Minyak Melesat ke Level Tertinggi Sejak Januari 2020 Ekonomi • 4 tahun yang lalu</t>
+          <t>Bank Mandiri Komitmen Perkuat Ekonomi Desa Lewat Koperasi Merah Putih Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210209070412-85-603928/harga-minyak-melesat-ke-level-tertinggi-sejak-januari-2020</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250718175124-625-1252302/bank-mandiri-komitmen-perkuat-ekonomi-desa-lewat-koperasi-merah-putih</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D110" t="n">
         <v>3</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44236.3071875</v>
+        <v>45856.76069444444</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-09 07:22:21+07:00</t>
+          <t>2025-07-18 18:15:24+07:00</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:02.226195+07:00</t>
+          <t>2025-09-29 09:33:07.468654+07:00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Insentif Pajak Berlanjut, Pengusaha Minta Tambah Stimulus Ekonomi • 4 tahun yang lalu</t>
+          <t>01:39 VIDEO: 80 Ribu Koperasi Merah Putih Siap Diresmikan TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210204100439-532-602114/insentif-pajak-berlanjut-pengusaha-minta-tambah-stimulus</t>
+          <t>https://www.cnnindonesia.com/tv/20250715182930-407-1251024/video-80-ribu-koperasi-merah-putih-siap-diresmikan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D111" t="n">
         <v>3</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44231.42525462963</v>
+        <v>45853.83</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-02-04 10:12:22+07:00</t>
+          <t>2025-07-15 19:55:12+07:00</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:02.385542+07:00</t>
+          <t>2025-09-29 09:33:07.773792+07:00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pemerintah Siapkan Rp4,57 T Buat Listrik Gratis 2021 Ekonomi • 4 tahun yang lalu</t>
+          <t>Menkop Budi Sebut Sudah Terbentuk 80,5 Ribu Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210122142254-85-597174/pemerintah-siapkan-rp457-t-buat-listrik-gratis-2021</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250713001539-92-1250017/menkop-budi-sebut-sudah-terbentuk-805-ribu-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D112" t="n">
         <v>3</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44218.75136574074</v>
+        <v>45851.23178240741</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-01-22 18:01:58+07:00</t>
+          <t>2025-07-13 05:33:46+07:00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:02.565781+07:00</t>
+          <t>2025-09-29 09:33:08.087436+07:00</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bukan Cuma Stimulus, Biden Harus Tundukkan Covid-19 Ekonomi • 4 tahun yang lalu</t>
+          <t>Prabowo Gelar Ratas Bahas Cuaca Ekstrem hingga Sekolah Rakyat Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20210119102609-532-595466/bukan-cuma-stimulus-biden-harus-tundukkan-covid-19</t>
+          <t>https://www.cnnindonesia.com/nasional/20250712205642-32-1249997/prabowo-gelar-ratas-bahas-cuaca-ekstrem-hingga-sekolah-rakyat</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>koperasi merah putih</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v>3</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44215.44386574074</v>
+        <v>45850.88556712963</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-01-19 10:39:10+07:00</t>
+          <t>2025-07-12 21:15:13+07:00</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-09-28 16:45:02.741676+07:00</t>
+          <t>2025-09-29 09:33:08.355343+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>03:53 VIDEO: Koperasi Merah Putih Tamanmartani Disambut Antusias Warga TV • 2 bulan yang lalu</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250712131038-404-1249892/video-koperasi-merah-putih-tamanmartani-disambut-antusias-warga</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>koperasi merah putih</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45850.55344907408</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025-07-12 13:16:58+07:00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025-09-29 09:33:08.486361+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>01:43 VIDEO: Pemerintah Siap Luncurkan 80 Ribu Koperasi Merah Putih TV • 2 bulan yang lalu</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250711123758-402-1249554/video-pemerintah-siap-luncurkan-80-ribu-koperasi-merah-putih</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>koperasi merah putih</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45849.55761574074</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:22:58+07:00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2025-09-29 09:33:08.624239+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Menkop Budi Ungkap Peran Penting Perempuan untuk Koperasi Tumbuh Ekonomi • 2 bulan yang lalu</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/ekonomi/20250708210240-625-1248426/menkop-budi-ungkap-peran-penting-perempuan-untuk-koperasi-tumbuh</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>koperasi merah putih</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45847.2087962963</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025-07-09 05:00:40+07:00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025-09-29 09:33:08.841940+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>05:04 VIDEO: Sebanyak 152 Koperasi Merah Putih Telah Terbentuk TV • 2 bulan yang lalu</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250704120204-402-1246842/video-sebanyak-152-koperasi-merah-putih-telah-terbentuk</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>koperasi merah putih</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45842.53199074074</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025-07-04 12:46:04+07:00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025-09-29 09:33:08.968127+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Kemenkop Minta Asuransi PertaLife Masuk Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/ekonomi/20250703071623-78-1246297/kemenkop-minta-asuransi-pertalife-masuk-kopdes-merah-putih</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>koperasi merah putih</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45841.39797453704</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025-07-03 09:33:05+07:00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2025-09-29 09:33:09.529781+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>01:44 VIDEO: Menkop Harap Koperasi Desa Dapat Kurangi Kemiskinan TV • 3 bulan yang lalu</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250625133328-407-1243669/video-menkop-harap-koperasi-desa-dapat-kurangi-kemiskinan</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>koperasi merah putih</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45833.59407407408</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:15:28+07:00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025-09-29 09:33:10.561832+07:00</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/cnn_links.xlsx
+++ b/daftar_berita/cnn_links.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45929.39729805636</v>
+        <v>45929.57583549956</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:06.552070+07:00</t>
+          <t>2025-09-29 13:49:12.187162+07:00</t>
         </is>
       </c>
     </row>
@@ -523,12 +523,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45929.39729859347</v>
+        <v>45929.57583733656</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:06.598476+07:00</t>
+          <t>2025-09-29 13:49:12.345879+07:00</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45929.39730016637</v>
+        <v>45929.57583874113</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:06.734374+07:00</t>
+          <t>2025-09-29 13:49:12.467233+07:00</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45929.39730101655</v>
+        <v>45929.57584043257</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:06.807830+07:00</t>
+          <t>2025-09-29 13:49:12.613374+07:00</t>
         </is>
       </c>
     </row>
@@ -610,12 +610,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45929.39730289063</v>
+        <v>45929.57584156139</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:06.969751+07:00</t>
+          <t>2025-09-29 13:49:12.710904+07:00</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45929.39730433035</v>
+        <v>45929.57585116443</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:07.094142+07:00</t>
+          <t>2025-09-29 13:49:13.540607+07:00</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45929.39730593355</v>
+        <v>45929.57585240466</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:07.232659+07:00</t>
+          <t>2025-09-29 13:49:13.647763+07:00</t>
         </is>
       </c>
     </row>
@@ -697,12 +697,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45929.39730832399</v>
+        <v>45929.57585386482</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:07.439193+07:00</t>
+          <t>2025-09-29 13:49:13.773920+07:00</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45929.3973095941</v>
+        <v>45929.575854955</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:07.548930+07:00</t>
+          <t>2025-09-29 13:49:13.868112+07:00</t>
         </is>
       </c>
     </row>
@@ -755,12 +755,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45929.39731114565</v>
+        <v>45929.5758560506</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:07.682984+07:00</t>
+          <t>2025-09-29 13:49:13.962772+07:00</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45929.39731293282</v>
+        <v>45929.57585816349</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:07.837396+07:00</t>
+          <t>2025-09-29 13:49:14.145325+07:00</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45929.39731446616</v>
+        <v>45929.57585951052</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:07.969876+07:00</t>
+          <t>2025-09-29 13:49:14.261709+07:00</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45929.39731559024</v>
+        <v>45929.57586039833</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:08.066997+07:00</t>
+          <t>2025-09-29 13:49:14.338416+07:00</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45929.39731725187</v>
+        <v>45929.57586173688</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:08.210562+07:00</t>
+          <t>2025-09-29 13:49:14.454067+07:00</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45929.39731818492</v>
+        <v>45929.57586272105</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:08.291177+07:00</t>
+          <t>2025-09-29 13:49:14.539098+07:00</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45929.39732070314</v>
+        <v>45929.57586422905</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:08.508751+07:00</t>
+          <t>2025-09-29 13:49:14.669390+07:00</t>
         </is>
       </c>
     </row>
@@ -958,12 +958,12 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45929.39732404189</v>
+        <v>45929.57586559607</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:08.797219+07:00</t>
+          <t>2025-09-29 13:49:14.787501+07:00</t>
         </is>
       </c>
     </row>
@@ -987,12 +987,12 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45929.39732524612</v>
+        <v>45929.57586701596</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:08.901265+07:00</t>
+          <t>2025-09-29 13:49:14.910179+07:00</t>
         </is>
       </c>
     </row>
@@ -1016,12 +1016,12 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45929.39732721846</v>
+        <v>45929.57586886626</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:09.071675+07:00</t>
+          <t>2025-09-29 13:49:15.070045+07:00</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45929.39732943662</v>
+        <v>45929.5758703898</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:09.263324+07:00</t>
+          <t>2025-09-29 13:49:15.201679+07:00</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1074,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45929.39733103897</v>
+        <v>45929.5758718775</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:09.401767+07:00</t>
+          <t>2025-09-29 13:49:15.330216+07:00</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45929.39733245706</v>
+        <v>45929.57587396229</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:09.524290+07:00</t>
+          <t>2025-09-29 13:49:15.510342+07:00</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45929.39733435942</v>
+        <v>45929.57587463331</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:09.688654+07:00</t>
+          <t>2025-09-29 13:49:15.568318+07:00</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45929.39733611875</v>
+        <v>45929.57587594834</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:09.840660+07:00</t>
+          <t>2025-09-29 13:49:15.681937+07:00</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45929.39733763183</v>
+        <v>45929.57587760225</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:09.971390+07:00</t>
+          <t>2025-09-29 13:49:15.824834+07:00</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45929.39733977088</v>
+        <v>45929.57587923182</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:10.156204+07:00</t>
+          <t>2025-09-29 13:49:15.965629+07:00</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:10.308153+07:00</t>
+          <t>2025-09-29 13:49:16.400408+07:00</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:10.433981+07:00</t>
+          <t>2025-09-29 13:49:16.532472+07:00</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:10.636123+07:00</t>
+          <t>2025-09-29 13:49:16.671944+07:00</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:10.767038+07:00</t>
+          <t>2025-09-29 13:49:16.795449+07:00</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:10.947110+07:00</t>
+          <t>2025-09-29 13:49:16.928772+07:00</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:11.110153+07:00</t>
+          <t>2025-09-29 13:49:17.058844+07:00</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:11.251642+07:00</t>
+          <t>2025-09-29 13:49:17.217453+07:00</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:11.478264+07:00</t>
+          <t>2025-09-29 13:49:17.421507+07:00</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:11.828372+07:00</t>
+          <t>2025-09-29 13:49:17.646689+07:00</t>
         </is>
       </c>
     </row>
@@ -1554,19 +1554,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:11.959810+07:00</t>
+          <t>2025-09-29 13:49:17.831323+07:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1578,28 +1578,24 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45917.52737268519</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-09-17 12:39:25+07:00</t>
-        </is>
-      </c>
+        <v>45929.5759179106</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:16.831178+07:00</t>
+          <t>2025-09-29 13:49:19.307476+07:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1611,28 +1607,24 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45917.45146990741</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-09-17 10:50:07+07:00</t>
-        </is>
-      </c>
+        <v>45929.57591820824</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:16.995634+07:00</t>
+          <t>2025-09-29 13:49:19.333192+07:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 1 minggu yang lalu</t>
+          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1644,28 +1636,28 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45916.46927083333</v>
+        <v>45917.52737268519</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-16 11:15:45+07:00</t>
+          <t>2025-09-17 12:39:25+07:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:17.145911+07:00</t>
+          <t>2025-09-29 13:49:26.477062+07:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1677,28 +1669,28 @@
         <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45915.87552083333</v>
+        <v>45917.45146990741</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-15 21:00:45+07:00</t>
+          <t>2025-09-17 10:50:07+07:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:17.325264+07:00</t>
+          <t>2025-09-29 13:49:26.620356+07:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 1 minggu yang lalu</t>
+          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
+          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1710,28 +1702,28 @@
         <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45915.79498842593</v>
+        <v>45916.46927083333</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-15 19:04:47+07:00</t>
+          <t>2025-09-16 11:15:45+07:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:18.253605+07:00</t>
+          <t>2025-09-29 13:49:26.758398+07:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1743,28 +1735,28 @@
         <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45915.79400462963</v>
+        <v>45915.87552083333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-15 19:03:22+07:00</t>
+          <t>2025-09-15 21:00:45+07:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:18.534112+07:00</t>
+          <t>2025-09-29 13:49:26.998433+07:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
+          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1776,28 +1768,28 @@
         <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45914.57866898148</v>
+        <v>45915.79498842593</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-14 13:53:17+07:00</t>
+          <t>2025-09-15 19:04:47+07:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:18.675009+07:00</t>
+          <t>2025-09-29 13:49:27.904633+07:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1809,28 +1801,28 @@
         <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45913.34037037037</v>
+        <v>45915.79400462963</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-13 08:10:08+07:00</t>
+          <t>2025-09-15 19:03:22+07:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:18.819727+07:00</t>
+          <t>2025-09-29 13:49:29.443940+07:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
+          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
+          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1842,28 +1834,28 @@
         <v>2</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45911.80748842593</v>
+        <v>45914.57866898148</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-11 19:22:47+07:00</t>
+          <t>2025-09-14 13:53:17+07:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:19.270122+07:00</t>
+          <t>2025-09-29 13:49:29.953365+07:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
+          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1875,28 +1867,28 @@
         <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45911.50540509259</v>
+        <v>45913.34037037037</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-11 12:07:47+07:00</t>
+          <t>2025-09-13 08:10:08+07:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:19.734971+07:00</t>
+          <t>2025-09-29 13:49:30.876457+07:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:19 VIDEO: Rapat Perdana Menkeu Purbaya Dicecar Komisi XI DPR TV • 2 minggu yang lalu</t>
+          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250911092357-400-1272431/video-rapat-perdana-menkeu-purbaya-dicecar-komisi-xi-dpr</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1905,31 +1897,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45911.39340277778</v>
+        <v>45911.80748842593</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-11 09:26:30+07:00</t>
+          <t>2025-09-11 19:22:47+07:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:25.835944+07:00</t>
+          <t>2025-09-29 13:49:31.029927+07:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Serapan Anggaran Rendah, Purbaya Minta Bos BGN Jumpa Pers Tiap Bulan Ekonomi • 2 minggu yang lalu</t>
+          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910180046-532-1272257/serapan-anggaran-rendah-purbaya-minta-bos-bgn-jumpa-pers-tiap-bulan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1938,31 +1930,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45910.84768518519</v>
+        <v>45911.50540509259</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-10 20:20:40+07:00</t>
+          <t>2025-09-11 12:07:47+07:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:25.995088+07:00</t>
+          <t>2025-09-29 13:49:31.162696+07:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>00:55 VIDEO: Purbaya Tanya Balik DPR soal Warisan Masalah Fiskal dan Moneter Ekonomi • 2 minggu yang lalu</t>
+          <t>04:19 VIDEO: Rapat Perdana Menkeu Purbaya Dicecar Komisi XI DPR TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910175630-536-1272255/video-purbaya-tanya-balik-dpr-soal-warisan-masalah-fiskal-dan-moneter</t>
+          <t>https://www.cnnindonesia.com/tv/20250911092357-400-1272431/video-rapat-perdana-menkeu-purbaya-dicecar-komisi-xi-dpr</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1974,28 +1966,28 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45910.76162037037</v>
+        <v>45911.39340277778</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-10 18:16:44+07:00</t>
+          <t>2025-09-11 09:26:30+07:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:26.206415+07:00</t>
+          <t>2025-09-29 13:49:35.764742+07:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Rp425 T Mengendap di BI: Makanya Orang Susah Cari Kerja Ekonomi • 2 minggu yang lalu</t>
+          <t>Serapan Anggaran Rendah, Purbaya Minta Bos BGN Jumpa Pers Tiap Bulan Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910160549-532-1272212/purbaya-sebut-rp425-t-mengendap-di-bi-makanya-orang-susah-cari-kerja</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910180046-532-1272257/serapan-anggaran-rendah-purbaya-minta-bos-bgn-jumpa-pers-tiap-bulan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2007,94 +1999,94 @@
         <v>3</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45910.70972222222</v>
+        <v>45910.84768518519</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-10 17:02:00+07:00</t>
+          <t>2025-09-10 20:20:40+07:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:26.357742+07:00</t>
+          <t>2025-09-29 13:49:35.904621+07:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MBG di SMAN 1 Tulungagung Dihentikan Tiba-tiba, Penyebab Tak Diketahui Nasional • 5 menit yang lalu</t>
+          <t>00:55 VIDEO: Purbaya Tanya Balik DPR soal Warisan Masalah Fiskal dan Moneter Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929085242-20-1278714/mbg-di-sman-1-tulungagung-dihentikan-tiba-tiba-penyebab-tak-diketahui</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910175630-536-1272255/video-purbaya-tanya-balik-dpr-soal-warisan-masalah-fiskal-dan-moneter</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>purbaya</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45929.38796296297</v>
+        <v>45910.76162037037</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-29 09:18:40+07:00</t>
+          <t>2025-09-10 18:16:44+07:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:30.453241+07:00</t>
+          <t>2025-09-29 13:49:36.034625+07:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BGN Tegaskan Pemerintah Tanggung Biaya Pasien Keracunan MBG Ekonomi • 11 menit yang lalu</t>
+          <t>Purbaya Sebut Rp425 T Mengendap di BI: Makanya Orang Susah Cari Kerja Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250929090331-92-1278712/bgn-tegaskan-pemerintah-tanggung-biaya-pasien-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910160549-532-1272212/purbaya-sebut-rp425-t-mengendap-di-bi-makanya-orang-susah-cari-kerja</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>purbaya</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45929.38341435185</v>
+        <v>45910.70972222222</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-29 09:12:07+07:00</t>
+          <t>2025-09-10 17:02:00+07:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:30.590040+07:00</t>
+          <t>2025-09-29 13:49:36.230959+07:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>03:35 VIDEO: Poin-poin Hasil Rapat Penanggulangan Keracunan MBG TV • 52 menit yang lalu</t>
+          <t>Prabowo Sebut Kasus Keracunan MBG Hanya 0,00017 Persen di Indonesia Nasional • 26 menit yang lalu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250929082856-400-1278707/video-poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929130549-20-1278839/prabowo-sebut-kasus-keracunan-mbg-hanya-000017-persen-di-indonesia</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2106,28 +2098,28 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45929.3552199074</v>
+        <v>45929.55806712963</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-29 08:31:31+07:00</t>
+          <t>2025-09-29 13:23:37+07:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:30.698468+07:00</t>
+          <t>2025-09-29 13:49:41.369762+07:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Siswa Diduga Keracunan hingga 4 Sekolah Tolak MBG Bau di Jember Nasional • 1 jam yang lalu</t>
+          <t>Punya Aduan soal Pelaksanaan MBG? Lapor ke Nomor Ini Ekonomi • 1 jam yang lalu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929070533-20-1278692/siswa-diduga-keracunan-hingga-4-sekolah-tolak-mbg-bau-di-jember</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929120249-92-1278820/punya-aduan-soal-pelaksanaan-mbg-lapor-ke-nomor-ini</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2139,28 +2131,28 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45929.32153935185</v>
+        <v>45929.52299768518</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-29 07:43:01+07:00</t>
+          <t>2025-09-29 12:33:07+07:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:30.910698+07:00</t>
+          <t>2025-09-29 13:49:41.483382+07:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Respons Purbaya soal BGN Minta Tambah Anggaran MBG Rp28 T Ekonomi • 1 jam yang lalu</t>
+          <t>Menyoal Bahaya Salmonella, Bakteri Penyebab Keracunan MBG di Bandung Gaya Hidup • 3 jam yang lalu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250929071153-532-1278693/respons-purbaya-soal-bgn-minta-tambah-anggaran-mbg-rp28-t</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/20250929101604-255-1278762/menyoal-bahaya-salmonella-bakteri-penyebab-keracunan-mbg-di-bandung</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2172,28 +2164,28 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45929.3096412037</v>
+        <v>45929.44813657407</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-29 07:25:53+07:00</t>
+          <t>2025-09-29 10:45:19+07:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:31.034102+07:00</t>
+          <t>2025-09-29 13:49:41.578750+07:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Poin-poin Hasil Rapat Penanggulangan Keracunan MBG Nasional • 2 jam yang lalu</t>
+          <t>Redaksi CNN Datangi Istana, Tanya Alasan Pencabutan ID Liputan Nasional • 3 jam yang lalu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928191547-20-1278640/poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929094600-20-1278736/redaksi-cnn-datangi-istana-tanya-alasan-pencabutan-id-liputan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2205,28 +2197,28 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45929.29892361111</v>
+        <v>45929.41222222222</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-29 07:10:27+07:00</t>
+          <t>2025-09-29 09:53:36+07:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:31.168995+07:00</t>
+          <t>2025-09-29 13:49:41.663372+07:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Istana Cabut Kartu Jurnalis CNN Indonesia Usai Tanya MBG ke Prabowo Nasional • 2 jam yang lalu</t>
+          <t>MBG di SMAN 1 Tulungagung Dihentikan Tiba-tiba, Penyebab Tak Diketahui Nasional • 4 jam yang lalu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929061312-20-1278685/istana-cabut-kartu-jurnalis-cnn-indonesia-usai-tanya-mbg-ke-prabowo</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929085242-20-1278714/mbg-di-sman-1-tulungagung-dihentikan-tiba-tiba-penyebab-tak-diketahui</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2238,28 +2230,28 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45929.29309027778</v>
+        <v>45929.38796296297</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-29 07:02:03+07:00</t>
+          <t>2025-09-29 09:18:40+07:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:31.380264+07:00</t>
+          <t>2025-09-29 13:49:41.757680+07:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Prabowo Panggil Menteri ke Kertanegara Minggu Malam, Bahas MBG-Pangan Nasional • 10 jam yang lalu</t>
+          <t>BGN Tegaskan Pemerintah Tanggung Biaya Pasien Keracunan MBG Ekonomi • 4 jam yang lalu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928223005-32-1278654/prabowo-panggil-menteri-ke-kertanegara-minggu-malam-bahas-mbg-pangan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929090331-92-1278712/bgn-tegaskan-pemerintah-tanggung-biaya-pasien-keracunan-mbg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2271,28 +2263,28 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45928.94276620371</v>
+        <v>45929.38341435185</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-28 22:37:35+07:00</t>
+          <t>2025-09-29 09:12:07+07:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:31.515880+07:00</t>
+          <t>2025-09-29 13:49:41.898273+07:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kemenkes Bakal Kerahkan Ahli Gizi Pantau Program MBG Nasional • 14 jam yang lalu</t>
+          <t>03:35 VIDEO: Poin-poin Hasil Rapat Penanggulangan Keracunan MBG TV • 5 jam yang lalu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928183036-20-1278632/kemenkes-bakal-kerahkan-ahli-gizi-pantau-program-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250929082856-400-1278707/video-poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2304,28 +2296,28 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45928.78105324074</v>
+        <v>45929.3552199074</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-28 18:44:43+07:00</t>
+          <t>2025-09-29 08:31:31+07:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:31.629810+07:00</t>
+          <t>2025-09-29 13:49:41.996280+07:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Menkes Sebut Standar Dapur dan Kontrol Bahan MBG Bakal Diperketat Nasional • 16 jam yang lalu</t>
+          <t>Siswa Diduga Keracunan hingga 4 Sekolah Tolak MBG Bau di Jember Nasional • 6 jam yang lalu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928165705-20-1278607/menkes-sebut-standar-dapur-dan-kontrol-bahan-mbg-bakal-diperketat</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929070533-20-1278692/siswa-diduga-keracunan-hingga-4-sekolah-tolak-mbg-bau-di-jember</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2337,28 +2329,28 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45928.72278935185</v>
+        <v>45929.32153935185</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-28 17:20:49+07:00</t>
+          <t>2025-09-29 07:43:01+07:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:31.739699+07:00</t>
+          <t>2025-09-29 13:49:42.083458+07:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>01:56 VIDEO: Prabowo Instruksikan Investigasi-Penutupan SPPG MBG Bermasalah Nasional • 17 jam yang lalu</t>
+          <t>Respons Purbaya soal BGN Minta Tambah Anggaran MBG Rp28 T Ekonomi • 6 jam yang lalu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928154704-24-1278598/video-prabowo-instruksikan-investigasi-penutupan-sppg-mbg-bermasalah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929071153-532-1278693/respons-purbaya-soal-bgn-minta-tambah-anggaran-mbg-rp28-t</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2367,31 +2359,31 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45928.68098379629</v>
+        <v>45929.3096412037</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-28 16:20:37+07:00</t>
+          <t>2025-09-29 07:25:53+07:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.091787+07:00</t>
+          <t>2025-09-29 13:49:42.153826+07:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>01:36 VIDEO: DItanya Jurnalis CNN Soal MBG, Prabowo Langsung Balik Lagi TV • 17 jam yang lalu</t>
+          <t>Poin-poin Hasil Rapat Penanggulangan Keracunan MBG Nasional • 6 jam yang lalu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928155057-404-1278599/video-ditanya-jurnalis-cnn-soal-mbg-prabowo-langsung-balik-lagi</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928191547-20-1278640/poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2400,31 +2392,31 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45928.67052083334</v>
+        <v>45929.29892361111</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-28 16:05:33+07:00</t>
+          <t>2025-09-29 07:10:27+07:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.219687+07:00</t>
+          <t>2025-09-29 13:49:42.248581+07:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bos BGN Lapor Prabowo Penyebab Marak Kasus Keracunan MBG Ekonomi • 17 jam yang lalu</t>
+          <t>Istana Cabut Kartu Jurnalis CNN Indonesia Usai Tanya MBG ke Prabowo Nasional • 6 jam yang lalu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250928153947-92-1278597/bos-bgn-lapor-prabowo-penyebab-marak-kasus-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250929061312-20-1278685/istana-cabut-kartu-jurnalis-cnn-indonesia-usai-tanya-mbg-ke-prabowo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2436,28 +2428,28 @@
         <v>2</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45928.66037037037</v>
+        <v>45929.29309027778</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-28 15:50:56+07:00</t>
+          <t>2025-09-29 07:02:03+07:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.335039+07:00</t>
+          <t>2025-09-29 13:49:47.406339+07:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01:57 VIDEO: Siswa SD Tolak Makan Bergizi Gratis, Ulat Ditemukan di Menu MBG TV • 19 jam yang lalu</t>
+          <t>Prabowo Panggil Menteri ke Kertanegara Minggu Malam, Bahas MBG-Pangan Nasional • 15 jam yang lalu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928132509-404-1278536/video-siswa-sd-tolak-makan-bergizi-gratis-ulat-ditemukan-di-menu-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928223005-32-1278654/prabowo-panggil-menteri-ke-kertanegara-minggu-malam-bahas-mbg-pangan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2469,28 +2461,28 @@
         <v>2</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45928.58023148148</v>
+        <v>45928.94276620371</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-28 13:55:32+07:00</t>
+          <t>2025-09-28 22:37:35+07:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.505609+07:00</t>
+          <t>2025-09-29 13:49:47.530827+07:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>02:36 VIDEO: DPR Soroti Dugaan Mafia di Balik Program Makan Bergizi Gratis TV • 23 jam yang lalu</t>
+          <t>Kemenkes Bakal Kerahkan Ahli Gizi Pantau Program MBG Nasional • 19 jam yang lalu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928091714-404-1278493/video-dpr-soroti-dugaan-mafia-di-balik-program-makan-bergizi-gratis</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928183036-20-1278632/kemenkes-bakal-kerahkan-ahli-gizi-pantau-program-mbg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2502,28 +2494,28 @@
         <v>2</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45928.43020833333</v>
+        <v>45928.78105324074</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-28 10:19:30+07:00</t>
+          <t>2025-09-28 18:44:43+07:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.617990+07:00</t>
+          <t>2025-09-29 13:49:47.714381+07:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ribuan Kasus Keracunan MBG, Dokter Gizi Soroti Masalah Kebersihan Gaya Hidup • 1 hari yang lalu</t>
+          <t>Menkes Sebut Standar Dapur dan Kontrol Bahan MBG Bakal Diperketat Nasional • 20 jam yang lalu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/20250925134544-255-1277617/ribuan-kasus-keracunan-mbg-dokter-gizi-soroti-masalah-kebersihan</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928165705-20-1278607/menkes-sebut-standar-dapur-dan-kontrol-bahan-mbg-bakal-diperketat</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2535,28 +2527,28 @@
         <v>2</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45927.81299768519</v>
+        <v>45928.72278935185</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-27 19:30:43+07:00</t>
+          <t>2025-09-28 17:20:49+07:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.732585+07:00</t>
+          <t>2025-09-29 13:49:47.843912+07:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01:18 VIDEO: Prabowo Sebut Keracunan MBG Masalah Besar, Panggil Kepala BGN Nasional • 1 hari yang lalu</t>
+          <t>01:56 VIDEO: Prabowo Instruksikan Investigasi-Penutupan SPPG MBG Bermasalah Nasional • 21 jam yang lalu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927161919-24-1278403/video-prabowo-sebut-keracunan-mbg-masalah-besar-panggil-kepala-bgn</t>
+          <t>https://www.cnnindonesia.com/nasional/20250928154704-24-1278598/video-prabowo-instruksikan-investigasi-penutupan-sppg-mbg-bermasalah</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2568,28 +2560,28 @@
         <v>2</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45927.70511574074</v>
+        <v>45928.68098379629</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-27 16:55:22+07:00</t>
+          <t>2025-09-28 16:20:37+07:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.835424+07:00</t>
+          <t>2025-09-29 13:49:47.961218+07:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MBG Telan Rp1,2 T per Hari Mulai Tahun Depan Ekonomi • 1 hari yang lalu</t>
+          <t>01:36 VIDEO: DItanya Jurnalis CNN Soal MBG, Prabowo Langsung Balik Lagi TV • 21 jam yang lalu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926202814-92-1278234/mbg-telan-rp12-t-per-hari-mulai-tahun-depan</t>
+          <t>https://www.cnnindonesia.com/tv/20250928155057-404-1278599/video-ditanya-jurnalis-cnn-soal-mbg-prabowo-langsung-balik-lagi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2601,28 +2593,28 @@
         <v>2</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45927.60428240741</v>
+        <v>45928.67052083334</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-27 14:30:10+07:00</t>
+          <t>2025-09-28 16:05:33+07:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:37.990725+07:00</t>
+          <t>2025-09-29 13:49:48.061922+07:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:29 VIDEO: Penyajian MBG Untuk Anak Terlantar Bisa Jadi Contoh TV • 1 hari yang lalu</t>
+          <t>Bos BGN Lapor Prabowo Penyebab Marak Kasus Keracunan MBG Ekonomi • 21 jam yang lalu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250927104127-404-1278307/video-penyajian-mbg-untuk-anak-terlantar-bisa-jadi-contoh</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250928153947-92-1278597/bos-bgn-lapor-prabowo-penyebab-marak-kasus-keracunan-mbg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2634,28 +2626,28 @@
         <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45927.57934027778</v>
+        <v>45928.66037037037</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-27 13:54:15+07:00</t>
+          <t>2025-09-28 15:50:56+07:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:38.237170+07:00</t>
+          <t>2025-09-29 13:49:48.231485+07:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03:18 VIDEO: Kasus Keracunan MBG, IDAI Beri Tips Pencegahan dan Penanganan TV • 1 hari yang lalu</t>
+          <t>01:57 VIDEO: Siswa SD Tolak Makan Bergizi Gratis, Ulat Ditemukan di Menu MBG TV • 23 jam yang lalu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212258-404-1278248/video-kasus-keracunan-mbg-idai-beri-tips-pencegahan-dan-penanganan</t>
+          <t>https://www.cnnindonesia.com/tv/20250928132509-404-1278536/video-siswa-sd-tolak-makan-bergizi-gratis-ulat-ditemukan-di-menu-mbg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2667,28 +2659,28 @@
         <v>2</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45927.48122685185</v>
+        <v>45928.58023148148</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-27 11:32:58+07:00</t>
+          <t>2025-09-28 13:55:32+07:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:38.378669+07:00</t>
+          <t>2025-09-29 13:49:48.317443+07:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>02:36 VIDEO: DPR Soroti Dugaan Mafia di Balik Program Makan Bergizi Gratis TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D3</t>
+          <t>https://www.cnnindonesia.com/tv/20250928091714-404-1278493/video-dpr-soroti-dugaan-mafia-di-balik-program-makan-bergizi-gratis</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2697,27 +2689,31 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45929.39768483729</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
+        <v>45928.43020833333</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-09-28 10:19:30+07:00</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:39.969942+07:00</t>
+          <t>2025-09-29 13:49:48.414696+07:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Ribuan Kasus Keracunan MBG, Dokter Gizi Soroti Masalah Kebersihan Gaya Hidup • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fmbg%3Fpage%3D3&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/20250925134544-255-1277617/ribuan-kasus-keracunan-mbg-dokter-gizi-soroti-masalah-kebersihan</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2726,27 +2722,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45929.3976858305</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
+        <v>45927.81299768519</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-09-27 19:30:43+07:00</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:40.055755+07:00</t>
+          <t>2025-09-29 13:49:48.582323+07:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cerita Kepala Sekolah Diminta Teken Surat Rahasiakan Keracunan MBG Nasional • 1 hari yang lalu</t>
+          <t>01:18 VIDEO: Prabowo Sebut Keracunan MBG Masalah Besar, Panggil Kepala BGN Nasional • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927100421-20-1278291/cerita-kepala-sekolah-diminta-teken-surat-rahasiakan-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927161919-24-1278403/video-prabowo-sebut-keracunan-mbg-masalah-besar-panggil-kepala-bgn</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2758,28 +2758,28 @@
         <v>3</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45927.4416087963</v>
+        <v>45927.70511574074</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-27 10:35:55+07:00</t>
+          <t>2025-09-27 16:55:22+07:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:43.449452+07:00</t>
+          <t>2025-09-29 13:49:52.486575+07:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>01:29 VIDEO: Purnawirawan TNI Dominasi Pejabat Badan Gizi Nasional TV • 1 hari yang lalu</t>
+          <t>MBG Telan Rp1,2 T per Hari Mulai Tahun Depan Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212301-404-1278250/video-purnawirawan-tni-dominasi-pejabat-badan-gizi-nasional</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926202814-92-1278234/mbg-telan-rp12-t-per-hari-mulai-tahun-depan</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2791,28 +2791,28 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45927.43959490741</v>
+        <v>45927.60428240741</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-27 10:33:01+07:00</t>
+          <t>2025-09-27 14:30:10+07:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:43.589064+07:00</t>
+          <t>2025-09-29 13:49:52.566574+07:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Purbaya Bakal Kerahkan Anak Buah Kawal MBG Ekonomi • 1 hari yang lalu</t>
+          <t>04:29 VIDEO: Penyajian MBG Untuk Anak Terlantar Bisa Jadi Contoh TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926203850-532-1278235/purbaya-bakal-kerahkan-anak-buah-kawal-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250927104127-404-1278307/video-penyajian-mbg-untuk-anak-terlantar-bisa-jadi-contoh</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2824,28 +2824,28 @@
         <v>3</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45927.42414351852</v>
+        <v>45927.57934027778</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-27 10:10:46+07:00</t>
+          <t>2025-09-27 13:54:15+07:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:43.743824+07:00</t>
+          <t>2025-09-29 13:49:52.730407+07:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7 Daerah yang Alami Keracunan MBG Versi BGN Nasional • 2 hari yang lalu</t>
+          <t>03:18 VIDEO: Kasus Keracunan MBG, IDAI Beri Tips Pencegahan dan Penanganan TV • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927081552-20-1278281/7-daerah-yang-alami-keracunan-mbg-versi-bgn</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212258-404-1278248/video-kasus-keracunan-mbg-idai-beri-tips-pencegahan-dan-penanganan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2857,28 +2857,28 @@
         <v>3</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45927.35458333333</v>
+        <v>45927.48122685185</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-27 08:30:36+07:00</t>
+          <t>2025-09-27 11:32:58+07:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:43.939044+07:00</t>
+          <t>2025-09-29 13:49:52.836526+07:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>04:57 VIDEO: Penyebab Keracunan MBG Bakal Dipidana TV • 2 hari yang lalu</t>
+          <t>Cerita Kepala Sekolah Diminta Teken Surat Rahasiakan Keracunan MBG Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212255-404-1278244/video-penyebab-keracunan-mbg-bakal-dipidana</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927100421-20-1278291/cerita-kepala-sekolah-diminta-teken-surat-rahasiakan-keracunan-mbg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2890,28 +2890,28 @@
         <v>3</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45927.33744212963</v>
+        <v>45927.4416087963</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-27 08:05:55+07:00</t>
+          <t>2025-09-27 10:35:55+07:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:44.029565+07:00</t>
+          <t>2025-09-29 13:49:52.909425+07:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BGN Minta Maaf Usai Ribuan Anak Keracunan MBG, Nanik Deyang Menangis Nasional • 2 hari yang lalu</t>
+          <t>01:29 VIDEO: Purnawirawan TNI Dominasi Pejabat Badan Gizi Nasional TV • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926200143-20-1278227/bgn-minta-maaf-usai-ribuan-anak-keracunan-mbg-nanik-deyang-menangis</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212301-404-1278250/video-purnawirawan-tni-dominasi-pejabat-badan-gizi-nasional</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2923,28 +2923,28 @@
         <v>3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45927.28493055556</v>
+        <v>45927.43959490741</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-27 06:50:18+07:00</t>
+          <t>2025-09-27 10:33:01+07:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:44.194335+07:00</t>
+          <t>2025-09-29 13:49:53.022123+07:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BGN Gandeng Polri &amp; BIN Telusuri Keracunan MBG, Buka Peluang Pidana Nasional • 2 hari yang lalu</t>
+          <t>Purbaya Bakal Kerahkan Anak Buah Kawal MBG Ekonomi • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926191324-20-1278218/bgn-gandeng-polri-bin-telusuri-keracunan-mbg-buka-peluang-pidana</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926203850-532-1278235/purbaya-bakal-kerahkan-anak-buah-kawal-mbg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2956,28 +2956,28 @@
         <v>3</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45927.00358796296</v>
+        <v>45927.42414351852</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-27 00:05:10+07:00</t>
+          <t>2025-09-27 10:10:46+07:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:44.337552+07:00</t>
+          <t>2025-09-29 13:49:54.936435+07:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Dinkes Bandung Barat Masih Tunggu Hasil Uji Lab Keracunan Massal MBG Nasional • 2 hari yang lalu</t>
+          <t>7 Daerah yang Alami Keracunan MBG Versi BGN Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926131835-20-1277996/dinkes-bandung-barat-masih-tunggu-hasil-uji-lab-keracunan-massal-mbg</t>
+          <t>https://www.cnnindonesia.com/nasional/20250927081552-20-1278281/7-daerah-yang-alami-keracunan-mbg-versi-bgn</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2989,28 +2989,28 @@
         <v>3</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45926.95140046296</v>
+        <v>45927.35458333333</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-26 22:50:01+07:00</t>
+          <t>2025-09-27 08:30:36+07:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:44.589546+07:00</t>
+          <t>2025-09-29 13:49:55.088187+07:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BGN Tutup 40 SPPG Buntut Gelombang Keracunan MBG Nasional • 2 hari yang lalu</t>
+          <t>04:57 VIDEO: Penyebab Keracunan MBG Bakal Dipidana TV • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926200400-20-1278228/bgn-tutup-40-sppg-buntut-gelombang-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/tv/20250926212255-404-1278244/video-penyebab-keracunan-mbg-bakal-dipidana</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3022,28 +3022,28 @@
         <v>3</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45926.85165509259</v>
+        <v>45927.33744212963</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-26 20:26:23+07:00</t>
+          <t>2025-09-27 08:05:55+07:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:44.833885+07:00</t>
+          <t>2025-09-29 13:49:55.176008+07:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9 Anak SD di Karimun Kepri Keracunan Usai Santap MBG Roti Burger Nasional • 2 hari yang lalu</t>
+          <t>BGN Minta Maaf Usai Ribuan Anak Keracunan MBG, Nanik Deyang Menangis Nasional • 2 hari yang lalu</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926190546-20-1278214/9-anak-sd-di-karimun-kepri-keracunan-usai-santap-mbg-roti-burger</t>
+          <t>https://www.cnnindonesia.com/nasional/20250926200143-20-1278227/bgn-minta-maaf-usai-ribuan-anak-keracunan-mbg-nanik-deyang-menangis</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3055,16 +3055,16 @@
         <v>3</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45926.83578703704</v>
+        <v>45927.28493055556</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-26 20:03:32+07:00</t>
+          <t>2025-09-27 06:50:18+07:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:45.115680+07:00</t>
+          <t>2025-09-29 13:49:55.754940+07:00</t>
         </is>
       </c>
     </row>
@@ -3088,12 +3088,12 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45929.3977616054</v>
+        <v>45929.57635818094</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:46.602706+07:00</t>
+          <t>2025-09-29 13:49:57.346833+07:00</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
         <v>1</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45929.39776240967</v>
+        <v>45929.57635887742</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:46.672195+07:00</t>
+          <t>2025-09-29 13:49:57.407009+07:00</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:49.791418+07:00</t>
+          <t>2025-09-29 13:50:02.274212+07:00</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:49.944128+07:00</t>
+          <t>2025-09-29 13:50:02.376906+07:00</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:52.808714+07:00</t>
+          <t>2025-09-29 13:50:02.583465+07:00</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:52.936440+07:00</t>
+          <t>2025-09-29 13:50:02.712836+07:00</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:53.705206+07:00</t>
+          <t>2025-09-29 13:50:02.860439+07:00</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:53.991943+07:00</t>
+          <t>2025-09-29 13:50:03.190677+07:00</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:54.125882+07:00</t>
+          <t>2025-09-29 13:50:03.308881+07:00</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:54.268842+07:00</t>
+          <t>2025-09-29 13:50:03.454756+07:00</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:54.498143+07:00</t>
+          <t>2025-09-29 13:50:03.692928+07:00</t>
         </is>
       </c>
     </row>
@@ -3452,19 +3452,19 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:54.649991+07:00</t>
+          <t>2025-09-29 13:50:03.806179+07:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>ANALISIS Menguak Siapa Vampir Ekonomi yang Bikin Prabowo Geram Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D2</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250723071116-92-1253781/menguak-siapa-vampir-ekonomi-yang-bikin-prabowo-geram</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3476,24 +3476,28 @@
         <v>2</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45929.39787384896</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
+        <v>45861.32642361111</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-07-23 07:50:03+07:00</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:56.300550+07:00</t>
+          <t>2025-09-29 13:50:08.186491+07:00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>01:35 VIDEO: Prabowo: Konsep Koperasi Bisa Memperkuat Ekonomi RI TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/tv/20250722120730-402-1253489/video-prabowo-konsep-koperasi-bisa-memperkuat-ekonomi-ri</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3505,24 +3509,28 @@
         <v>2</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45929.39787493284</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
+        <v>45860.51770833333</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-07-22 12:25:30+07:00</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:56.394197+07:00</t>
+          <t>2025-09-29 13:50:08.907793+07:00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ANALISIS Menguak Siapa Vampir Ekonomi yang Bikin Prabowo Geram Ekonomi • 2 bulan yang lalu</t>
+          <t>Bobby Resmikan Koperasi Merah Putih Binjai, Perputaran Capai Rp2,5 M Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250723071116-92-1253781/menguak-siapa-vampir-ekonomi-yang-bikin-prabowo-geram</t>
+          <t>https://www.cnnindonesia.com/nasional/20250721215912-20-1253293/bobby-resmikan-koperasi-merah-putih-binjai-perputaran-capai-rp25-m</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3534,28 +3542,28 @@
         <v>2</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45861.32642361111</v>
+        <v>45859.92708333334</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-07-23 07:50:03+07:00</t>
+          <t>2025-07-21 22:15:00+07:00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-09-29 09:32:59.967055+07:00</t>
+          <t>2025-09-29 13:50:09.478308+07:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>01:35 VIDEO: Prabowo: Konsep Koperasi Bisa Memperkuat Ekonomi RI TV • 2 bulan yang lalu</t>
+          <t>Gubernur Jateng: Koperasi Merah Putih Tingkatkan Kesejahteraan Rakyat Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250722120730-402-1253489/video-prabowo-konsep-koperasi-bisa-memperkuat-ekonomi-ri</t>
+          <t>https://www.cnnindonesia.com/nasional/20250721184520-25-1253233/gubernur-jateng-koperasi-merah-putih-tingkatkan-kesejahteraan-rakyat</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3567,28 +3575,28 @@
         <v>2</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45860.51770833333</v>
+        <v>45859.78825231481</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-07-22 12:25:30+07:00</t>
+          <t>2025-07-21 18:55:05+07:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:00.160344+07:00</t>
+          <t>2025-09-29 13:50:10.906307+07:00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bobby Resmikan Koperasi Merah Putih Binjai, Perputaran Capai Rp2,5 M Nasional • 2 bulan yang lalu</t>
+          <t>Mandiri Dukung Peluncuran Kopdes Merah Putih, Perkuat Digitalisasi Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250721215912-20-1253293/bobby-resmikan-koperasi-merah-putih-binjai-perputaran-capai-rp25-m</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250721182457-625-1253223/mandiri-dukung-peluncuran-kopdes-merah-putih-perkuat-digitalisasi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3600,28 +3608,28 @@
         <v>2</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45859.92708333334</v>
+        <v>45859.78366898148</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-07-21 22:15:00+07:00</t>
+          <t>2025-07-21 18:48:29+07:00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:00.425241+07:00</t>
+          <t>2025-09-29 13:50:12.855274+07:00</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Gubernur Jateng: Koperasi Merah Putih Tingkatkan Kesejahteraan Rakyat Nasional • 2 bulan yang lalu</t>
+          <t>Menko Zulhas: 80.081 Kopdes Merah Putih Resmi Terbentuk, Sejarah Baru Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250721184520-25-1253233/gubernur-jateng-koperasi-merah-putih-tingkatkan-kesejahteraan-rakyat</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250721155247-97-1253158/menko-zulhas-80081-kopdes-merah-putih-resmi-terbentuk-sejarah-baru</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3633,28 +3641,28 @@
         <v>2</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45859.78825231481</v>
+        <v>45859.67971064815</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-07-21 18:55:05+07:00</t>
+          <t>2025-07-21 16:18:47+07:00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:00.744451+07:00</t>
+          <t>2025-09-29 13:50:13.009952+07:00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mandiri Dukung Peluncuran Kopdes Merah Putih, Perkuat Digitalisasi Ekonomi • 2 bulan yang lalu</t>
+          <t>01:53 VIDEO: Menkop Sebut 81.140 Koperasi Terbentuk di Seluruh Indonesia TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250721182457-625-1253223/mandiri-dukung-peluncuran-kopdes-merah-putih-perkuat-digitalisasi</t>
+          <t>https://www.cnnindonesia.com/tv/20250721140848-400-1253089/video-menkop-sebut-81140-koperasi-terbentuk-di-seluruh-indonesia</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3666,28 +3674,28 @@
         <v>2</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45859.78366898148</v>
+        <v>45859.61513888889</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-07-21 18:48:29+07:00</t>
+          <t>2025-07-21 14:45:48+07:00</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:00.922214+07:00</t>
+          <t>2025-09-29 13:50:13.199428+07:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Menko Zulhas: 80.081 Kopdes Merah Putih Resmi Terbentuk, Sejarah Baru Ekonomi • 2 bulan yang lalu</t>
+          <t>Koperasi Desa Merah Putih Diresmikan Prabowo Hari Ini Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250721155247-97-1253158/menko-zulhas-80081-kopdes-merah-putih-resmi-terbentuk-sejarah-baru</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250721063618-92-1252900/koperasi-desa-merah-putih-diresmikan-prabowo-hari-ini</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3699,28 +3707,28 @@
         <v>2</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45859.67971064815</v>
+        <v>45859.29516203704</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-07-21 16:18:47+07:00</t>
+          <t>2025-07-21 07:05:02+07:00</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:01.111323+07:00</t>
+          <t>2025-09-29 13:50:13.676782+07:00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>01:53 VIDEO: Menkop Sebut 81.140 Koperasi Terbentuk di Seluruh Indonesia TV • 2 bulan yang lalu</t>
+          <t>Prabowo Luncurkan 80 Ribu Kopdes Merah Putih di Klaten Senin Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250721140848-400-1253089/video-menkop-sebut-81140-koperasi-terbentuk-di-seluruh-indonesia</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250719135924-92-1252545/prabowo-luncurkan-80-ribu-kopdes-merah-putih-di-klaten-senin</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3732,28 +3740,28 @@
         <v>2</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45859.61513888889</v>
+        <v>45857.61469907407</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-07-21 14:45:48+07:00</t>
+          <t>2025-07-19 14:45:10+07:00</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:01.305036+07:00</t>
+          <t>2025-09-29 13:50:13.896881+07:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Koperasi Desa Merah Putih Diresmikan Prabowo Hari Ini Ekonomi • 2 bulan yang lalu</t>
+          <t>Menkum: 80 Ribu Lebih Kopdes Merah Putih Sudah Disahkan Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250721063618-92-1252900/koperasi-desa-merah-putih-diresmikan-prabowo-hari-ini</t>
+          <t>https://www.cnnindonesia.com/nasional/20250719075957-20-1252442/menkum-80-ribu-lebih-kopdes-merah-putih-sudah-disahkan</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3765,28 +3773,28 @@
         <v>2</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45859.29516203704</v>
+        <v>45857.33820601852</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-07-21 07:05:02+07:00</t>
+          <t>2025-07-19 08:07:01+07:00</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:01.648354+07:00</t>
+          <t>2025-09-29 13:50:14.047741+07:00</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Prabowo Luncurkan 80 Ribu Kopdes Merah Putih di Klaten Senin Ekonomi • 2 bulan yang lalu</t>
+          <t>Bank Mandiri Komitmen Perkuat Ekonomi Desa Lewat Koperasi Merah Putih Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250719135924-92-1252545/prabowo-luncurkan-80-ribu-kopdes-merah-putih-di-klaten-senin</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250718175124-625-1252302/bank-mandiri-komitmen-perkuat-ekonomi-desa-lewat-koperasi-merah-putih</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3795,31 +3803,31 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45857.61469907407</v>
+        <v>45856.76069444444</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-07-19 14:45:10+07:00</t>
+          <t>2025-07-18 18:15:24+07:00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:01.989658+07:00</t>
+          <t>2025-09-29 13:50:18.574728+07:00</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Menkum: 80 Ribu Lebih Kopdes Merah Putih Sudah Disahkan Nasional • 2 bulan yang lalu</t>
+          <t>01:39 VIDEO: 80 Ribu Koperasi Merah Putih Siap Diresmikan TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250719075957-20-1252442/menkum-80-ribu-lebih-kopdes-merah-putih-sudah-disahkan</t>
+          <t>https://www.cnnindonesia.com/tv/20250715182930-407-1251024/video-80-ribu-koperasi-merah-putih-siap-diresmikan</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3828,31 +3836,31 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45857.33820601852</v>
+        <v>45853.83</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-07-19 08:07:01+07:00</t>
+          <t>2025-07-15 19:55:12+07:00</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:02.161345+07:00</t>
+          <t>2025-09-29 13:50:18.680051+07:00</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Menkop Budi Sebut Sudah Terbentuk 80,5 Ribu Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D3</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250713001539-92-1250017/menkop-budi-sebut-sudah-terbentuk-805-ribu-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3864,24 +3872,28 @@
         <v>3</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45929.39795826355</v>
-      </c>
-      <c r="F108" t="inlineStr"/>
+        <v>45851.23178240741</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-07-13 05:33:46+07:00</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:03.593971+07:00</t>
+          <t>2025-09-29 13:50:18.841655+07:00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Prabowo Gelar Ratas Bahas Cuaca Ekstrem hingga Sekolah Rakyat Nasional • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih%3Fpage%3D3&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/nasional/20250712205642-32-1249997/prabowo-gelar-ratas-bahas-cuaca-ekstrem-hingga-sekolah-rakyat</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3893,24 +3905,28 @@
         <v>3</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45929.39795975435</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
+        <v>45850.88556712963</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-07-12 21:15:13+07:00</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:03.722776+07:00</t>
+          <t>2025-09-29 13:50:19.054695+07:00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bank Mandiri Komitmen Perkuat Ekonomi Desa Lewat Koperasi Merah Putih Ekonomi • 2 bulan yang lalu</t>
+          <t>03:53 VIDEO: Koperasi Merah Putih Tamanmartani Disambut Antusias Warga TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250718175124-625-1252302/bank-mandiri-komitmen-perkuat-ekonomi-desa-lewat-koperasi-merah-putih</t>
+          <t>https://www.cnnindonesia.com/tv/20250712131038-404-1249892/video-koperasi-merah-putih-tamanmartani-disambut-antusias-warga</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3922,28 +3938,28 @@
         <v>3</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45856.76069444444</v>
+        <v>45850.55344907408</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-07-18 18:15:24+07:00</t>
+          <t>2025-07-12 13:16:58+07:00</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:07.468654+07:00</t>
+          <t>2025-09-29 13:50:19.168553+07:00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>01:39 VIDEO: 80 Ribu Koperasi Merah Putih Siap Diresmikan TV • 2 bulan yang lalu</t>
+          <t>01:43 VIDEO: Pemerintah Siap Luncurkan 80 Ribu Koperasi Merah Putih TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250715182930-407-1251024/video-80-ribu-koperasi-merah-putih-siap-diresmikan</t>
+          <t>https://www.cnnindonesia.com/tv/20250711123758-402-1249554/video-pemerintah-siap-luncurkan-80-ribu-koperasi-merah-putih</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3955,28 +3971,28 @@
         <v>3</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45853.83</v>
+        <v>45849.55761574074</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-07-15 19:55:12+07:00</t>
+          <t>2025-07-11 13:22:58+07:00</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:07.773792+07:00</t>
+          <t>2025-09-29 13:50:19.284984+07:00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Menkop Budi Sebut Sudah Terbentuk 80,5 Ribu Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
+          <t>Menkop Budi Ungkap Peran Penting Perempuan untuk Koperasi Tumbuh Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250713001539-92-1250017/menkop-budi-sebut-sudah-terbentuk-805-ribu-kopdes-merah-putih</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250708210240-625-1248426/menkop-budi-ungkap-peran-penting-perempuan-untuk-koperasi-tumbuh</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3988,28 +4004,28 @@
         <v>3</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45851.23178240741</v>
+        <v>45847.2087962963</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-07-13 05:33:46+07:00</t>
+          <t>2025-07-09 05:00:40+07:00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:08.087436+07:00</t>
+          <t>2025-09-29 13:50:19.481191+07:00</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Prabowo Gelar Ratas Bahas Cuaca Ekstrem hingga Sekolah Rakyat Nasional • 2 bulan yang lalu</t>
+          <t>05:04 VIDEO: Sebanyak 152 Koperasi Merah Putih Telah Terbentuk TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250712205642-32-1249997/prabowo-gelar-ratas-bahas-cuaca-ekstrem-hingga-sekolah-rakyat</t>
+          <t>https://www.cnnindonesia.com/tv/20250704120204-402-1246842/video-sebanyak-152-koperasi-merah-putih-telah-terbentuk</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4021,28 +4037,28 @@
         <v>3</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45850.88556712963</v>
+        <v>45842.53199074074</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-07-12 21:15:13+07:00</t>
+          <t>2025-07-04 12:46:04+07:00</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:08.355343+07:00</t>
+          <t>2025-09-29 13:50:19.598578+07:00</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>03:53 VIDEO: Koperasi Merah Putih Tamanmartani Disambut Antusias Warga TV • 2 bulan yang lalu</t>
+          <t>Kemenkop Minta Asuransi PertaLife Masuk Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250712131038-404-1249892/video-koperasi-merah-putih-tamanmartani-disambut-antusias-warga</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250703071623-78-1246297/kemenkop-minta-asuransi-pertalife-masuk-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4054,28 +4070,28 @@
         <v>3</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45850.55344907408</v>
+        <v>45841.39797453704</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-07-12 13:16:58+07:00</t>
+          <t>2025-07-03 09:33:05+07:00</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:08.486361+07:00</t>
+          <t>2025-09-29 13:50:19.762758+07:00</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>01:43 VIDEO: Pemerintah Siap Luncurkan 80 Ribu Koperasi Merah Putih TV • 2 bulan yang lalu</t>
+          <t>01:44 VIDEO: Menkop Harap Koperasi Desa Dapat Kurangi Kemiskinan TV • 3 bulan yang lalu</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250711123758-402-1249554/video-pemerintah-siap-luncurkan-80-ribu-koperasi-merah-putih</t>
+          <t>https://www.cnnindonesia.com/tv/20250625133328-407-1243669/video-menkop-harap-koperasi-desa-dapat-kurangi-kemiskinan</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4087,148 +4103,940 @@
         <v>3</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45849.55761574074</v>
+        <v>45833.59407407408</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-07-11 13:22:58+07:00</t>
+          <t>2025-06-25 14:15:28+07:00</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:08.624239+07:00</t>
+          <t>2025-09-29 13:50:19.847193+07:00</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Menkop Budi Ungkap Peran Penting Perempuan untuk Koperasi Tumbuh Ekonomi • 2 bulan yang lalu</t>
+          <t>01:29 VIDEO: Mensesneg Tanggapi Pencabutan Kartu Pers Jurnalis CNN Indonesia TV • 5 jam yang lalu</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250708210240-625-1248426/menkop-budi-ungkap-peran-penting-perempuan-untuk-koperasi-tumbuh</t>
+          <t>https://www.cnnindonesia.com/tv/20250929075432-400-1278703/video-mensesneg-tanggapi-pencabutan-kartu-pers-jurnalis-cnn-indonesia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>koperasi merah putih</t>
+          <t>prabowo</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45847.2087962963</v>
+        <v>45929.33216435185</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-07-09 05:00:40+07:00</t>
+          <t>2025-09-29 07:58:19+07:00</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:08.841940+07:00</t>
+          <t>2025-09-29 13:50:23.303831+07:00</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>05:04 VIDEO: Sebanyak 152 Koperasi Merah Putih Telah Terbentuk TV • 2 bulan yang lalu</t>
+          <t>04:10 VIDEO: Istri Arya Daru Minta KAsus Diusut Jujur, Adil DAn Transparan TV • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250704120204-402-1246842/video-sebanyak-152-koperasi-merah-putih-telah-terbentuk</t>
+          <t>https://www.cnnindonesia.com/tv/20250928091713-404-1278492/video-istri-arya-daru-minta-kasus-diusut-jujur-adil-dan-transparan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>koperasi merah putih</t>
+          <t>prabowo</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45842.53199074074</v>
+        <v>45928.47490740741</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-07-04 12:46:04+07:00</t>
+          <t>2025-09-28 11:23:52+07:00</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:08.968127+07:00</t>
+          <t>2025-09-29 13:50:23.503534+07:00</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kemenkop Minta Asuransi PertaLife Masuk Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
+          <t>03:46 VIDEO: Indonesia Jalin Kerja Sama Ekonomi-Politik Dengan Kanada TV • 3 hari yang lalu</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250703071623-78-1246297/kemenkop-minta-asuransi-pertalife-masuk-kopdes-merah-putih</t>
+          <t>https://www.cnnindonesia.com/tv/20250925211009-404-1277823/video-indonesia-jalin-kerja-sama-ekonomi-politik-dengan-kanada</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>koperasi merah putih</t>
+          <t>prabowo</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45841.39797453704</v>
+        <v>45925.94263888889</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-07-03 09:33:05+07:00</t>
+          <t>2025-09-25 22:37:24+07:00</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-09-29 09:33:09.529781+07:00</t>
+          <t>2025-09-29 13:50:23.682995+07:00</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>01:44 VIDEO: Menkop Harap Koperasi Desa Dapat Kurangi Kemiskinan TV • 3 bulan yang lalu</t>
+          <t>8 Catatan untuk Prabowo Jika Masih Ngotot Lanjutkan Program MBG Nasional • 4 hari yang lalu</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250625133328-407-1243669/video-menkop-harap-koperasi-desa-dapat-kurangi-kemiskinan</t>
+          <t>https://www.cnnindonesia.com/nasional/20250925062053-20-1277466/8-catatan-untuk-prabowo-jika-masih-ngotot-lanjutkan-program-mbg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>koperasi merah putih</t>
+          <t>prabowo</t>
         </is>
       </c>
       <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45925.31601851852</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-09-25 07:35:04+07:00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:23.830438+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>02:34 VIDEO: Pidato Presiden Prabowo di PBB Tegaskan Solidaritas Dunia TV • 5 hari yang lalu</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250924115804-400-1277167/video-pidato-presiden-prabowo-di-pbb-tegaskan-solidaritas-dunia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45924.50078703704</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025-09-24 12:01:08+07:00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:23.928332+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>01:07 VIDEO: Prabowo Beri Tanda Kehormatan Kepada Bill Gates TV • 5 hari yang lalu</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250924100801-400-1277119/video-prabowo-beri-tanda-kehormatan-kepada-bill-gates</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45924.42378472222</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025-09-24 10:10:15+07:00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:24.054713+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Mahfud MD Terima Tawaran Komite Reformasi Polri ala Prabowo Nasional • 5 hari yang lalu</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20250924060716-12-1277024/mahfud-md-terima-tawaran-komite-reformasi-polri-ala-prabowo</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45924.27672453703</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025-09-24 06:38:29+07:00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:24.262575+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Kata-kata Erick Thohir Usai Diizinkan FIFA Jadi Menpora dan Ketua PSSI Olahraga • 6 hari yang lalu</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/olahraga/20250923081046-142-1276625/kata-kata-erick-thohir-usai-diizinkan-fifa-jadi-menpora-dan-ketua-pssi</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45923.34824074074</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025-09-23 08:21:28+07:00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:24.397833+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>02:08 VIDEO: Prabowo di PBB Desak Solusi Dua Negara Palestina dan Israel Internasional • 6 hari yang lalu</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/internasional/20250923065455-139-1276596/video-prabowo-di-pbb-desak-solusi-dua-negara-palestina-dan-israel</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45923.34063657407</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025-09-23 08:10:31+07:00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:31.565785+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>01:48 VIDEO: Prabowo Tegaskan Komitmen Indonesia Pada Solusi Dua Negara TV • 6 hari yang lalu</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250923073612-400-1276611/video-prabowo-tegaskan-komitmen-indonesia-pada-solusi-dua-negara</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45923.31916666667</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025-09-23 07:39:36+07:00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:31.660538+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>03:37 VIDEO: Presiden Prabowo Akan Pidato di Majelis Umum PBB TV • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250921205321-404-1276084/video-presiden-prabowo-akan-pidato-di-majelis-umum-pbb</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45921.91082175926</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025-09-21 21:51:35+07:00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:31.776281+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>02:12 VIDEO: Presiden Tiba di AS Untuk Hadiri Sidang Majelis Umum PBB TV • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250921184739-404-1276070/video-presiden-tiba-di-as-untuk-hadiri-sidang-majelis-umum-pbb</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45921.79137731482</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025-09-21 18:59:35+07:00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:31.996103+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Tiba di New York, Prabowo Disambut Para Diaspora Internasional • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/internasional/20250921071823-106-1275915/tiba-di-new-york-prabowo-disambut-para-diaspora</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45921.30679398148</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025-09-21 07:21:47+07:00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:32.184653+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>07:10 VIDEO: Menunggu Solusi Untuk MBG Yang Bermasalah TV • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250919214114-404-1275674/video-menunggu-solusi-untuk-mbg-yang-bermasalah</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45920.4105787037</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025-09-20 09:51:14+07:00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:32.364658+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>01:31 VIDEO: Jokowi; Relawan Dukung Prabowo-Gibran 2 Periode TV • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250919214105-404-1275671/video-jokowi-relawan-dukung-prabowo-gibran-2-periode</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45920.32714120371</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025-09-20 07:51:05+07:00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:32.489139+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jokowi Minta Relawan Dukung Prabowo-Gibran Dua Periode Nasional • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20250919144526-32-1275512/jokowi-minta-relawan-dukung-prabowo-gibran-dua-periode</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45919.63071759259</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025-09-19 15:08:14+07:00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:32.685223+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>KemenPU Komitmen Percepat Pembangunan SPPG untuk Dukung Program MBG Nasional • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20250918152717-25-1275128/kemenpu-komitmen-percepat-pembangunan-sppg-untuk-dukung-program-mbg</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45918.66530092592</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025-09-18 15:58:02+07:00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:32.818112+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>6 FOTO FOTO: KUR Jadi Senjata Prabowo Hadirkan Rumah untuk Rakyat Ekonomi • 1 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917130304-94-1274616/foto-kur-jadi-senjata-prabowo-hadirkan-rumah-untuk-rakyat</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45918.42890046296</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2025-09-18 10:17:37+07:00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:32.927543+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sekolah Rakyat Buka Jalan Mimpi Adelia di Tengah Hidup Penuh Ujian Nasional • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20250915115013-25-1273777/sekolah-rakyat-buka-jalan-mimpi-adelia-di-tengah-hidup-penuh-ujian</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
         <v>3</v>
       </c>
-      <c r="E119" s="2" t="n">
-        <v>45833.59407407408</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2025-06-25 14:15:28+07:00</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2025-09-29 09:33:10.561832+07:00</t>
+      <c r="E134" s="2" t="n">
+        <v>45915.50709490741</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025-09-15 12:10:13+07:00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:36.683019+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Video Prabowo Tayang di Bioskop, Ini Respons Komdigi Teknologi • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/teknologi/20250915103312-185-1273757/video-prabowo-tayang-di-bioskop-ini-respons-komdigi</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45915.44152777778</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:35:48+07:00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:36.896608+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>02:04 VIDEO: Istana Bantah Isu Pergantian Kapolri TV • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250915093954-400-1273728/video-istana-bantah-isu-pergantian-kapolri</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45915.40495370371</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:43:08+07:00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.083999+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>13:07 VIDEO: Presiden Prabowo Tinjau Korban Dampak Bencana TV • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250913133642-400-1273296/video-presiden-prabowo-tinjau-korban-dampak-bencana</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45913.63811342593</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025-09-13 15:18:53+07:00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.176557+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>02:00 VIDEO: Rapat Perdana Bahas Paket Ekonomi Usulan Presiden Prabowo TV • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250912211032-404-1273161/video-rapat-perdana-bahas-paket-ekonomi-usulan-presiden-prabowo</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45912.97998842593</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2025-09-12 23:31:11+07:00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.268365+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>12:49 VIDEO: Prabowo Janji Bentuk Komisi Khusus Reformasi Polri TV • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250912140756-405-1272976/video-prabowo-janji-bentuk-komisi-khusus-reformasi-polri</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45912.5912962963</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2025-09-12 14:11:28+07:00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.366985+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Prabowo Panggil Sejumlah Menteri ke Istana Siang Ini Nasional • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20250909145748-32-1271712/prabowo-panggil-sejumlah-menteri-ke-istana-siang-ini</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45909.62787037037</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2025-09-09 15:04:08+07:00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.546950+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>04:08 VIDEO: Mengawal Realisasi Janji Pemerintah TV • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250908223214-400-1271414/video-mengawal-realisasi-janji-pemerintah</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45908.94291666667</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025-09-08 22:37:48+07:00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.655027+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Dito Ariotedjo, Menteri Termuda di Dua Kabinet yang Kena Reshuffle Olahraga • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/olahraga/20250908153234-178-1271278/dito-ariotedjo-menteri-termuda-di-dua-kabinet-yang-kena-reshuffle</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45908.74635416667</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2025-09-08 17:54:45+07:00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.763687+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>04:48 VIDEO: Reshuffle Kabinet, Presiden Prabowo Lantik Menteri Baru TV • 2 minggu yang lalu</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20250908172753-400-1271330/video-reshuffle-kabinet-presiden-prabowo-lantik-menteri-baru</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45908.72938657407</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025-09-08 17:30:19+07:00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025-09-29 13:50:37.869599+07:00</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/cnn_links.xlsx
+++ b/daftar_berita/cnn_links.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Politik</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya</t>
+          <t>https://www.cnnindonesia.com/nasional/politik</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,24 +494,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45929.57583549956</v>
+        <v>45930.58307683017</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:12.187162+07:00</t>
+          <t>2025-09-30 13:59:37.838127+07:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Hukum &amp; Kriminal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/nasional/hukum-kriminal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,24 +523,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45929.57583733656</v>
+        <v>45930.58307778029</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:12.345879+07:00</t>
+          <t>2025-09-30 13:59:37.920217+07:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Politik</t>
+          <t>Peristiwa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/politik</t>
+          <t>https://www.cnnindonesia.com/nasional/peristiwa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,24 +552,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45929.57583874113</v>
+        <v>45930.58307937872</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:12.467233+07:00</t>
+          <t>2025-09-30 13:59:38.058321+07:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hukum &amp; Kriminal</t>
+          <t>Pemilu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/hukum-kriminal</t>
+          <t>https://www.cnnindonesia.com/nasional/pemilu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,24 +581,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45929.57584043257</v>
+        <v>45930.58309924925</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:12.613374+07:00</t>
+          <t>2025-09-30 13:59:39.775135+07:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Peristiwa</t>
+          <t>Info Politik</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/peristiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/info-politik</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,24 +610,24 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45929.57584156139</v>
+        <v>45930.583111364</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:12.710904+07:00</t>
+          <t>2025-09-30 13:59:40.821850+07:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pemilu</t>
+          <t>Asia Pasifik</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/pemilu</t>
+          <t>https://www.cnnindonesia.com/internasional/asia-pasifik</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,24 +639,24 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45929.57585116443</v>
+        <v>45930.58312225839</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:13.540607+07:00</t>
+          <t>2025-09-30 13:59:41.763125+07:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Info Politik</t>
+          <t>Timur Tengah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/info-politik</t>
+          <t>https://www.cnnindonesia.com/internasional/timur-tengah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,24 +668,24 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45929.57585240466</v>
+        <v>45930.58312344328</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:13.647763+07:00</t>
+          <t>2025-09-30 13:59:41.865499+07:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Asia Pasifik</t>
+          <t>Eropa Amerika</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/asia-pasifik</t>
+          <t>https://www.cnnindonesia.com/internasional/eropa-amerika</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,24 +697,24 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45929.57585386482</v>
+        <v>45930.58312454046</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:13.773920+07:00</t>
+          <t>2025-09-30 13:59:41.960296+07:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Timur Tengah</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/timur-tengah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/keuangan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,24 +726,24 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45929.575854955</v>
+        <v>45930.58312612294</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:13.868112+07:00</t>
+          <t>2025-09-30 13:59:42.097022+07:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eropa Amerika</t>
+          <t>Energi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/eropa-amerika</t>
+          <t>https://www.cnnindonesia.com/ekonomi/energi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,24 +755,24 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45929.5758560506</v>
+        <v>45930.58312744622</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:13.962772+07:00</t>
+          <t>2025-09-30 13:59:42.211353+07:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Bisnis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/keuangan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/bisnis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -784,24 +784,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45929.57585816349</v>
+        <v>45930.58312834526</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.145325+07:00</t>
+          <t>2025-09-30 13:59:42.289031+07:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Energi</t>
+          <t>Corporate Action</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/energi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/corporate-action</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,24 +813,24 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45929.57585951052</v>
+        <v>45930.58313004165</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.261709+07:00</t>
+          <t>2025-09-30 13:59:42.435598+07:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bisnis</t>
+          <t>Sepakbola</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/bisnis</t>
+          <t>https://www.cnnindonesia.com/olahraga/sepakbola</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -842,24 +842,24 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45929.57586039833</v>
+        <v>45930.58313141756</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.338416+07:00</t>
+          <t>2025-09-30 13:59:42.554477+07:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Corporate Action</t>
+          <t>Moto GP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/corporate-action</t>
+          <t>https://www.cnnindonesia.com/olahraga/moto-gp</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -871,24 +871,24 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45929.57586173688</v>
+        <v>45930.58313275125</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.454067+07:00</t>
+          <t>2025-09-30 13:59:42.669708+07:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sepakbola</t>
+          <t>Teknologi Informasi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/olahraga/sepakbola</t>
+          <t>https://www.cnnindonesia.com/teknologi/teknologi-informasi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -900,24 +900,24 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45929.57586272105</v>
+        <v>45930.58314206067</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.539098+07:00</t>
+          <t>2025-09-30 13:59:43.474042+07:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moto GP</t>
+          <t>Telekomunikasi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/olahraga/moto-gp</t>
+          <t>https://www.cnnindonesia.com/teknologi/telekomunikasi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -929,24 +929,24 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45929.57586422905</v>
+        <v>45930.58314735845</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.669390+07:00</t>
+          <t>2025-09-30 13:59:43.931770+07:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Teknologi Informasi</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/teknologi-informasi</t>
+          <t>https://www.cnnindonesia.com/teknologi/climate</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -958,24 +958,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45929.57586559607</v>
+        <v>45930.58314917929</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.787501+07:00</t>
+          <t>2025-09-30 13:59:44.089090+07:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Telekomunikasi</t>
+          <t>E-Vehicle</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/telekomunikasi</t>
+          <t>https://www.cnnindonesia.com/otomotif/e-vehicle</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -987,24 +987,24 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45929.57586701596</v>
+        <v>45930.58315115933</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:14.910179+07:00</t>
+          <t>2025-09-30 13:59:44.260166+07:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/teknologi/climate</t>
+          <t>https://www.cnnindonesia.com/otomotif/commercial</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1016,24 +1016,24 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45929.57586886626</v>
+        <v>45930.58315257248</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.070045+07:00</t>
+          <t>2025-09-30 13:59:44.382262+07:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E-Vehicle</t>
+          <t>Info Otomotif</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/e-vehicle</t>
+          <t>https://www.cnnindonesia.com/otomotif/info-otomotif</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1045,24 +1045,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45929.5758703898</v>
+        <v>45930.58315664971</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.201679+07:00</t>
+          <t>2025-09-30 13:59:44.734535+07:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Seni Budaya</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/commercial</t>
+          <t>https://www.cnnindonesia.com/hiburan/seni-budaya</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1074,24 +1074,24 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45929.5758718775</v>
+        <v>45930.58315812144</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.330216+07:00</t>
+          <t>2025-09-30 13:59:44.861693+07:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Info Otomotif</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/otomotif/info-otomotif</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/health</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1103,24 +1103,24 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45929.57587396229</v>
+        <v>45930.58315958521</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.510342+07:00</t>
+          <t>2025-09-30 13:59:44.988162+07:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Seni Budaya</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/hiburan/seni-budaya</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/travel</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1132,24 +1132,24 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45929.57587463331</v>
+        <v>45930.58316106819</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.568318+07:00</t>
+          <t>2025-09-30 13:59:45.116291+07:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Trends</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/health</t>
+          <t>https://www.cnnindonesia.com/gaya-hidup/trends</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1161,24 +1161,24 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45929.57587594834</v>
+        <v>45930.58316294674</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.681937+07:00</t>
+          <t>2025-09-30 13:59:45.278598+07:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Purbaya Ditagih Subsidi BBM &amp; Listrik: Sudah Bayar, Nyangkut di Mana? Ekonomi • 1 jam yang lalu</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/travel</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250930113947-532-1279185/purbaya-ditagih-subsidi-bbm-listrik-sudah-bayar-nyangkut-di-mana</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1190,24 +1190,28 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45929.57587760225</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>45930.51893518519</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-09-30 12:27:16+07:00</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.824834+07:00</t>
+          <t>2025-09-30 13:59:45.360659+07:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Trends</t>
+          <t>Purbaya Tiba-tiba Sidak Kantor BNI, Nimbrung Rapat Direksi Ekonomi • 23 jam yang lalu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/trends</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929134914-532-1278863/purbaya-tiba-tiba-sidak-kantor-bni-nimbrung-rapat-direksi</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1219,19 +1223,23 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45929.57587923182</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>45929.594375</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-09-29 14:15:54+07:00</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:15.965629+07:00</t>
+          <t>2025-09-30 13:59:45.437432+07:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 3 hari yang lalu</t>
+          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 4 hari yang lalu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1257,14 +1265,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:16.400408+07:00</t>
+          <t>2025-09-30 13:59:45.511698+07:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 3 hari yang lalu</t>
+          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 4 hari yang lalu</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1290,14 +1298,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:16.532472+07:00</t>
+          <t>2025-09-30 13:59:45.634127+07:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 5 hari yang lalu</t>
+          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 6 hari yang lalu</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1323,14 +1331,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:16.671944+07:00</t>
+          <t>2025-09-30 13:59:45.767947+07:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 5 hari yang lalu</t>
+          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 6 hari yang lalu</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1356,14 +1364,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:16.795449+07:00</t>
+          <t>2025-09-30 13:59:45.981900+07:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 6 hari yang lalu</t>
+          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1389,14 +1397,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:16.928772+07:00</t>
+          <t>2025-09-30 13:59:46.443500+07:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 6 hari yang lalu</t>
+          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1422,14 +1430,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:17.058844+07:00</t>
+          <t>2025-09-30 13:59:46.648447+07:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 6 hari yang lalu</t>
+          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1455,7 +1463,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:17.217453+07:00</t>
+          <t>2025-09-30 13:59:46.800515+07:00</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1496,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:17.421507+07:00</t>
+          <t>2025-09-30 13:59:47.019589+07:00</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1517,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>45919.59828703704</v>
@@ -1521,7 +1529,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:17.646689+07:00</t>
+          <t>2025-09-30 13:59:53.969852+07:00</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1550,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>45918.65365740741</v>
@@ -1554,19 +1562,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:17.831323+07:00</t>
+          <t>2025-09-30 13:59:54.311565+07:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D2</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1578,24 +1586,28 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45929.5759179106</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
+        <v>45917.52737268519</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-09-17 12:39:25+07:00</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:19.307476+07:00</t>
+          <t>2025-09-30 13:59:54.971167+07:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fpurbaya%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1607,24 +1619,28 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45929.57591820824</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
+        <v>45917.45146990741</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-09-17 10:50:07+07:00</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:19.333192+07:00</t>
+          <t>2025-09-30 13:59:55.110854+07:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
+          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
+          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1636,28 +1652,28 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45917.52737268519</v>
+        <v>45916.46927083333</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-17 12:39:25+07:00</t>
+          <t>2025-09-16 11:15:45+07:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:26.477062+07:00</t>
+          <t>2025-09-30 13:59:55.425853+07:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1669,28 +1685,28 @@
         <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45917.45146990741</v>
+        <v>45915.87552083333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-17 10:50:07+07:00</t>
+          <t>2025-09-15 21:00:45+07:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:26.620356+07:00</t>
+          <t>2025-09-30 13:59:55.655093+07:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 1 minggu yang lalu</t>
+          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1702,28 +1718,28 @@
         <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45916.46927083333</v>
+        <v>45915.79498842593</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-16 11:15:45+07:00</t>
+          <t>2025-09-15 19:04:47+07:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:26.758398+07:00</t>
+          <t>2025-09-30 13:59:55.886448+07:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1735,28 +1751,28 @@
         <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45915.87552083333</v>
+        <v>45915.79400462963</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-15 21:00:45+07:00</t>
+          <t>2025-09-15 19:03:22+07:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:26.998433+07:00</t>
+          <t>2025-09-30 13:59:56.748585+07:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 1 minggu yang lalu</t>
+          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
+          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1768,28 +1784,28 @@
         <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45915.79498842593</v>
+        <v>45914.57866898148</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-15 19:04:47+07:00</t>
+          <t>2025-09-14 13:53:17+07:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:27.904633+07:00</t>
+          <t>2025-09-30 13:59:56.952045+07:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 1 minggu yang lalu</t>
+          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1801,28 +1817,28 @@
         <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45915.79400462963</v>
+        <v>45913.34037037037</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-15 19:03:22+07:00</t>
+          <t>2025-09-13 08:10:08+07:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:29.443940+07:00</t>
+          <t>2025-09-30 13:59:57.064385+07:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
+          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1831,31 +1847,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45914.57866898148</v>
+        <v>45911.80748842593</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-14 13:53:17+07:00</t>
+          <t>2025-09-11 19:22:47+07:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:29.953365+07:00</t>
+          <t>2025-09-30 14:00:05.202763+07:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
+          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1864,31 +1880,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45913.34037037037</v>
+        <v>45911.50540509259</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-13 08:10:08+07:00</t>
+          <t>2025-09-11 12:07:47+07:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:30.876457+07:00</t>
+          <t>2025-09-30 14:00:05.419915+07:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
+          <t>04:19 VIDEO: Rapat Perdana Menkeu Purbaya Dicecar Komisi XI DPR TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
+          <t>https://www.cnnindonesia.com/tv/20250911092357-400-1272431/video-rapat-perdana-menkeu-purbaya-dicecar-komisi-xi-dpr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1897,31 +1913,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45911.80748842593</v>
+        <v>45911.39340277778</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-11 19:22:47+07:00</t>
+          <t>2025-09-11 09:26:30+07:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:31.029927+07:00</t>
+          <t>2025-09-30 14:00:05.579993+07:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
+          <t>Serapan Anggaran Rendah, Purbaya Minta Bos BGN Jumpa Pers Tiap Bulan Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910180046-532-1272257/serapan-anggaran-rendah-purbaya-minta-bos-bgn-jumpa-pers-tiap-bulan</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1930,31 +1946,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45911.50540509259</v>
+        <v>45910.84768518519</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-11 12:07:47+07:00</t>
+          <t>2025-09-10 20:20:40+07:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:31.162696+07:00</t>
+          <t>2025-09-30 14:00:05.884085+07:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04:19 VIDEO: Rapat Perdana Menkeu Purbaya Dicecar Komisi XI DPR TV • 2 minggu yang lalu</t>
+          <t>00:55 VIDEO: Purbaya Tanya Balik DPR soal Warisan Masalah Fiskal dan Moneter Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250911092357-400-1272431/video-rapat-perdana-menkeu-purbaya-dicecar-komisi-xi-dpr</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910175630-536-1272255/video-purbaya-tanya-balik-dpr-soal-warisan-masalah-fiskal-dan-moneter</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1966,28 +1982,28 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45911.39340277778</v>
+        <v>45910.76162037037</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-11 09:26:30+07:00</t>
+          <t>2025-09-10 18:16:44+07:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:35.764742+07:00</t>
+          <t>2025-09-30 14:00:06.402637+07:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serapan Anggaran Rendah, Purbaya Minta Bos BGN Jumpa Pers Tiap Bulan Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya Sebut Rp425 T Mengendap di BI: Makanya Orang Susah Cari Kerja Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910180046-532-1272257/serapan-anggaran-rendah-purbaya-minta-bos-bgn-jumpa-pers-tiap-bulan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910160549-532-1272212/purbaya-sebut-rp425-t-mengendap-di-bi-makanya-orang-susah-cari-kerja</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1999,3044 +2015,1122 @@
         <v>3</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45910.84768518519</v>
+        <v>45910.70972222222</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-10 20:20:40+07:00</t>
+          <t>2025-09-10 17:02:00+07:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:35.904621+07:00</t>
+          <t>2025-09-30 14:00:06.522480+07:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00:55 VIDEO: Purbaya Tanya Balik DPR soal Warisan Masalah Fiskal dan Moneter Ekonomi • 2 minggu yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910175630-536-1272255/video-purbaya-tanya-balik-dpr-soal-warisan-masalah-fiskal-dan-moneter</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>purbaya</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45910.76162037037</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-09-10 18:16:44+07:00</t>
-        </is>
-      </c>
+        <v>45930.58370850679</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:36.034625+07:00</t>
+          <t>2025-09-30 14:00:32.414987+07:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Rp425 T Mengendap di BI: Makanya Orang Susah Cari Kerja Ekonomi • 2 minggu yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910160549-532-1272212/purbaya-sebut-rp425-t-mengendap-di-bi-makanya-orang-susah-cari-kerja</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>purbaya</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45910.70972222222</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-09-10 17:02:00+07:00</t>
-        </is>
-      </c>
+        <v>45930.58370910274</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:36.230959+07:00</t>
+          <t>2025-09-30 14:00:32.466477+07:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Prabowo Sebut Kasus Keracunan MBG Hanya 0,00017 Persen di Indonesia Nasional • 26 menit yang lalu</t>
+          <t>Wamenperin Sambut Cukai Rokok Tak Naik Tahun Depan Ekonomi • 17 jam yang lalu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929130549-20-1278839/prabowo-sebut-kasus-keracunan-mbg-hanya-000017-persen-di-indonesia</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929190728-92-1279006/wamenperin-sambut-cukai-rokok-tak-naik-tahun-depan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45929.55806712963</v>
+        <v>45929.83392361111</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-29 13:23:37+07:00</t>
+          <t>2025-09-29 20:00:51+07:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:41.369762+07:00</t>
+          <t>2025-09-30 14:00:38.729141+07:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Punya Aduan soal Pelaksanaan MBG? Lapor ke Nomor Ini Ekonomi • 1 jam yang lalu</t>
+          <t>5 Gebrakan Menkeu Purbaya Sepekan Terakhir, Apa Saja? Ekonomi • 3 hari yang lalu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250929120249-92-1278820/punya-aduan-soal-pelaksanaan-mbg-lapor-ke-nomor-ini</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250927110900-532-1278313/5-gebrakan-menkeu-purbaya-sepekan-terakhir-apa-saja</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45929.52299768518</v>
+        <v>45927.48328703704</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-29 12:33:07+07:00</t>
+          <t>2025-09-27 11:35:56+07:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:41.483382+07:00</t>
+          <t>2025-09-30 14:00:38.907748+07:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Menyoal Bahaya Salmonella, Bakteri Penyebab Keracunan MBG di Bandung Gaya Hidup • 3 jam yang lalu</t>
+          <t>Guyon Purbaya ke Produsen Rokok soal Cukai: Tadinya Saya Mau Turunin Ekonomi • 3 hari yang lalu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/20250929101604-255-1278762/menyoal-bahaya-salmonella-bakteri-penyebab-keracunan-mbg-di-bandung</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926205812-532-1278240/guyon-purbaya-ke-produsen-rokok-soal-cukai-tadinya-saya-mau-turunin</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45929.44813657407</v>
+        <v>45927.30621527778</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-29 10:45:19+07:00</t>
+          <t>2025-09-27 07:20:57+07:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:41.578750+07:00</t>
+          <t>2025-09-30 14:00:39.067203+07:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Redaksi CNN Datangi Istana, Tanya Alasan Pencabutan ID Liputan Nasional • 3 jam yang lalu</t>
+          <t>Purbaya Pastikan Cukai Rokok Tak Naik pada 2026 Ekonomi • 3 hari yang lalu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929094600-20-1278736/redaksi-cnn-datangi-istana-tanya-alasan-pencabutan-id-liputan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250926145103-532-1278067/purbaya-pastikan-cukai-rokok-tak-naik-pada-2026</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45929.41222222222</v>
+        <v>45926.64070601852</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-29 09:53:36+07:00</t>
+          <t>2025-09-26 15:22:37+07:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:41.663372+07:00</t>
+          <t>2025-09-30 14:00:39.302409+07:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MBG di SMAN 1 Tulungagung Dihentikan Tiba-tiba, Penyebab Tak Diketahui Nasional • 4 jam yang lalu</t>
+          <t>Purbaya Akan Panggil Perusahaan Rokok Bahas Tarif Cukai Pekan Ini Ekonomi • 4 hari yang lalu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929085242-20-1278714/mbg-di-sman-1-tulungagung-dihentikan-tiba-tiba-penyebab-tak-diketahui</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250925181630-532-1277774/purbaya-akan-panggil-perusahaan-rokok-bahas-tarif-cukai-pekan-ini</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45929.38796296297</v>
+        <v>45925.87561342592</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-29 09:18:40+07:00</t>
+          <t>2025-09-25 21:00:53+07:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:41.757680+07:00</t>
+          <t>2025-09-30 14:00:39.505425+07:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BGN Tegaskan Pemerintah Tanggung Biaya Pasien Keracunan MBG Ekonomi • 4 jam yang lalu</t>
+          <t>Kemenkeu-DPR Sepakat Cukai Minuman Berpemanis Mulai Berlaku 2026 Ekonomi • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250929090331-92-1278712/bgn-tegaskan-pemerintah-tanggung-biaya-pasien-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250822192525-532-1265442/kemenkeu-dpr-sepakat-cukai-minuman-berpemanis-mulai-berlaku-2026</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45929.38341435185</v>
+        <v>45891.81892361111</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-29 09:12:07+07:00</t>
+          <t>2025-08-22 19:39:15+07:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:41.898273+07:00</t>
+          <t>2025-09-30 14:00:40.801920+07:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>03:35 VIDEO: Poin-poin Hasil Rapat Penanggulangan Keracunan MBG TV • 5 jam yang lalu</t>
+          <t>Sri Mulyani Cari Sumber Pungutan Cukai Baru Demi Raih Rp3.147 T Ekonomi • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250929082856-400-1278707/video-poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250815183454-78-1262991/sri-mulyani-cari-sumber-pungutan-cukai-baru-demi-raih-rp3147-t</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45929.3552199074</v>
+        <v>45884.78</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-29 08:31:31+07:00</t>
+          <t>2025-08-15 18:43:12+07:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:41.996280+07:00</t>
+          <t>2025-09-30 14:00:41.003900+07:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Siswa Diduga Keracunan hingga 4 Sekolah Tolak MBG Bau di Jember Nasional • 6 jam yang lalu</t>
+          <t>Makanan Asin Bakal Kena Cukai, Berlaku Tahun Ini? Ekonomi • 1 bulan yang lalu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929070533-20-1278692/siswa-diduga-keracunan-hingga-4-sekolah-tolak-mbg-bau-di-jember</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250807130143-532-1259799/makanan-asin-bakal-kena-cukai-berlaku-tahun-ini</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45929.32153935185</v>
+        <v>45876.55925925926</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-29 07:43:01+07:00</t>
+          <t>2025-08-07 13:25:20+07:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:42.083458+07:00</t>
+          <t>2025-09-30 14:00:41.330149+07:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Respons Purbaya soal BGN Minta Tambah Anggaran MBG Rp28 T Ekonomi • 6 jam yang lalu</t>
+          <t>Bos Bea Cukai Klaim Cegah Bocor Rp3,9 T dari Rokok hingga HP Ilegal Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250929071153-532-1278693/respons-purbaya-soal-bgn-minta-tambah-anggaran-mbg-rp28-t</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250714174852-532-1250597/bos-bea-cukai-klaim-cegah-bocor-rp39-t-dari-rokok-hingga-hp-ilegal</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45929.3096412037</v>
+        <v>45854.60618055556</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-29 07:25:53+07:00</t>
+          <t>2025-07-16 14:32:54+07:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:42.153826+07:00</t>
+          <t>2025-09-30 14:00:41.474903+07:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Poin-poin Hasil Rapat Penanggulangan Keracunan MBG Nasional • 6 jam yang lalu</t>
+          <t>Djaka Budhi Langsung Naik Haji Usai Dilantik Jadi Dirjen Bea Cukai Ekonomi • 4 bulan yang lalu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928191547-20-1278640/poin-poin-hasil-rapat-penanggulangan-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250523173254-532-1232560/djaka-budhi-langsung-naik-haji-usai-dilantik-jadi-dirjen-bea-cukai</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45929.29892361111</v>
+        <v>45800.74012731481</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-29 07:10:27+07:00</t>
+          <t>2025-05-23 17:45:47+07:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:42.248581+07:00</t>
+          <t>2025-09-30 14:00:41.702932+07:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Istana Cabut Kartu Jurnalis CNN Indonesia Usai Tanya MBG ke Prabowo Nasional • 6 jam yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250929061312-20-1278685/istana-cabut-kartu-jurnalis-cnn-indonesia-usai-tanya-mbg-ke-prabowo</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai%3Fpage%3D2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>2</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45929.29309027778</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2025-09-29 07:02:03+07:00</t>
-        </is>
-      </c>
+        <v>45930.58383714348</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:47.406339+07:00</t>
+          <t>2025-09-30 14:00:43.529197+07:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Prabowo Panggil Menteri ke Kertanegara Minggu Malam, Bahas MBG-Pangan Nasional • 15 jam yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928223005-32-1278654/prabowo-panggil-menteri-ke-kertanegara-minggu-malam-bahas-mbg-pangan</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>2</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45928.94276620371</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2025-09-28 22:37:35+07:00</t>
-        </is>
-      </c>
+        <v>45930.58383808484</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:47.530827+07:00</t>
+          <t>2025-09-30 14:00:43.610530+07:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kemenkes Bakal Kerahkan Ahli Gizi Pantau Program MBG Nasional • 19 jam yang lalu</t>
+          <t>Pejabat BIN Dikabarkan Akan Diangkat Jadi Bos Bea Cukai Ekonomi • 4 bulan yang lalu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928183036-20-1278632/kemenkes-bakal-kerahkan-ahli-gizi-pantau-program-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250519161716-92-1230820/pejabat-bin-dikabarkan-akan-diangkat-jadi-bos-bea-cukai</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45928.78105324074</v>
+        <v>45796.71143518519</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-28 18:44:43+07:00</t>
+          <t>2025-05-19 17:04:28+07:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:47.714381+07:00</t>
+          <t>2025-09-30 14:00:49.230614+07:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Menkes Sebut Standar Dapur dan Kontrol Bahan MBG Bakal Diperketat Nasional • 20 jam yang lalu</t>
+          <t>Kemenkeu Pastikan Motor dan Batu Bara Tidak Kena Cukai Ekonomi • 4 bulan yang lalu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928165705-20-1278607/menkes-sebut-standar-dapur-dan-kontrol-bahan-mbg-bakal-diperketat</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250430184900-532-1224448/kemenkeu-pastikan-motor-dan-batu-bara-tidak-kena-cukai</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45928.72278935185</v>
+        <v>45777.80047453703</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-28 17:20:49+07:00</t>
+          <t>2025-04-30 19:12:41+07:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:47.843912+07:00</t>
+          <t>2025-09-30 14:00:49.380030+07:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01:56 VIDEO: Prabowo Instruksikan Investigasi-Penutupan SPPG MBG Bermasalah Nasional • 21 jam yang lalu</t>
+          <t>Peredaran Rokok Ilegal Masih Marak, 752 Juta Batang Diamankan 2024 Ekonomi • 5 bulan yang lalu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250928154704-24-1278598/video-prabowo-instruksikan-investigasi-penutupan-sppg-mbg-bermasalah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250417075106-532-1219649/peredaran-rokok-ilegal-masih-marak-752-juta-batang-diamankan-2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45928.68098379629</v>
+        <v>45764.43641203704</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-28 16:20:37+07:00</t>
+          <t>2025-04-17 10:28:26+07:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:47.961218+07:00</t>
+          <t>2025-09-30 14:00:49.581354+07:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>01:36 VIDEO: DItanya Jurnalis CNN Soal MBG, Prabowo Langsung Balik Lagi TV • 21 jam yang lalu</t>
+          <t>Siap-siap, 'Teh Botol' Cs Kena Cukai Mulai Pertengahan 2025 Ekonomi • 8 bulan yang lalu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928155057-404-1278599/video-ditanya-jurnalis-cnn-soal-mbg-prabowo-langsung-balik-lagi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250110185004-532-1185939/siap-siap-teh-botol-cs-kena-cukai-mulai-pertengahan-2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45928.67052083334</v>
+        <v>45667.79155092593</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-28 16:05:33+07:00</t>
+          <t>2025-01-10 18:59:50+07:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:48.061922+07:00</t>
+          <t>2025-09-30 14:00:49.847047+07:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bos BGN Lapor Prabowo Penyebab Marak Kasus Keracunan MBG Ekonomi • 21 jam yang lalu</t>
+          <t>OECD Sebut Penerimaan Pajak RI Terendah di Asean Ekonomi • 10 bulan yang lalu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250928153947-92-1278597/bos-bgn-lapor-prabowo-penyebab-marak-kasus-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20241128123525-92-1171621/oecd-sebut-penerimaan-pajak-ri-terendah-di-asean</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45928.66037037037</v>
+        <v>45625.47125</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-28 15:50:56+07:00</t>
+          <t>2024-11-29 11:18:36+07:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:48.231485+07:00</t>
+          <t>2025-09-30 14:00:50.138959+07:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:57 VIDEO: Siswa SD Tolak Makan Bergizi Gratis, Ulat Ditemukan di Menu MBG TV • 23 jam yang lalu</t>
+          <t>Kemenkeu Pastikan Cukai Rokok Tak Naik di 2025 Ekonomi • 10 bulan yang lalu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928132509-404-1278536/video-siswa-sd-tolak-makan-bergizi-gratis-ulat-ditemukan-di-menu-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20241122111330-532-1169450/kemenkeu-pastikan-cukai-rokok-tak-naik-di-2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45928.58023148148</v>
+        <v>45618.53159722222</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-28 13:55:32+07:00</t>
+          <t>2024-11-22 12:45:30+07:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:48.317443+07:00</t>
+          <t>2025-09-30 14:00:50.564331+07:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>02:36 VIDEO: DPR Soroti Dugaan Mafia di Balik Program Makan Bergizi Gratis TV • 1 hari yang lalu</t>
+          <t>Kemenkeu Incar Pendapatan Rp3,8 T dari Cukai Minuman Berpemanis 2025 Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250928091714-404-1278493/video-dpr-soroti-dugaan-mafia-di-balik-program-makan-bergizi-gratis</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240926122328-532-1148593/kemenkeu-incar-pendapatan-rp38-t-dari-cukai-minuman-berpemanis-2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45928.43020833333</v>
+        <v>45561.78247685185</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-28 10:19:30+07:00</t>
+          <t>2024-09-26 18:46:46+07:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:48.414696+07:00</t>
+          <t>2025-09-30 14:00:50.838317+07:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ribuan Kasus Keracunan MBG, Dokter Gizi Soroti Masalah Kebersihan Gaya Hidup • 1 hari yang lalu</t>
+          <t>Kemenkeu Tunggu Review Tim Prabowo soal Cukai Rokok 2025 Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/gaya-hidup/20250925134544-255-1277617/ribuan-kasus-keracunan-mbg-dokter-gizi-soroti-masalah-kebersihan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240923174837-532-1147411/kemenkeu-tunggu-review-tim-prabowo-soal-cukai-rokok-2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45927.81299768519</v>
+        <v>45558.8559837963</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-27 19:30:43+07:00</t>
+          <t>2024-09-23 20:32:37+07:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:48.582323+07:00</t>
+          <t>2025-09-30 14:00:51.122479+07:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>01:18 VIDEO: Prabowo Sebut Keracunan MBG Masalah Besar, Panggil Kepala BGN Nasional • 1 hari yang lalu</t>
+          <t>Menperin Kaji Insentif ke Produsen Jika Minuman Berpemanis Kena Cukai Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927161919-24-1278403/video-prabowo-sebut-keracunan-mbg-masalah-besar-panggil-kepala-bgn</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240912153343-92-1143859/menperin-kaji-insentif-ke-produsen-jika-minuman-berpemanis-kena-cukai</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45927.70511574074</v>
+        <v>45547.7283912037</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-27 16:55:22+07:00</t>
+          <t>2024-09-12 17:28:53+07:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:52.486575+07:00</t>
+          <t>2025-09-30 14:00:51.355390+07:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MBG Telan Rp1,2 T per Hari Mulai Tahun Depan Ekonomi • 1 hari yang lalu</t>
+          <t>Produsen Rokok Pamer Cukai Tembakau Lebih Besar dari Dividen BUMN Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926202814-92-1278234/mbg-telan-rp12-t-per-hari-mulai-tahun-depan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240911190149-92-1143550/produsen-rokok-pamer-cukai-tembakau-lebih-besar-dari-dividen-bumn</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45927.60428240741</v>
+        <v>45547.48612268519</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-27 14:30:10+07:00</t>
+          <t>2024-09-12 11:40:01+07:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:52.566574+07:00</t>
+          <t>2025-09-30 14:00:51.544121+07:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04:29 VIDEO: Penyajian MBG Untuk Anak Terlantar Bisa Jadi Contoh TV • 1 hari yang lalu</t>
+          <t>ANALISIS Bisakah Lonjakan Diabetes di RI Direm dengan Cukai Minuman Berpemanis? Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250927104127-404-1278307/video-penyajian-mbg-untuk-anak-terlantar-bisa-jadi-contoh</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240830062427-532-1139209/bisakah-lonjakan-diabetes-di-ri-direm-dengan-cukai-minuman-berpemanis</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>3</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45927.57934027778</v>
+        <v>45534.30251157407</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-27 13:54:15+07:00</t>
+          <t>2024-08-30 07:15:37+07:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:52.730407+07:00</t>
+          <t>2025-09-30 14:01:01.051898+07:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>03:18 VIDEO: Kasus Keracunan MBG, IDAI Beri Tips Pencegahan dan Penanganan TV • 2 hari yang lalu</t>
+          <t>Diabetes Anak Melesat, Sri Mulyani Ingin Cukai Minuman Manis Jalan Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212258-404-1278248/video-kasus-keracunan-mbg-idai-beri-tips-pencegahan-dan-penanganan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240828143925-532-1138588/diabetes-anak-melesat-sri-mulyani-ingin-cukai-minuman-manis-jalan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>3</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45927.48122685185</v>
+        <v>45532.62947916667</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-27 11:32:58+07:00</t>
+          <t>2024-08-28 15:06:27+07:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:52.836526+07:00</t>
+          <t>2025-09-30 14:01:02.513554+07:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cerita Kepala Sekolah Diminta Teken Surat Rahasiakan Keracunan MBG Nasional • 2 hari yang lalu</t>
+          <t>10 Barang Terbaru yang Terancam Kena Cukai Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927100421-20-1278291/cerita-kepala-sekolah-diminta-teken-surat-rahasiakan-keracunan-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240801124009-532-1128025/10-barang-terbaru-yang-terancam-kena-cukai</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>3</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45927.4416087963</v>
+        <v>45505.53304398148</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-27 10:35:55+07:00</t>
+          <t>2024-08-01 12:47:35+07:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:52.909425+07:00</t>
+          <t>2025-09-30 14:01:03.495621+07:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>01:29 VIDEO: Purnawirawan TNI Dominasi Pejabat Badan Gizi Nasional TV • 2 hari yang lalu</t>
+          <t>Bos DJBC soal Makanan Siap Saji Akan Kena Cukai: Ada Mekanismenya Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212301-404-1278250/video-purnawirawan-tni-dominasi-pejabat-badan-gizi-nasional</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240730140951-532-1127160/bos-djbc-soal-makanan-siap-saji-akan-kena-cukai-ada-mekanismenya</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45927.43959490741</v>
+        <v>45504.58365740741</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-27 10:33:01+07:00</t>
+          <t>2024-07-31 14:00:28+07:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:53.022123+07:00</t>
+          <t>2025-09-30 14:01:03.800795+07:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Purbaya Bakal Kerahkan Anak Buah Kawal MBG Ekonomi • 2 hari yang lalu</t>
+          <t>Jokowi Incar Cukai Makanan Olahan Pedagang Kaki Lima hingga Restoran Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926203850-532-1278235/purbaya-bakal-kerahkan-anak-buah-kawal-mbg</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240730183119-532-1127310/jokowi-incar-cukai-makanan-olahan-pedagang-kaki-lima-hingga-restoran</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>3</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45927.42414351852</v>
+        <v>45503.81619212963</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-27 10:10:46+07:00</t>
+          <t>2024-07-30 19:35:19+07:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:54.936435+07:00</t>
+          <t>2025-09-30 14:01:04.001283+07:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7 Daerah yang Alami Keracunan MBG Versi BGN Nasional • 2 hari yang lalu</t>
+          <t>Sah, Makanan Olahan Bisa Kena Cukai Demi Batasi Gula - Lemak Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250927081552-20-1278281/7-daerah-yang-alami-keracunan-mbg-versi-bgn</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240730154743-532-1127200/sah-makanan-olahan-bisa-kena-cukai-demi-batasi-gula-lemak</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>3</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45927.35458333333</v>
+        <v>45503.6910300926</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-27 08:30:36+07:00</t>
+          <t>2024-07-30 16:35:05+07:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:55.088187+07:00</t>
+          <t>2025-09-30 14:01:04.720934+07:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04:57 VIDEO: Penyebab Keracunan MBG Bakal Dipidana TV • 2 hari yang lalu</t>
+          <t>PP Kesehatan: Iklan Makanan Olahan Kadar Gula Tinggi Bisa Dilarang Nasional • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250926212255-404-1278244/video-penyebab-keracunan-mbg-bakal-dipidana</t>
+          <t>https://www.cnnindonesia.com/nasional/20240730111338-20-1127068/pp-kesehatan-iklan-makanan-olahan-kadar-gula-tinggi-bisa-dilarang</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>3</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45927.33744212963</v>
+        <v>45503.48596064815</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-27 08:05:55+07:00</t>
+          <t>2024-07-30 11:39:47+07:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:55.176008+07:00</t>
+          <t>2025-09-30 14:01:05.180287+07:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BGN Minta Maaf Usai Ribuan Anak Keracunan MBG, Nanik Deyang Menangis Nasional • 2 hari yang lalu</t>
+          <t>Penjelasan DJBC soal Kabar Rumah, Tiket Konser, Tisu Akan Kena Cukai Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20250926200143-20-1278227/bgn-minta-maaf-usai-ribuan-anak-keracunan-mbg-nanik-deyang-menangis</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240725133113-532-1125428/penjelasan-djbc-soal-kabar-rumah-tiket-konser-tisu-akan-kena-cukai</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>3</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45927.28493055556</v>
+        <v>45498.83349537037</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-27 06:50:18+07:00</t>
+          <t>2024-07-25 20:00:14+07:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:55.754940+07:00</t>
+          <t>2025-09-30 14:01:05.423177+07:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Wacana Pengenaan Cukai Diperluas: Tiket Konser, Tisu hingga Detergen Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240724154738-532-1125056/wacana-pengenaan-cukai-diperluas-tiket-konser-tisu-hingga-detergen</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>koperasi merah putih</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45929.57635818094</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+        <v>45497.66765046296</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-07-24 16:01:25+07:00</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:57.346833+07:00</t>
+          <t>2025-09-30 14:01:06.213275+07:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Zulhas Curhat Dilema Industri Rokok, Duit Cukai Tinggi Tapi Tak Sehat Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fkoperasi-merah-putih&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240529174637-92-1103469/zulhas-curhat-dilema-industri-rokok-duit-cukai-tinggi-tapi-tak-sehat</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>koperasi merah putih</t>
+          <t>cukai</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45929.57635887742</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
+        <v>45441.86556712963</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-05-29 20:46:25+07:00</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-09-29 13:49:57.407009+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>01:30 VIDEO: Gantikan Budi Arie, Menkop Ferry Akan Kebut UU Koperasi TV • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250909120847-400-1271613/video-gantikan-budi-arie-menkop-ferry-akan-kebut-uu-koperasi</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>45909.52822916667</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-09-09 12:40:39+07:00</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:02.274212+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>01:58 VIDEO: AHY Resmikan Koperasi Merah Putih di Madiun TV • 1 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250822212231-400-1265480/video-ahy-resmikan-koperasi-merah-putih-di-madiun</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="n">
-        <v>45892.48091435185</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-08-23 11:32:31+07:00</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:02.376906+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Surabaya Siap Luncurkan Ratusan Gerai Koperasi Merah Putih Ekonomi • 1 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250815201448-92-1263024/surabaya-siap-luncurkan-ratusan-gerai-koperasi-merah-putih</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>45884.84608796296</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2025-08-15 20:18:22+07:00</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:02.583465+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>01:42 VIDEO: Menag Harap Badan Wakaf Jadi Motor Ekonomi TV • 1 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250808135013-400-1260301/video-menag-harap-badan-wakaf-jadi-motor-ekonomi</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>45877.62711805556</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025-08-08 15:03:03+07:00</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:02.712836+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Mendes: Dana Desa Bukan Jaminan Pinjaman Kopdes Merah Putih Ekonomi • 1 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250805134850-92-1258934/mendes-dana-desa-bukan-jaminan-pinjaman-kopdes-merah-putih</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>45874.86472222222</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-08-05 20:45:12+07:00</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:02.860439+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Budi Arie: Aturan soal Koperasi Harus Selaras demi Perkuat Kopdes Ekonomi • 1 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250805152745-78-1259003/budi-arie-aturan-soal-koperasi-harus-selaras-demi-perkuat-kopdes</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>45874.64927083333</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2025-08-05 15:34:57+07:00</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:03.190677+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>30:50 VIDEO: Koperasi Desa Merah Putih Mampu Dongkrak Ekonomi? TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250728123555-402-1255743/video-koperasi-desa-merah-putih-mampu-dongkrak-ekonomi</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>45866.53037037037</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2025-07-28 12:43:44+07:00</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:03.308881+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>03:27 VIDEO: Diresmikan Prabowo, Koperasi Merah Putih Mulai Aktif TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250724193351-404-1254601/video-diresmikan-prabowo-koperasi-merah-putih-mulai-aktif</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>45863.30892361111</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2025-07-25 07:24:51+07:00</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:03.454756+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>TNI Akan Dilibatkan Produksi Obat Murah Massal Nasional • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250723151901-20-1254031/tni-akan-dilibatkan-produksi-obat-murah-massal</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>45861.65975694444</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2025-07-23 15:50:03+07:00</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:03.692928+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>10:57 VIDEO: Perjalanan Program Koperasi di Indonesia TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250723092506-400-1253819/video-perjalanan-program-koperasi-di-indonesia</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="2" t="n">
-        <v>45861.39548611111</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2025-07-23 09:29:30+07:00</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:03.806179+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ANALISIS Menguak Siapa Vampir Ekonomi yang Bikin Prabowo Geram Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250723071116-92-1253781/menguak-siapa-vampir-ekonomi-yang-bikin-prabowo-geram</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>2</v>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>45861.32642361111</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2025-07-23 07:50:03+07:00</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:08.186491+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>01:35 VIDEO: Prabowo: Konsep Koperasi Bisa Memperkuat Ekonomi RI TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250722120730-402-1253489/video-prabowo-konsep-koperasi-bisa-memperkuat-ekonomi-ri</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" s="2" t="n">
-        <v>45860.51770833333</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2025-07-22 12:25:30+07:00</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:08.907793+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Bobby Resmikan Koperasi Merah Putih Binjai, Perputaran Capai Rp2,5 M Nasional • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250721215912-20-1253293/bobby-resmikan-koperasi-merah-putih-binjai-perputaran-capai-rp25-m</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>2</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>45859.92708333334</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2025-07-21 22:15:00+07:00</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:09.478308+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Gubernur Jateng: Koperasi Merah Putih Tingkatkan Kesejahteraan Rakyat Nasional • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250721184520-25-1253233/gubernur-jateng-koperasi-merah-putih-tingkatkan-kesejahteraan-rakyat</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" s="2" t="n">
-        <v>45859.78825231481</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2025-07-21 18:55:05+07:00</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:10.906307+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Mandiri Dukung Peluncuran Kopdes Merah Putih, Perkuat Digitalisasi Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250721182457-625-1253223/mandiri-dukung-peluncuran-kopdes-merah-putih-perkuat-digitalisasi</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>2</v>
-      </c>
-      <c r="E100" s="2" t="n">
-        <v>45859.78366898148</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2025-07-21 18:48:29+07:00</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:12.855274+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Menko Zulhas: 80.081 Kopdes Merah Putih Resmi Terbentuk, Sejarah Baru Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250721155247-97-1253158/menko-zulhas-80081-kopdes-merah-putih-resmi-terbentuk-sejarah-baru</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>2</v>
-      </c>
-      <c r="E101" s="2" t="n">
-        <v>45859.67971064815</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2025-07-21 16:18:47+07:00</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:13.009952+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>01:53 VIDEO: Menkop Sebut 81.140 Koperasi Terbentuk di Seluruh Indonesia TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250721140848-400-1253089/video-menkop-sebut-81140-koperasi-terbentuk-di-seluruh-indonesia</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>2</v>
-      </c>
-      <c r="E102" s="2" t="n">
-        <v>45859.61513888889</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2025-07-21 14:45:48+07:00</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:13.199428+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Koperasi Desa Merah Putih Diresmikan Prabowo Hari Ini Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250721063618-92-1252900/koperasi-desa-merah-putih-diresmikan-prabowo-hari-ini</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" s="2" t="n">
-        <v>45859.29516203704</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2025-07-21 07:05:02+07:00</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:13.676782+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Prabowo Luncurkan 80 Ribu Kopdes Merah Putih di Klaten Senin Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250719135924-92-1252545/prabowo-luncurkan-80-ribu-kopdes-merah-putih-di-klaten-senin</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" s="2" t="n">
-        <v>45857.61469907407</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2025-07-19 14:45:10+07:00</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:13.896881+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Menkum: 80 Ribu Lebih Kopdes Merah Putih Sudah Disahkan Nasional • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250719075957-20-1252442/menkum-80-ribu-lebih-kopdes-merah-putih-sudah-disahkan</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>2</v>
-      </c>
-      <c r="E105" s="2" t="n">
-        <v>45857.33820601852</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2025-07-19 08:07:01+07:00</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:14.047741+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Bank Mandiri Komitmen Perkuat Ekonomi Desa Lewat Koperasi Merah Putih Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250718175124-625-1252302/bank-mandiri-komitmen-perkuat-ekonomi-desa-lewat-koperasi-merah-putih</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>45856.76069444444</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2025-07-18 18:15:24+07:00</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:18.574728+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>01:39 VIDEO: 80 Ribu Koperasi Merah Putih Siap Diresmikan TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250715182930-407-1251024/video-80-ribu-koperasi-merah-putih-siap-diresmikan</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>3</v>
-      </c>
-      <c r="E107" s="2" t="n">
-        <v>45853.83</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2025-07-15 19:55:12+07:00</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:18.680051+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Menkop Budi Sebut Sudah Terbentuk 80,5 Ribu Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250713001539-92-1250017/menkop-budi-sebut-sudah-terbentuk-805-ribu-kopdes-merah-putih</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>3</v>
-      </c>
-      <c r="E108" s="2" t="n">
-        <v>45851.23178240741</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2025-07-13 05:33:46+07:00</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:18.841655+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Prabowo Gelar Ratas Bahas Cuaca Ekstrem hingga Sekolah Rakyat Nasional • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250712205642-32-1249997/prabowo-gelar-ratas-bahas-cuaca-ekstrem-hingga-sekolah-rakyat</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>3</v>
-      </c>
-      <c r="E109" s="2" t="n">
-        <v>45850.88556712963</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2025-07-12 21:15:13+07:00</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:19.054695+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>03:53 VIDEO: Koperasi Merah Putih Tamanmartani Disambut Antusias Warga TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250712131038-404-1249892/video-koperasi-merah-putih-tamanmartani-disambut-antusias-warga</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>3</v>
-      </c>
-      <c r="E110" s="2" t="n">
-        <v>45850.55344907408</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2025-07-12 13:16:58+07:00</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:19.168553+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>01:43 VIDEO: Pemerintah Siap Luncurkan 80 Ribu Koperasi Merah Putih TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250711123758-402-1249554/video-pemerintah-siap-luncurkan-80-ribu-koperasi-merah-putih</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>3</v>
-      </c>
-      <c r="E111" s="2" t="n">
-        <v>45849.55761574074</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22:58+07:00</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:19.284984+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Menkop Budi Ungkap Peran Penting Perempuan untuk Koperasi Tumbuh Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250708210240-625-1248426/menkop-budi-ungkap-peran-penting-perempuan-untuk-koperasi-tumbuh</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>3</v>
-      </c>
-      <c r="E112" s="2" t="n">
-        <v>45847.2087962963</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2025-07-09 05:00:40+07:00</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:19.481191+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>05:04 VIDEO: Sebanyak 152 Koperasi Merah Putih Telah Terbentuk TV • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250704120204-402-1246842/video-sebanyak-152-koperasi-merah-putih-telah-terbentuk</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>3</v>
-      </c>
-      <c r="E113" s="2" t="n">
-        <v>45842.53199074074</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2025-07-04 12:46:04+07:00</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:19.598578+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Kemenkop Minta Asuransi PertaLife Masuk Kopdes Merah Putih Ekonomi • 2 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250703071623-78-1246297/kemenkop-minta-asuransi-pertalife-masuk-kopdes-merah-putih</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>45841.39797453704</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:05+07:00</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:19.762758+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>01:44 VIDEO: Menkop Harap Koperasi Desa Dapat Kurangi Kemiskinan TV • 3 bulan yang lalu</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250625133328-407-1243669/video-menkop-harap-koperasi-desa-dapat-kurangi-kemiskinan</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>koperasi merah putih</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>3</v>
-      </c>
-      <c r="E115" s="2" t="n">
-        <v>45833.59407407408</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2025-06-25 14:15:28+07:00</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:19.847193+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>01:29 VIDEO: Mensesneg Tanggapi Pencabutan Kartu Pers Jurnalis CNN Indonesia TV • 5 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250929075432-400-1278703/video-mensesneg-tanggapi-pencabutan-kartu-pers-jurnalis-cnn-indonesia</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" s="2" t="n">
-        <v>45929.33216435185</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2025-09-29 07:58:19+07:00</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:23.303831+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>04:10 VIDEO: Istri Arya Daru Minta KAsus Diusut Jujur, Adil DAn Transparan TV • 1 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250928091713-404-1278492/video-istri-arya-daru-minta-kasus-diusut-jujur-adil-dan-transparan</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" s="2" t="n">
-        <v>45928.47490740741</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2025-09-28 11:23:52+07:00</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:23.503534+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>03:46 VIDEO: Indonesia Jalin Kerja Sama Ekonomi-Politik Dengan Kanada TV • 3 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250925211009-404-1277823/video-indonesia-jalin-kerja-sama-ekonomi-politik-dengan-kanada</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="2" t="n">
-        <v>45925.94263888889</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2025-09-25 22:37:24+07:00</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:23.682995+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>8 Catatan untuk Prabowo Jika Masih Ngotot Lanjutkan Program MBG Nasional • 4 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250925062053-20-1277466/8-catatan-untuk-prabowo-jika-masih-ngotot-lanjutkan-program-mbg</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="2" t="n">
-        <v>45925.31601851852</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2025-09-25 07:35:04+07:00</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:23.830438+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>02:34 VIDEO: Pidato Presiden Prabowo di PBB Tegaskan Solidaritas Dunia TV • 5 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250924115804-400-1277167/video-pidato-presiden-prabowo-di-pbb-tegaskan-solidaritas-dunia</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="2" t="n">
-        <v>45924.50078703704</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2025-09-24 12:01:08+07:00</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:23.928332+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>01:07 VIDEO: Prabowo Beri Tanda Kehormatan Kepada Bill Gates TV • 5 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250924100801-400-1277119/video-prabowo-beri-tanda-kehormatan-kepada-bill-gates</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" s="2" t="n">
-        <v>45924.42378472222</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2025-09-24 10:10:15+07:00</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:24.054713+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Mahfud MD Terima Tawaran Komite Reformasi Polri ala Prabowo Nasional • 5 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250924060716-12-1277024/mahfud-md-terima-tawaran-komite-reformasi-polri-ala-prabowo</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="n">
-        <v>45924.27672453703</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2025-09-24 06:38:29+07:00</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:24.262575+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Kata-kata Erick Thohir Usai Diizinkan FIFA Jadi Menpora dan Ketua PSSI Olahraga • 6 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/olahraga/20250923081046-142-1276625/kata-kata-erick-thohir-usai-diizinkan-fifa-jadi-menpora-dan-ketua-pssi</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" s="2" t="n">
-        <v>45923.34824074074</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2025-09-23 08:21:28+07:00</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:24.397833+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>02:08 VIDEO: Prabowo di PBB Desak Solusi Dua Negara Palestina dan Israel Internasional • 6 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/internasional/20250923065455-139-1276596/video-prabowo-di-pbb-desak-solusi-dua-negara-palestina-dan-israel</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>2</v>
-      </c>
-      <c r="E124" s="2" t="n">
-        <v>45923.34063657407</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2025-09-23 08:10:31+07:00</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:31.565785+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>01:48 VIDEO: Prabowo Tegaskan Komitmen Indonesia Pada Solusi Dua Negara TV • 6 hari yang lalu</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250923073612-400-1276611/video-prabowo-tegaskan-komitmen-indonesia-pada-solusi-dua-negara</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>2</v>
-      </c>
-      <c r="E125" s="2" t="n">
-        <v>45923.31916666667</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2025-09-23 07:39:36+07:00</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:31.660538+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>03:37 VIDEO: Presiden Prabowo Akan Pidato di Majelis Umum PBB TV • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250921205321-404-1276084/video-presiden-prabowo-akan-pidato-di-majelis-umum-pbb</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>2</v>
-      </c>
-      <c r="E126" s="2" t="n">
-        <v>45921.91082175926</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2025-09-21 21:51:35+07:00</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:31.776281+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>02:12 VIDEO: Presiden Tiba di AS Untuk Hadiri Sidang Majelis Umum PBB TV • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250921184739-404-1276070/video-presiden-tiba-di-as-untuk-hadiri-sidang-majelis-umum-pbb</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" s="2" t="n">
-        <v>45921.79137731482</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2025-09-21 18:59:35+07:00</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:31.996103+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Tiba di New York, Prabowo Disambut Para Diaspora Internasional • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/internasional/20250921071823-106-1275915/tiba-di-new-york-prabowo-disambut-para-diaspora</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>2</v>
-      </c>
-      <c r="E128" s="2" t="n">
-        <v>45921.30679398148</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2025-09-21 07:21:47+07:00</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:32.184653+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>07:10 VIDEO: Menunggu Solusi Untuk MBG Yang Bermasalah TV • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250919214114-404-1275674/video-menunggu-solusi-untuk-mbg-yang-bermasalah</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>2</v>
-      </c>
-      <c r="E129" s="2" t="n">
-        <v>45920.4105787037</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2025-09-20 09:51:14+07:00</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:32.364658+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>01:31 VIDEO: Jokowi; Relawan Dukung Prabowo-Gibran 2 Periode TV • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250919214105-404-1275671/video-jokowi-relawan-dukung-prabowo-gibran-2-periode</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>2</v>
-      </c>
-      <c r="E130" s="2" t="n">
-        <v>45920.32714120371</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2025-09-20 07:51:05+07:00</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:32.489139+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Jokowi Minta Relawan Dukung Prabowo-Gibran Dua Periode Nasional • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250919144526-32-1275512/jokowi-minta-relawan-dukung-prabowo-gibran-dua-periode</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>2</v>
-      </c>
-      <c r="E131" s="2" t="n">
-        <v>45919.63071759259</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>2025-09-19 15:08:14+07:00</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:32.685223+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>KemenPU Komitmen Percepat Pembangunan SPPG untuk Dukung Program MBG Nasional • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250918152717-25-1275128/kemenpu-komitmen-percepat-pembangunan-sppg-untuk-dukung-program-mbg</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>2</v>
-      </c>
-      <c r="E132" s="2" t="n">
-        <v>45918.66530092592</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2025-09-18 15:58:02+07:00</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:32.818112+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>6 FOTO FOTO: KUR Jadi Senjata Prabowo Hadirkan Rumah untuk Rakyat Ekonomi • 1 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917130304-94-1274616/foto-kur-jadi-senjata-prabowo-hadirkan-rumah-untuk-rakyat</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>2</v>
-      </c>
-      <c r="E133" s="2" t="n">
-        <v>45918.42890046296</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>2025-09-18 10:17:37+07:00</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:32.927543+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Sekolah Rakyat Buka Jalan Mimpi Adelia di Tengah Hidup Penuh Ujian Nasional • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250915115013-25-1273777/sekolah-rakyat-buka-jalan-mimpi-adelia-di-tengah-hidup-penuh-ujian</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>3</v>
-      </c>
-      <c r="E134" s="2" t="n">
-        <v>45915.50709490741</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>2025-09-15 12:10:13+07:00</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:36.683019+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Video Prabowo Tayang di Bioskop, Ini Respons Komdigi Teknologi • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/teknologi/20250915103312-185-1273757/video-prabowo-tayang-di-bioskop-ini-respons-komdigi</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>3</v>
-      </c>
-      <c r="E135" s="2" t="n">
-        <v>45915.44152777778</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>2025-09-15 10:35:48+07:00</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:36.896608+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>02:04 VIDEO: Istana Bantah Isu Pergantian Kapolri TV • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250915093954-400-1273728/video-istana-bantah-isu-pergantian-kapolri</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>3</v>
-      </c>
-      <c r="E136" s="2" t="n">
-        <v>45915.40495370371</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>2025-09-15 09:43:08+07:00</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.083999+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>13:07 VIDEO: Presiden Prabowo Tinjau Korban Dampak Bencana TV • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250913133642-400-1273296/video-presiden-prabowo-tinjau-korban-dampak-bencana</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>3</v>
-      </c>
-      <c r="E137" s="2" t="n">
-        <v>45913.63811342593</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>2025-09-13 15:18:53+07:00</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.176557+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>02:00 VIDEO: Rapat Perdana Bahas Paket Ekonomi Usulan Presiden Prabowo TV • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250912211032-404-1273161/video-rapat-perdana-bahas-paket-ekonomi-usulan-presiden-prabowo</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>3</v>
-      </c>
-      <c r="E138" s="2" t="n">
-        <v>45912.97998842593</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>2025-09-12 23:31:11+07:00</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.268365+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>12:49 VIDEO: Prabowo Janji Bentuk Komisi Khusus Reformasi Polri TV • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250912140756-405-1272976/video-prabowo-janji-bentuk-komisi-khusus-reformasi-polri</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>3</v>
-      </c>
-      <c r="E139" s="2" t="n">
-        <v>45912.5912962963</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:11:28+07:00</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.366985+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Prabowo Panggil Sejumlah Menteri ke Istana Siang Ini Nasional • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/nasional/20250909145748-32-1271712/prabowo-panggil-sejumlah-menteri-ke-istana-siang-ini</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>3</v>
-      </c>
-      <c r="E140" s="2" t="n">
-        <v>45909.62787037037</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:04:08+07:00</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.546950+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>04:08 VIDEO: Mengawal Realisasi Janji Pemerintah TV • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250908223214-400-1271414/video-mengawal-realisasi-janji-pemerintah</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>3</v>
-      </c>
-      <c r="E141" s="2" t="n">
-        <v>45908.94291666667</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2025-09-08 22:37:48+07:00</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.655027+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Dito Ariotedjo, Menteri Termuda di Dua Kabinet yang Kena Reshuffle Olahraga • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/olahraga/20250908153234-178-1271278/dito-ariotedjo-menteri-termuda-di-dua-kabinet-yang-kena-reshuffle</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>3</v>
-      </c>
-      <c r="E142" s="2" t="n">
-        <v>45908.74635416667</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>2025-09-08 17:54:45+07:00</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.763687+07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>04:48 VIDEO: Reshuffle Kabinet, Presiden Prabowo Lantik Menteri Baru TV • 2 minggu yang lalu</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>https://www.cnnindonesia.com/tv/20250908172753-400-1271330/video-reshuffle-kabinet-presiden-prabowo-lantik-menteri-baru</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>3</v>
-      </c>
-      <c r="E143" s="2" t="n">
-        <v>45908.72938657407</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>2025-09-08 17:30:19+07:00</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2025-09-29 13:50:37.869599+07:00</t>
+          <t>2025-09-30 14:01:06.491091+07:00</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/cnn_links.xlsx
+++ b/daftar_berita/cnn_links.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45930.58307683017</v>
+        <v>45931.37121663953</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:37.838127+07:00</t>
+          <t>2025-10-01 08:54:33.117656+07:00</t>
         </is>
       </c>
     </row>
@@ -523,12 +523,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45930.58307778029</v>
+        <v>45931.37121804828</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:37.920217+07:00</t>
+          <t>2025-10-01 08:54:33.239371+07:00</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45930.58307937872</v>
+        <v>45931.37121943914</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:38.058321+07:00</t>
+          <t>2025-10-01 08:54:33.359542+07:00</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45930.58309924925</v>
+        <v>45931.37122100837</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:39.775135+07:00</t>
+          <t>2025-10-01 08:54:33.495123+07:00</t>
         </is>
       </c>
     </row>
@@ -610,12 +610,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45930.583111364</v>
+        <v>45931.37122244346</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:40.821850+07:00</t>
+          <t>2025-10-01 08:54:33.619115+07:00</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45930.58312225839</v>
+        <v>45931.37122411404</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:41.763125+07:00</t>
+          <t>2025-10-01 08:54:33.763453+07:00</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45930.58312344328</v>
+        <v>45931.37122486073</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:41.865499+07:00</t>
+          <t>2025-10-01 08:54:33.827967+07:00</t>
         </is>
       </c>
     </row>
@@ -697,12 +697,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45930.58312454046</v>
+        <v>45931.37122617446</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:41.960296+07:00</t>
+          <t>2025-10-01 08:54:33.941473+07:00</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45930.58312612294</v>
+        <v>45931.37122703999</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:42.097022+07:00</t>
+          <t>2025-10-01 08:54:34.016255+07:00</t>
         </is>
       </c>
     </row>
@@ -755,12 +755,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45930.58312744622</v>
+        <v>45931.37122847586</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:42.211353+07:00</t>
+          <t>2025-10-01 08:54:34.140314+07:00</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45930.58312834526</v>
+        <v>45931.37123021537</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:42.289031+07:00</t>
+          <t>2025-10-01 08:54:34.290608+07:00</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45930.58313004165</v>
+        <v>45931.37123152721</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:42.435598+07:00</t>
+          <t>2025-10-01 08:54:34.403951+07:00</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45930.58313141756</v>
+        <v>45931.37123255712</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:42.554477+07:00</t>
+          <t>2025-10-01 08:54:34.492935+07:00</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45930.58313275125</v>
+        <v>45931.37123433159</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:42.669708+07:00</t>
+          <t>2025-10-01 08:54:34.646249+07:00</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45930.58314206067</v>
+        <v>45931.37123572609</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:43.474042+07:00</t>
+          <t>2025-10-01 08:54:34.766734+07:00</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45930.58314735845</v>
+        <v>45931.37123720448</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:43.931770+07:00</t>
+          <t>2025-10-01 08:54:34.894467+07:00</t>
         </is>
       </c>
     </row>
@@ -958,12 +958,12 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45930.58314917929</v>
+        <v>45931.3712387611</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:44.089090+07:00</t>
+          <t>2025-10-01 08:54:35.028959+07:00</t>
         </is>
       </c>
     </row>
@@ -987,12 +987,12 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45930.58315115933</v>
+        <v>45931.37124012802</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:44.260166+07:00</t>
+          <t>2025-10-01 08:54:35.147061+07:00</t>
         </is>
       </c>
     </row>
@@ -1016,12 +1016,12 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45930.58315257248</v>
+        <v>45931.37124148416</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:44.382262+07:00</t>
+          <t>2025-10-01 08:54:35.264231+07:00</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45930.58315664971</v>
+        <v>45931.37124283989</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:44.734535+07:00</t>
+          <t>2025-10-01 08:54:35.381367+07:00</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1074,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45930.58315812144</v>
+        <v>45931.37124359575</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:44.861693+07:00</t>
+          <t>2025-10-01 08:54:35.446673+07:00</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45930.58315958521</v>
+        <v>45931.37124460488</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:44.988162+07:00</t>
+          <t>2025-10-01 08:54:35.533862+07:00</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45930.58316106819</v>
+        <v>45931.37124763484</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.116291+07:00</t>
+          <t>2025-10-01 08:54:35.795650+07:00</t>
         </is>
       </c>
     </row>
@@ -1161,24 +1161,24 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45930.58316294674</v>
+        <v>45931.37124883582</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.278598+07:00</t>
+          <t>2025-10-01 08:54:35.899415+07:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Purbaya Ditagih Subsidi BBM &amp; Listrik: Sudah Bayar, Nyangkut di Mana? Ekonomi • 1 jam yang lalu</t>
+          <t>Purbaya Respons Permintaan Bos BGN Tambah Anggaran MBG Rp28 T Ekonomi • 12 jam yang lalu</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250930113947-532-1279185/purbaya-ditagih-subsidi-bbm-listrik-sudah-bayar-nyangkut-di-mana</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929180231-532-1278984/purbaya-respons-permintaan-bos-bgn-tambah-anggaran-mbg-rp28-t</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1190,28 +1190,28 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45930.51893518519</v>
+        <v>45930.83377314815</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-30 12:27:16+07:00</t>
+          <t>2025-09-30 20:00:38+07:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.360659+07:00</t>
+          <t>2025-10-01 08:54:35.986398+07:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Purbaya Tiba-tiba Sidak Kantor BNI, Nimbrung Rapat Direksi Ekonomi • 23 jam yang lalu</t>
+          <t>Purbaya Sebut Ray Dalio Siap Dukung Program Indonesia Ekonomi • 13 jam yang lalu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250929134914-532-1278863/purbaya-tiba-tiba-sidak-kantor-bni-nimbrung-rapat-direksi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250930165101-532-1279378/purbaya-sebut-ray-dalio-siap-dukung-program-indonesia</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1223,28 +1223,28 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45929.594375</v>
+        <v>45930.79541666667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-29 14:15:54+07:00</t>
+          <t>2025-09-30 19:05:24+07:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.437432+07:00</t>
+          <t>2025-10-01 08:54:36.086780+07:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 4 hari yang lalu</t>
+          <t>Purbaya Sentil Balik Danantara yang Adukan Dirinya ke DPR Ekonomi • 15 jam yang lalu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925180050-532-1277772/purbaya-ancam-ambil-alih-uang-pemda-yang-masih-nganggur</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250930155921-532-1279361/purbaya-sentil-balik-danantara-yang-adukan-dirinya-ke-dpr</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1256,28 +1256,28 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45925.81774305556</v>
+        <v>45930.73671296296</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-25 19:37:33+07:00</t>
+          <t>2025-09-30 17:40:52+07:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.511698+07:00</t>
+          <t>2025-10-01 08:54:36.157635+07:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 4 hari yang lalu</t>
+          <t>Purbaya Ditagih Subsidi BBM &amp; Listrik: Sudah Bayar, Nyangkut di Mana? Ekonomi • 20 jam yang lalu</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925100133-532-1277517/luhut-program-mbg-bagus-tinggal-pengelolaan-yang-tertib</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250930113947-532-1279185/purbaya-ditagih-subsidi-bbm-listrik-sudah-bayar-nyangkut-di-mana</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1289,28 +1289,28 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45925.74425925926</v>
+        <v>45930.51893518519</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-25 17:51:44+07:00</t>
+          <t>2025-09-30 12:27:16+07:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.634127+07:00</t>
+          <t>2025-10-01 08:54:36.254505+07:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 6 hari yang lalu</t>
+          <t>Purbaya Tiba-tiba Sidak Kantor BNI, Nimbrung Rapat Direksi Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250923163703-532-1276872/purbaya-optimistis-mimpi-prabowo-defisit-apbn-0-persen-bisa-terwujud</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929134914-532-1278863/purbaya-tiba-tiba-sidak-kantor-bni-nimbrung-rapat-direksi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1322,28 +1322,28 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45923.71894675926</v>
+        <v>45929.594375</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-23 17:15:17+07:00</t>
+          <t>2025-09-29 14:15:54+07:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.767947+07:00</t>
+          <t>2025-10-01 08:54:36.330606+07:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 6 hari yang lalu</t>
+          <t>Purbaya Ancam Ambil Alih Uang Pemda yang Masih Nganggur Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250923142814-532-1276800/purbaya-pede-bisa-genjot-ekonomi-ri-lebih-cepat-tanpa-tambah-utang</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250925180050-532-1277772/purbaya-ancam-ambil-alih-uang-pemda-yang-masih-nganggur</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1355,28 +1355,28 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45923.6375</v>
+        <v>45925.81774305556</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-23 15:18:00+07:00</t>
+          <t>2025-09-25 19:37:33+07:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:45.981900+07:00</t>
+          <t>2025-10-01 08:54:36.406656+07:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 1 minggu yang lalu</t>
+          <t>Luhut: Program MBG Bagus, Tinggal Pengelolaan yang Tertib Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922162321-532-1276432/purbaya-tegaskan-data-ekonomi-ri-tumbuh-512-persen-bukan-manipulasi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250925100133-532-1277517/luhut-program-mbg-bagus-tinggal-pengelolaan-yang-tertib</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1388,28 +1388,28 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45922.81293981482</v>
+        <v>45925.74425925926</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-22 19:30:38+07:00</t>
+          <t>2025-09-25 17:51:44+07:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:46.443500+07:00</t>
+          <t>2025-10-01 08:54:39.418451+07:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Optimistis Mimpi Prabowo Defisit APBN 0 Persen Bisa Terwujud Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922174710-532-1276471/purbaya-panggil-tokopedia-cs-larang-jual-rokok-ilegal-mulai-1-oktober</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250923163703-532-1276872/purbaya-optimistis-mimpi-prabowo-defisit-apbn-0-persen-bisa-terwujud</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1421,28 +1421,28 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45922.7609837963</v>
+        <v>45923.71894675926</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-22 18:15:49+07:00</t>
+          <t>2025-09-23 17:15:17+07:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:46.648447+07:00</t>
+          <t>2025-10-01 08:54:41.837598+07:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Pede Bisa Genjot Ekonomi RI Lebih Cepat Tanpa Tambah Utang Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250922153320-532-1276410/purbaya-ancam-sikat-oknum-bea-cukai-terlibat-peredaran-rokok-ilegal</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250923142814-532-1276800/purbaya-pede-bisa-genjot-ekonomi-ri-lebih-cepat-tanpa-tambah-utang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1454,28 +1454,28 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45922.68662037037</v>
+        <v>45923.6375</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-22 16:28:44+07:00</t>
+          <t>2025-09-23 15:18:00+07:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:46.800515+07:00</t>
+          <t>2025-10-01 08:54:43.889120+07:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Menkeu Purbaya soal Satgas BLBI: Kalau Cuma Buat Keributan Enggak Usah Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Tegaskan Data Ekonomi RI Tumbuh 5,12 Persen Bukan Manipulasi Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250920072756-532-1275700/menkeu-purbaya-soal-satgas-blbi-kalau-cuma-buat-keributan-enggak-usah</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922162321-532-1276432/purbaya-tegaskan-data-ekonomi-ri-tumbuh-512-persen-bukan-manipulasi</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1487,28 +1487,28 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45920.32638888889</v>
+        <v>45922.81293981482</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-20 07:50:00+07:00</t>
+          <t>2025-09-22 19:30:38+07:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:47.019589+07:00</t>
+          <t>2025-10-01 08:54:44.025902+07:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Purbaya Tegas Tolak Tax Amnesty Jilid III: Beri Sinyal Boleh Melanggar Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Panggil Tokopedia Cs, Larang Jual Rokok Ilegal Mulai 1 Oktober Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250919140705-532-1275476/purbaya-tegas-tolak-tax-amnesty-jilid-iii-beri-sinyal-boleh-melanggar</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922174710-532-1276471/purbaya-panggil-tokopedia-cs-larang-jual-rokok-ilegal-mulai-1-oktober</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1520,28 +1520,28 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45919.59828703704</v>
+        <v>45922.7609837963</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-19 14:21:32+07:00</t>
+          <t>2025-09-22 18:15:49+07:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:53.969852+07:00</t>
+          <t>2025-10-01 08:54:47.952041+07:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Purbaya soal Gugatan Tutut Soeharto: Sudah Dicabut, Beliau Kirim Salam Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Ancam Sikat Oknum Bea Cukai Terlibat Peredaran Rokok Ilegal Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250918151932-532-1275123/purbaya-soal-gugatan-tutut-soeharto-sudah-dicabut-beliau-kirim-salam</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250922153320-532-1276410/purbaya-ancam-sikat-oknum-bea-cukai-terlibat-peredaran-rokok-ilegal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1553,28 +1553,28 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45918.65365740741</v>
+        <v>45922.68662037037</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-18 15:41:16+07:00</t>
+          <t>2025-09-22 16:28:44+07:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:54.311565+07:00</t>
+          <t>2025-10-01 08:54:48.074617+07:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
+          <t>Menkeu Purbaya soal Satgas BLBI: Kalau Cuma Buat Keributan Enggak Usah Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250920072756-532-1275700/menkeu-purbaya-soal-satgas-blbi-kalau-cuma-buat-keributan-enggak-usah</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1586,28 +1586,28 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45917.52737268519</v>
+        <v>45920.32638888889</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-17 12:39:25+07:00</t>
+          <t>2025-09-20 07:50:00+07:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:54.971167+07:00</t>
+          <t>2025-10-01 08:54:48.295212+07:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
+          <t>Purbaya Tegas Tolak Tax Amnesty Jilid III: Beri Sinyal Boleh Melanggar Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250919140705-532-1275476/purbaya-tegas-tolak-tax-amnesty-jilid-iii-beri-sinyal-boleh-melanggar</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1619,28 +1619,28 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45917.45146990741</v>
+        <v>45919.59828703704</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-17 10:50:07+07:00</t>
+          <t>2025-09-19 14:21:32+07:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:55.110854+07:00</t>
+          <t>2025-10-01 08:54:48.492464+07:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 2 minggu yang lalu</t>
+          <t>Purbaya soal Gugatan Tutut Soeharto: Sudah Dicabut, Beliau Kirim Salam Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250918151932-532-1275123/purbaya-soal-gugatan-tutut-soeharto-sudah-dicabut-beliau-kirim-salam</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1652,28 +1652,28 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45916.46927083333</v>
+        <v>45918.65365740741</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-16 11:15:45+07:00</t>
+          <t>2025-09-18 15:41:16+07:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:55.425853+07:00</t>
+          <t>2025-10-01 08:54:48.608264+07:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya: Yang Takut RI Gelap, Jangan Khawatir, Sebentar Lagi Terang Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917122423-532-1274591/purbaya-yang-takut-ri-gelap-jangan-khawatir-sebentar-lagi-terang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1685,28 +1685,28 @@
         <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45915.87552083333</v>
+        <v>45917.52737268519</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-15 21:00:45+07:00</t>
+          <t>2025-09-17 12:39:25+07:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:55.655093+07:00</t>
+          <t>2025-10-01 08:54:48.737784+07:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya Bersuara Saat Kebijakannya Dibandingkan dengan Sri Mulyani Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250917103601-532-1274537/purbaya-bersuara-saat-kebijakannya-dibandingkan-dengan-sri-mulyani</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1718,28 +1718,28 @@
         <v>2</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45915.79498842593</v>
+        <v>45917.45146990741</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-15 19:04:47+07:00</t>
+          <t>2025-09-17 10:50:07+07:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:55.886448+07:00</t>
+          <t>2025-10-01 08:54:48.860762+07:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 2 minggu yang lalu</t>
+          <t>01:59 VIDEO: Purbaya: Dirut Bank Himbara Pusing, Saya Suruh Mereka Mikir TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
+          <t>https://www.cnnindonesia.com/tv/20250916111325-400-1274175/video-purbaya-dirut-bank-himbara-pusing-saya-suruh-mereka-mikir</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1751,28 +1751,28 @@
         <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45915.79400462963</v>
+        <v>45916.46927083333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-15 19:03:22+07:00</t>
+          <t>2025-09-16 11:15:45+07:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:56.748585+07:00</t>
+          <t>2025-10-01 08:54:48.973259+07:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
+          <t>Purbaya Pede Defisit APBN Tak Melebar Gara-gara Stimulus Ekonomi Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915175909-532-1273968/purbaya-pede-defisit-apbn-tak-melebar-gara-gara-stimulus-ekonomi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1784,28 +1784,28 @@
         <v>2</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45914.57866898148</v>
+        <v>45915.87552083333</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-14 13:53:17+07:00</t>
+          <t>2025-09-15 21:00:45+07:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:56.952045+07:00</t>
+          <t>2025-10-01 08:54:49.091970+07:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya Sebut Ada Bank Ngaku Tak Sanggup Serap Uang Pemerintah Rp200 T Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915183126-532-1273985/purbaya-sebut-ada-bank-ngaku-tak-sanggup-serap-uang-pemerintah-rp200-t</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1817,28 +1817,28 @@
         <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45913.34037037037</v>
+        <v>45915.79498842593</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-13 08:10:08+07:00</t>
+          <t>2025-09-15 19:04:47+07:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-09-30 13:59:57.064385+07:00</t>
+          <t>2025-10-01 08:54:49.213245+07:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya Guyur Bank Rp200 T, Zulhas Singgung Jatah Kopdes Merah Putih Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250915134736-92-1273846/purbaya-guyur-bank-rp200-t-zulhas-singgung-jatah-kopdes-merah-putih</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1850,28 +1850,28 @@
         <v>3</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45911.80748842593</v>
+        <v>45915.79400462963</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-11 19:22:47+07:00</t>
+          <t>2025-09-15 19:03:22+07:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:05.202763+07:00</t>
+          <t>2025-10-01 08:54:55.171422+07:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
+          <t>05:08 VIDEO: Menanti Penyerapan Dana Suntikan Rp.200 Triliun TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
+          <t>https://www.cnnindonesia.com/tv/20250914132720-404-1273533/video-menanti-penyerapan-dana-suntikan-rp200-triliun</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1883,28 +1883,28 @@
         <v>3</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45911.50540509259</v>
+        <v>45914.57866898148</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-11 12:07:47+07:00</t>
+          <t>2025-09-14 13:53:17+07:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:05.419915+07:00</t>
+          <t>2025-10-01 08:54:55.277981+07:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:19 VIDEO: Rapat Perdana Menkeu Purbaya Dicecar Komisi XI DPR TV • 2 minggu yang lalu</t>
+          <t>Bank Himbara Dapat Suntikan Rp200 T, untuk Apa? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20250911092357-400-1272431/video-rapat-perdana-menkeu-purbaya-dicecar-komisi-xi-dpr</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250912173110-532-1273102/bank-himbara-dapat-suntikan-rp200-t-untuk-apa</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1916,28 +1916,28 @@
         <v>3</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45911.39340277778</v>
+        <v>45913.34037037037</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-11 09:26:30+07:00</t>
+          <t>2025-09-13 08:10:08+07:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:05.579993+07:00</t>
+          <t>2025-10-01 08:54:55.376215+07:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Serapan Anggaran Rendah, Purbaya Minta Bos BGN Jumpa Pers Tiap Bulan Ekonomi • 2 minggu yang lalu</t>
+          <t>Purbaya Akan Naikkan Jatah Anggaran Daerah Usai PBB Naik Selangit Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910180046-532-1272257/serapan-anggaran-rendah-purbaya-minta-bos-bgn-jumpa-pers-tiap-bulan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911185023-532-1272721/purbaya-akan-naikkan-jatah-anggaran-daerah-usai-pbb-naik-selangit</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1949,28 +1949,28 @@
         <v>3</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45910.84768518519</v>
+        <v>45911.80748842593</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-10 20:20:40+07:00</t>
+          <t>2025-09-11 19:22:47+07:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:05.884085+07:00</t>
+          <t>2025-10-01 08:54:55.499675+07:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>00:55 VIDEO: Purbaya Tanya Balik DPR soal Warisan Masalah Fiskal dan Moneter Ekonomi • 2 minggu yang lalu</t>
+          <t>Apa Efek Jika Purbaya Sebar Dana Pemerintah Rp200 T di BI ke Bank? Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910175630-536-1272255/video-purbaya-tanya-balik-dpr-soal-warisan-masalah-fiskal-dan-moneter</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250911111354-532-1272488/apa-efek-jika-purbaya-sebar-dana-pemerintah-rp200-t-di-bi-ke-bank</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1982,28 +1982,28 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45910.76162037037</v>
+        <v>45911.50540509259</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-10 18:16:44+07:00</t>
+          <t>2025-09-11 12:07:47+07:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:06.402637+07:00</t>
+          <t>2025-10-01 08:54:55.618439+07:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Purbaya Sebut Rp425 T Mengendap di BI: Makanya Orang Susah Cari Kerja Ekonomi • 2 minggu yang lalu</t>
+          <t>04:19 VIDEO: Rapat Perdana Menkeu Purbaya Dicecar Komisi XI DPR TV • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250910160549-532-1272212/purbaya-sebut-rp425-t-mengendap-di-bi-makanya-orang-susah-cari-kerja</t>
+          <t>https://www.cnnindonesia.com/tv/20250911092357-400-1272431/video-rapat-perdana-menkeu-purbaya-dicecar-komisi-xi-dpr</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2015,1122 +2015,1155 @@
         <v>3</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45910.70972222222</v>
+        <v>45911.39340277778</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-10 17:02:00+07:00</t>
+          <t>2025-09-11 09:26:30+07:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:06.522480+07:00</t>
+          <t>2025-10-01 08:54:55.746134+07:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Serapan Anggaran Rendah, Purbaya Minta Bos BGN Jumpa Pers Tiap Bulan Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910180046-532-1272257/serapan-anggaran-rendah-purbaya-minta-bos-bgn-jumpa-pers-tiap-bulan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>purbaya</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45930.58370850679</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+        <v>45910.84768518519</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-09-10 20:20:40+07:00</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:32.414987+07:00</t>
+          <t>2025-10-01 08:54:55.884359+07:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>00:55 VIDEO: Purbaya Tanya Balik DPR soal Warisan Masalah Fiskal dan Moneter Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910175630-536-1272255/video-purbaya-tanya-balik-dpr-soal-warisan-masalah-fiskal-dan-moneter</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>purbaya</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45930.58370910274</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>45910.76162037037</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-09-10 18:16:44+07:00</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:32.466477+07:00</t>
+          <t>2025-10-01 08:54:56.004451+07:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Wamenperin Sambut Cukai Rokok Tak Naik Tahun Depan Ekonomi • 17 jam yang lalu</t>
+          <t>Purbaya Sebut Rp425 T Mengendap di BI: Makanya Orang Susah Cari Kerja Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250929190728-92-1279006/wamenperin-sambut-cukai-rokok-tak-naik-tahun-depan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250910160549-532-1272212/purbaya-sebut-rp425-t-mengendap-di-bi-makanya-orang-susah-cari-kerja</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>purbaya</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45929.83392361111</v>
+        <v>45910.70972222222</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-29 20:00:51+07:00</t>
+          <t>2025-09-10 17:02:00+07:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:38.729141+07:00</t>
+          <t>2025-10-01 08:54:56.127726+07:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5 Gebrakan Menkeu Purbaya Sepekan Terakhir, Apa Saja? Ekonomi • 3 hari yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250927110900-532-1278313/5-gebrakan-menkeu-purbaya-sepekan-terakhir-apa-saja</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fsidak-bni</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>sidak BNI</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45927.48328703704</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025-09-27 11:35:56+07:00</t>
-        </is>
-      </c>
+        <v>45931.37149996044</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:38.907748+07:00</t>
+          <t>2025-10-01 08:54:57.596582+07:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Guyon Purbaya ke Produsen Rokok soal Cukai: Tadinya Saya Mau Turunin Ekonomi • 3 hari yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926205812-532-1278240/guyon-purbaya-ke-produsen-rokok-soal-cukai-tadinya-saya-mau-turunin</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fsidak-bni&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>sidak BNI</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45927.30621527778</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-09-27 07:20:57+07:00</t>
-        </is>
-      </c>
+        <v>45931.37150020822</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:39.067203+07:00</t>
+          <t>2025-10-01 08:54:57.617990+07:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Purbaya Pastikan Cukai Rokok Tak Naik pada 2026 Ekonomi • 3 hari yang lalu</t>
+          <t>Keluar</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250926145103-532-1278067/purbaya-pastikan-cukai-rokok-tak-naik-pada-2026</t>
+          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fsidak-bni%3Fpage%3D2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>sidak BNI</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45926.64070601852</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2025-09-26 15:22:37+07:00</t>
-        </is>
-      </c>
+        <v>45931.37158180954</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:39.302409+07:00</t>
+          <t>2025-10-01 08:55:04.668344+07:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Purbaya Akan Panggil Perusahaan Rokok Bahas Tarif Cukai Pekan Ini Ekonomi • 4 hari yang lalu</t>
+          <t>DAFTAR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250925181630-532-1277774/purbaya-akan-panggil-perusahaan-rokok-bahas-tarif-cukai-pekan-ini</t>
+          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fsidak-bni%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>sidak BNI</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45925.87561342592</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2025-09-25 21:00:53+07:00</t>
-        </is>
-      </c>
+        <v>45931.37158211042</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:39.505425+07:00</t>
+          <t>2025-10-01 08:55:04.694340+07:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kemenkeu-DPR Sepakat Cukai Minuman Berpemanis Mulai Berlaku 2026 Ekonomi • 1 bulan yang lalu</t>
+          <t>Bea Cukai Beber Modus Jual Rokok Ilegal: Dipalsukan Jadi Pakaian Dalam Ekonomi • 1 hari yang lalu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250822192525-532-1265442/kemenkeu-dpr-sepakat-cukai-minuman-berpemanis-mulai-berlaku-2026</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250929131723-532-1278848/bea-cukai-beber-modus-jual-rokok-ilegal-dipalsukan-jadi-pakaian-dalam</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45891.81892361111</v>
+        <v>45929.81300925926</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-08-22 19:39:15+07:00</t>
+          <t>2025-09-29 19:30:44+07:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:40.801920+07:00</t>
+          <t>2025-10-01 08:55:13.914726+07:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sri Mulyani Cari Sumber Pungutan Cukai Baru Demi Raih Rp3.147 T Ekonomi • 1 bulan yang lalu</t>
+          <t>Luhut Dukung Gaya Koboi Purbaya Pelototi MBG dan Berangus Rokok Ilegal Ekonomi • 5 hari yang lalu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250815183454-78-1262991/sri-mulyani-cari-sumber-pungutan-cukai-baru-demi-raih-rp3147-t</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250924205413-532-1277414/luhut-dukung-gaya-koboi-purbaya-pelototi-mbg-dan-berangus-rokok-ilegal</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45884.78</v>
+        <v>45925.39604166667</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-08-15 18:43:12+07:00</t>
+          <t>2025-09-25 09:30:18+07:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:41.003900+07:00</t>
+          <t>2025-10-01 08:55:14.028605+07:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Makanan Asin Bakal Kena Cukai, Berlaku Tahun Ini? Ekonomi • 1 bulan yang lalu</t>
+          <t>01:36 VIDEO: Menkeu Purbaya Ancam Tindak Penjual Rokok Ilegal di Marketplace TV • 6 hari yang lalu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250807130143-532-1259799/makanan-asin-bakal-kena-cukai-berlaku-tahun-ini</t>
+          <t>https://www.cnnindonesia.com/tv/20250924133357-402-1277216/video-menkeu-purbaya-ancam-tindak-penjual-rokok-ilegal-di-marketplace</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45876.55925925926</v>
+        <v>45924.59372685185</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-08-07 13:25:20+07:00</t>
+          <t>2025-09-24 14:14:58+07:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:41.330149+07:00</t>
+          <t>2025-10-01 08:55:14.116666+07:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bos Bea Cukai Klaim Cegah Bocor Rp3,9 T dari Rokok hingga HP Ilegal Ekonomi • 2 bulan yang lalu</t>
+          <t>Purbaya Komentari Tarif Cukai Rokok: Firaun Lu, Banyak Banget Ekonomi • 1 minggu yang lalu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250714174852-532-1250597/bos-bea-cukai-klaim-cegah-bocor-rp39-t-dari-rokok-hingga-hp-ilegal</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250919171305-92-1275594/purbaya-komentari-tarif-cukai-rokok-firaun-lu-banyak-banget</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45854.60618055556</v>
+        <v>45919.83064814815</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-07-16 14:32:54+07:00</t>
+          <t>2025-09-19 19:56:08+07:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:41.474903+07:00</t>
+          <t>2025-10-01 08:55:14.431082+07:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Djaka Budhi Langsung Naik Haji Usai Dilantik Jadi Dirjen Bea Cukai Ekonomi • 4 bulan yang lalu</t>
+          <t>TAIPAN Susilo Wonowidjojo, Raja Sigaret Asal Kediri Berharta Rp179 T Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250523173254-532-1232560/djaka-budhi-langsung-naik-haji-usai-dilantik-jadi-dirjen-bea-cukai</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250914044244-92-1273444/susilo-wonowidjojo-raja-sigaret-asal-kediri-berharta-rp179-t</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45800.74012731481</v>
+        <v>45914.67914351852</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-23 17:45:47+07:00</t>
+          <t>2025-09-14 16:17:58+07:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:41.702932+07:00</t>
+          <t>2025-10-01 08:55:14.553678+07:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Keluar</t>
+          <t>Wagub Jatim Janji Cegah Peredaran Rokok Ilegal Ekonomi • 2 minggu yang lalu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/oauth/signout?redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai%3Fpage%3D2</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250913201405-92-1273412/wagub-jatim-janji-cegah-peredaran-rokok-ilegal</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45930.58383714348</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+        <v>45914.0709375</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-09-14 01:42:09+07:00</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:43.529197+07:00</t>
+          <t>2025-10-01 08:55:14.750864+07:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DAFTAR</t>
+          <t>Bos Bea Cukai Klaim Cegah Bocor Rp3,9 T dari Rokok hingga HP Ilegal Ekonomi • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://connect.detik.com/accounts/register?clientId=10027&amp;redirectUrl=https%3A%2F%2Fwww.cnnindonesia.com%2Fauthorize&amp;backURL=https%3A%2F%2Fwww.cnnindonesia.com%2Ftag%2Fcukai%3Fpage%3D2&amp;ui=apps&amp;osType=ANDROID</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250714174852-532-1250597/bos-bea-cukai-klaim-cegah-bocor-rp39-t-dari-rokok-hingga-hp-ilegal</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45930.58383808484</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
+        <v>45854.60618055556</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-07-16 14:32:54+07:00</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:43.610530+07:00</t>
+          <t>2025-10-01 08:55:14.894535+07:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pejabat BIN Dikabarkan Akan Diangkat Jadi Bos Bea Cukai Ekonomi • 4 bulan yang lalu</t>
+          <t>01:20 VIDEO: TNI AL Gagalkan Penyelundupan Jutaan Bungkus Rokok Ilegal TV • 2 bulan yang lalu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250519161716-92-1230820/pejabat-bin-dikabarkan-akan-diangkat-jadi-bos-bea-cukai</t>
+          <t>https://www.cnnindonesia.com/tv/20250701133042-407-1245599/video-tni-al-gagalkan-penyelundupan-jutaan-bungkus-rokok-ilegal</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45796.71143518519</v>
+        <v>45839.64591435185</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-19 17:04:28+07:00</t>
+          <t>2025-07-01 15:30:07+07:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:49.230614+07:00</t>
+          <t>2025-10-01 08:55:15.003247+07:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kemenkeu Pastikan Motor dan Batu Bara Tidak Kena Cukai Ekonomi • 4 bulan yang lalu</t>
+          <t>Industri Tembakau Lesu, Bea Cukai Bentuk Satgas Cegah Rokok Ilegal Ekonomi • 3 bulan yang lalu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250430184900-532-1224448/kemenkeu-pastikan-motor-dan-batu-bara-tidak-kena-cukai</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250617174519-532-1240773/industri-tembakau-lesu-bea-cukai-bentuk-satgas-cegah-rokok-ilegal</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45777.80047453703</v>
+        <v>45825.76248842593</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-04-30 19:12:41+07:00</t>
+          <t>2025-06-17 18:17:59+07:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:49.380030+07:00</t>
+          <t>2025-10-01 08:55:18.862942+07:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Peredaran Rokok Ilegal Masih Marak, 752 Juta Batang Diamankan 2024 Ekonomi • 5 bulan yang lalu</t>
+          <t>01:15 VIDEO: Bea Cukai Amankan Ratusan Ribu Bungkus Rokok Ilegal TV • 3 bulan yang lalu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250417075106-532-1219649/peredaran-rokok-ilegal-masih-marak-752-juta-batang-diamankan-2024</t>
+          <t>https://www.cnnindonesia.com/tv/20250609152726-407-1237859/video-bea-cukai-amankan-ratusan-ribu-bungkus-rokok-ilegal</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45764.43641203704</v>
+        <v>45817.6669675926</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-04-17 10:28:26+07:00</t>
+          <t>2025-06-09 16:00:26+07:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:49.581354+07:00</t>
+          <t>2025-10-01 08:55:18.962910+07:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Siap-siap, 'Teh Botol' Cs Kena Cukai Mulai Pertengahan 2025 Ekonomi • 8 bulan yang lalu</t>
+          <t>Bea Cukai dan TNI AL Gagalkan Pengiriman Rokok Ilegal Nasional • 4 bulan yang lalu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20250110185004-532-1185939/siap-siap-teh-botol-cs-kena-cukai-mulai-pertengahan-2025</t>
+          <t>https://www.cnnindonesia.com/nasional/20250518142657-12-1230456/bea-cukai-dan-tni-al-gagalkan-pengiriman-rokok-ilegal</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45667.79155092593</v>
+        <v>45795.6471875</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-01-10 18:59:50+07:00</t>
+          <t>2025-05-18 15:31:57+07:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:49.847047+07:00</t>
+          <t>2025-10-01 08:55:19.273533+07:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>OECD Sebut Penerimaan Pajak RI Terendah di Asean Ekonomi • 10 bulan yang lalu</t>
+          <t>Peredaran Rokok Ilegal Masih Marak, 752 Juta Batang Diamankan 2024 Ekonomi • 5 bulan yang lalu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20241128123525-92-1171621/oecd-sebut-penerimaan-pajak-ri-terendah-di-asean</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20250417075106-532-1219649/peredaran-rokok-ilegal-masih-marak-752-juta-batang-diamankan-2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45625.47125</v>
+        <v>45764.43641203704</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2024-11-29 11:18:36+07:00</t>
+          <t>2025-04-17 10:28:26+07:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:50.138959+07:00</t>
+          <t>2025-10-01 08:55:19.437268+07:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kemenkeu Pastikan Cukai Rokok Tak Naik di 2025 Ekonomi • 10 bulan yang lalu</t>
+          <t>Polisi Sebut Mobil BRV Lawan Arah di Tol Pekalongan Bawa Rokok Ilegal Nasional • 5 bulan yang lalu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20241122111330-532-1169450/kemenkeu-pastikan-cukai-rokok-tak-naik-di-2025</t>
+          <t>https://www.cnnindonesia.com/nasional/20250414181731-12-1218695/polisi-sebut-mobil-brv-lawan-arah-di-tol-pekalongan-bawa-rokok-ilegal</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45618.53159722222</v>
+        <v>45761.76472222222</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2024-11-22 12:45:30+07:00</t>
+          <t>2025-04-14 18:21:12+07:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:50.564331+07:00</t>
+          <t>2025-10-01 08:55:19.638125+07:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kemenkeu Incar Pendapatan Rp3,8 T dari Cukai Minuman Berpemanis 2025 Ekonomi • 1 tahun yang lalu</t>
+          <t>Bakamla Tangkap Kapal Nihil Awak Angkut 200 Bal Rokok Ilegal di Kepri Nasional • 7 bulan yang lalu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240926122328-532-1148593/kemenkeu-incar-pendapatan-rp38-t-dari-cukai-minuman-berpemanis-2025</t>
+          <t>https://www.cnnindonesia.com/nasional/20250215183408-20-1198683/bakamla-tangkap-kapal-nihil-awak-angkut-200-bal-rokok-ilegal-di-kepri</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45561.78247685185</v>
+        <v>45703.78006944444</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2024-09-26 18:46:46+07:00</t>
+          <t>2025-02-15 18:43:18+07:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:50.838317+07:00</t>
+          <t>2025-10-01 08:55:20.014284+07:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kemenkeu Tunggu Review Tim Prabowo soal Cukai Rokok 2025 Ekonomi • 1 tahun yang lalu</t>
+          <t>Bea Cukai Sita 438,94 Juta Rokok Ilegal per 4 Agustus Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240923174837-532-1147411/kemenkeu-tunggu-review-tim-prabowo-soal-cukai-rokok-2025</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240906130245-532-1141723/bea-cukai-sita-43894-juta-rokok-ilegal-per-4-agustus</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45558.8559837963</v>
+        <v>45541.82098379629</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2024-09-23 20:32:37+07:00</t>
+          <t>2024-09-06 19:42:13+07:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:51.122479+07:00</t>
+          <t>2025-10-01 08:55:20.139695+07:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Menperin Kaji Insentif ke Produsen Jika Minuman Berpemanis Kena Cukai Ekonomi • 1 tahun yang lalu</t>
+          <t>Bea Cukai Gagalkan Impor 16 Kontainer Rokok Ilegal dari UAE Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240912153343-92-1143859/menperin-kaji-insentif-ke-produsen-jika-minuman-berpemanis-kena-cukai</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240807205257-532-1130501/bea-cukai-gagalkan-impor-16-kontainer-rokok-ilegal-dari-uae</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>2</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45547.7283912037</v>
+        <v>45512.65280092593</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2024-09-12 17:28:53+07:00</t>
+          <t>2024-08-08 15:40:02+07:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:51.355390+07:00</t>
+          <t>2025-10-01 08:55:20.281343+07:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Produsen Rokok Pamer Cukai Tembakau Lebih Besar dari Dividen BUMN Ekonomi • 1 tahun yang lalu</t>
+          <t>7 Persen Rokok di Indonesia Ilegal Ekonomi • 1 tahun yang lalu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240911190149-92-1143550/produsen-rokok-pamer-cukai-tembakau-lebih-besar-dari-dividen-bumn</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20240529135335-92-1103343/7-persen-rokok-di-indonesia-ilegal</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45547.48612268519</v>
+        <v>45442.47527777778</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2024-09-12 11:40:01+07:00</t>
+          <t>2024-05-30 11:24:24+07:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-09-30 14:00:51.544121+07:00</t>
+          <t>2025-10-01 08:55:20.409771+07:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ANALISIS Bisakah Lonjakan Diabetes di RI Direm dengan Cukai Minuman Berpemanis? Ekonomi • 1 tahun yang lalu</t>
+          <t>15,8 Juta Batang Rokok Ilegal Disita Ditjen Bea Cukai Setiap Minggu Ekonomi • 2 tahun yang lalu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240830062427-532-1139209/bisakah-lonjakan-diabetes-di-ri-direm-dengan-cukai-minuman-berpemanis</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20230811140806-532-984892/158-juta-batang-rokok-ilegal-disita-ditjen-bea-cukai-setiap-minggu</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45534.30251157407</v>
+        <v>45149.73644675926</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2024-08-30 07:15:37+07:00</t>
+          <t>2023-08-11 17:40:29+07:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:01.051898+07:00</t>
+          <t>2025-10-01 08:55:20.625580+07:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Diabetes Anak Melesat, Sri Mulyani Ingin Cukai Minuman Manis Jalan Ekonomi • 1 tahun yang lalu</t>
+          <t>Rokok Ilegal Meningkat Tahun Ini, Kerugian Rp548 M Ekonomi • 2 tahun yang lalu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240828143925-532-1138588/diabetes-anak-melesat-sri-mulyani-ingin-cukai-minuman-manis-jalan</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20221212143947-532-886353/rokok-ilegal-meningkat-tahun-ini-kerugian-rp548-m</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>3</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45532.62947916667</v>
+        <v>44907.67791666667</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-08-28 15:06:27+07:00</t>
+          <t>2022-12-12 16:16:12+07:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:02.513554+07:00</t>
+          <t>2025-10-01 08:55:24.286972+07:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10 Barang Terbaru yang Terancam Kena Cukai Ekonomi • 1 tahun yang lalu</t>
+          <t>Di Balik Kepulan Asap, Lampung 'Digempur' Rokok Ilegal Ekonomi • 2 tahun yang lalu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240801124009-532-1128025/10-barang-terbaru-yang-terancam-kena-cukai</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20221130105259-92-880734/di-balik-kepulan-asap-lampung-digempur-rokok-ilegal</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>3</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45505.53304398148</v>
+        <v>44896.39430555556</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024-08-01 12:47:35+07:00</t>
+          <t>2022-12-01 09:27:48+07:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:03.495621+07:00</t>
+          <t>2025-10-01 08:55:24.432670+07:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bos DJBC soal Makanan Siap Saji Akan Kena Cukai: Ada Mekanismenya Ekonomi • 1 tahun yang lalu</t>
+          <t>Bea Cukai Sumbagbar Buka Suara Soal Peredaran Rokok Ilegal di Lampung Ekonomi • 2 tahun yang lalu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240730140951-532-1127160/bos-djbc-soal-makanan-siap-saji-akan-kena-cukai-ada-mekanismenya</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20221130134845-92-880850/bea-cukai-sumbagbar-buka-suara-soal-peredaran-rokok-ilegal-di-lampung</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45504.58365740741</v>
+        <v>44895.87429398148</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-07-31 14:00:28+07:00</t>
+          <t>2022-11-30 20:58:59+07:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:03.800795+07:00</t>
+          <t>2025-10-01 08:55:24.648292+07:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jokowi Incar Cukai Makanan Olahan Pedagang Kaki Lima hingga Restoran Ekonomi • 1 tahun yang lalu</t>
+          <t>Bea Cukai Musnahkan Rokok Ilegal dan Sex Toys Senilai Rp2,2 M Ekonomi • 2 tahun yang lalu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240730183119-532-1127310/jokowi-incar-cukai-makanan-olahan-pedagang-kaki-lima-hingga-restoran</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20221130131940-532-880830/bea-cukai-musnahkan-rokok-ilegal-dan-sex-toys-senilai-rp22-m</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>3</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45503.81619212963</v>
+        <v>44895.57192129629</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-07-30 19:35:19+07:00</t>
+          <t>2022-11-30 13:43:34+07:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:04.001283+07:00</t>
+          <t>2025-10-01 08:55:24.794121+07:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sah, Makanan Olahan Bisa Kena Cukai Demi Batasi Gula - Lemak Ekonomi • 1 tahun yang lalu</t>
+          <t>Bea Cukai Tindak 18.659 Kasus Rokok Ilegal Rugikan Negara Rp407 M 2022 Ekonomi • 2 tahun yang lalu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240730154743-532-1127200/sah-makanan-olahan-bisa-kena-cukai-demi-batasi-gula-lemak</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20221104162545-532-869632/bea-cukai-tindak-18659-kasus-rokok-ilegal-rugikan-negara-rp407-m-2022</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>3</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45503.6910300926</v>
+        <v>44869.73346064815</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2024-07-30 16:35:05+07:00</t>
+          <t>2022-11-04 17:36:11+07:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:04.720934+07:00</t>
+          <t>2025-10-01 08:55:25.416846+07:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PP Kesehatan: Iklan Makanan Olahan Kadar Gula Tinggi Bisa Dilarang Nasional • 1 tahun yang lalu</t>
+          <t>Bea Cukai Sulsel Musnahkan 5,2 Juta Rokok Ilegal Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20240730111338-20-1127068/pp-kesehatan-iklan-makanan-olahan-kadar-gula-tinggi-bisa-dilarang</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20220712155248-532-820536/bea-cukai-sulsel-musnahkan-52-juta-rokok-ilegal</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>3</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45503.48596064815</v>
+        <v>44754.94849537037</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-07-30 11:39:47+07:00</t>
+          <t>2022-07-12 22:45:50+07:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:05.180287+07:00</t>
+          <t>2025-10-01 08:55:25.614512+07:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Penjelasan DJBC soal Kabar Rumah, Tiket Konser, Tisu Akan Kena Cukai Ekonomi • 1 tahun yang lalu</t>
+          <t>Bea Cukai Sita 1 Juta Rokok Impor China Ilegal untuk Pekerja Morowali Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240725133113-532-1125428/penjelasan-djbc-soal-kabar-rumah-tiket-konser-tisu-akan-kena-cukai</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20220323071202-92-774953/bea-cukai-sita-1-juta-rokok-impor-china-ilegal-untuk-pekerja-morowali</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>3</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45498.83349537037</v>
+        <v>44643.31049768518</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2024-07-25 20:00:14+07:00</t>
+          <t>2022-03-23 07:27:07+07:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:05.423177+07:00</t>
+          <t>2025-10-01 08:55:25.832533+07:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wacana Pengenaan Cukai Diperluas: Tiket Konser, Tisu hingga Detergen Ekonomi • 1 tahun yang lalu</t>
+          <t>Bea Cukai Musnahkan Barang Ilegal Senilai RP15,6 Miliar di Tangerang Ekonomi • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240724154738-532-1125056/wacana-pengenaan-cukai-diperluas-tiket-konser-tisu-hingga-detergen</t>
+          <t>https://www.cnnindonesia.com/ekonomi/20211222133024-532-737253/bea-cukai-musnahkan-barang-ilegal-senilai-rp156-miliar-di-tangerang</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>3</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45497.66765046296</v>
+        <v>44552.64771990741</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-07-24 16:01:25+07:00</t>
+          <t>2021-12-22 15:32:43+07:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:06.213275+07:00</t>
+          <t>2025-10-01 08:55:26.002054+07:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Zulhas Curhat Dilema Industri Rokok, Duit Cukai Tinggi Tapi Tak Sehat Ekonomi • 1 tahun yang lalu</t>
+          <t>Rokok Ilegal Hingga Sex Toys Rugikan Negara Rp2 Miliar Dimusnahkan Nasional • 3 tahun yang lalu</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/ekonomi/20240529174637-92-1103469/zulhas-curhat-dilema-industri-rokok-duit-cukai-tinggi-tapi-tak-sehat</t>
+          <t>https://www.cnnindonesia.com/nasional/20211118114053-12-722860/rokok-ilegal-hingga-sex-toys-rugikan-negara-rp2-miliar-dimusnahkan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>cukai</t>
+          <t>rokok ilegal</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>3</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45441.86556712963</v>
+        <v>44518.51324074074</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2024-05-29 20:46:25+07:00</t>
+          <t>2021-11-18 12:19:04+07:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-09-30 14:01:06.491091+07:00</t>
+          <t>2025-10-01 08:55:26.188165+07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Rokok Ilegal Masih Dominasi Penindakan Bea Cukai Ekonomi • 4 tahun yang lalu</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/ekonomi/20210923124242-532-698403/rokok-ilegal-masih-dominasi-penindakan-bea-cukai</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>rokok ilegal</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44462.57931712963</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-09-23 13:54:13+07:00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-10-01 08:55:26.341979+07:00</t>
         </is>
       </c>
     </row>
